--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -487,9 +487,6 @@
     <t>~/links/CB.HTS.Analysis/CTTV020/data/GSK/chip-seq/project_3/bam/BEAS2B_H3K4me3_ChIP-Seq_3974_bwa_samse_HS32_18418:5_edited_BR2.bam</t>
   </si>
   <si>
-    <t>THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
     <t>THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>ATAC</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -913,10 +913,10 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="128.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="140.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="140.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2504,19 +2504,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" t="s">
         <v>181</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" t="s">
-        <v>144</v>
-      </c>
-      <c r="E76" t="s">
-        <v>157</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -2537,7 +2537,7 @@
         <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -2558,15 +2558,15 @@
         <v>144</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -2575,15 +2575,15 @@
         <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -2592,15 +2592,15 @@
         <v>144</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -2609,15 +2609,15 @@
         <v>144</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -2626,15 +2626,15 @@
         <v>144</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -2643,15 +2643,15 @@
         <v>144</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -2660,15 +2660,15 @@
         <v>144</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -2677,16 +2677,16 @@
         <v>144</v>
       </c>
       <c r="E85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" t="s">
         <v>180</v>
       </c>
-      <c r="B86" t="s">
-        <v>181</v>
-      </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
@@ -2694,16 +2694,16 @@
         <v>144</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
         <v>180</v>
       </c>
-      <c r="B87" t="s">
-        <v>181</v>
-      </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
@@ -2711,16 +2711,16 @@
         <v>144</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
         <v>180</v>
       </c>
-      <c r="B88" t="s">
-        <v>181</v>
-      </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
@@ -2728,16 +2728,16 @@
         <v>144</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
         <v>180</v>
       </c>
-      <c r="B89" t="s">
-        <v>181</v>
-      </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
@@ -2745,16 +2745,16 @@
         <v>144</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
-        <v>181</v>
-      </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
@@ -2762,16 +2762,16 @@
         <v>144</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
         <v>180</v>
       </c>
-      <c r="B91" t="s">
-        <v>181</v>
-      </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
@@ -2779,16 +2779,16 @@
         <v>144</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" t="s">
         <v>180</v>
       </c>
-      <c r="B92" t="s">
-        <v>181</v>
-      </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
@@ -2796,16 +2796,16 @@
         <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s">
         <v>180</v>
       </c>
-      <c r="B93" t="s">
-        <v>181</v>
-      </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
@@ -2813,16 +2813,16 @@
         <v>144</v>
       </c>
       <c r="E93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" t="s">
         <v>180</v>
       </c>
-      <c r="B94" t="s">
-        <v>181</v>
-      </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
@@ -2830,16 +2830,16 @@
         <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" t="s">
         <v>180</v>
       </c>
-      <c r="B95" t="s">
-        <v>181</v>
-      </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
@@ -2847,16 +2847,16 @@
         <v>144</v>
       </c>
       <c r="E95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" t="s">
         <v>180</v>
       </c>
-      <c r="B96" t="s">
-        <v>181</v>
-      </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
@@ -2864,16 +2864,16 @@
         <v>144</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" t="s">
         <v>180</v>
       </c>
-      <c r="B97" t="s">
-        <v>181</v>
-      </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>144</v>
       </c>
       <c r="E97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -79,69 +79,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>THP1_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>THP1_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
     <t>THP-1</t>
   </si>
   <si>
@@ -154,363 +91,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
-    <t>THP1_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_VL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_V_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>THP1_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_PL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_P_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_VL_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_V_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>U937_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bigwig_with_align2rawsignal/F36P_hist_BR1_H3K27ac_TR1_edited.bw</t>
   </si>
   <si>
@@ -928,24 +508,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>NHBE_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>NHBE_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
     <t>NHBE</t>
   </si>
   <si>
@@ -968,6 +530,444 @@
   </si>
   <si>
     <t>VD3</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
 </sst>
 </file>
@@ -1320,11 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,9 +1331,9 @@
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="151.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="199.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1350,13 +1347,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1376,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(A2, "_", C2, "_", D2)</f>
@@ -1386,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="0">CONCATENATE(A3, "_", C3, "_", D3)</f>
@@ -1413,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -1440,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1457,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -1467,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,7 +1481,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -1494,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1511,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -1521,10 +1518,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -1548,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1565,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -1575,10 +1572,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1592,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -1602,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1619,7 +1616,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -1629,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1646,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -1656,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -1683,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1700,7 +1697,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -1710,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1727,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -1737,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1754,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -1764,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -1791,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1808,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -1818,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1835,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -1845,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -1872,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1889,7 +1886,7 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -1899,10 +1896,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1916,7 +1913,7 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -1926,10 +1923,10 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,7 +1940,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -1953,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1970,7 +1967,7 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -1980,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1997,7 +1994,7 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -2007,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2024,7 +2021,7 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -2034,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2051,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -2061,10 +2058,10 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2078,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -2088,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2105,7 +2102,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -2115,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2132,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -2142,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2159,7 +2156,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -2169,10 +2166,10 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2186,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -2196,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2213,7 +2210,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -2223,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>228</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2240,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -2250,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2267,7 +2264,7 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -2277,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2294,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -2304,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2321,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -2331,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="H37" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2348,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -2358,10 +2355,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="H38" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2375,7 +2372,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -2385,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2402,7 +2399,7 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -2412,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2429,7 +2426,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -2439,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="H41" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -2466,10 +2463,10 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="H42" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2483,7 +2480,7 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -2493,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2510,7 +2507,7 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -2520,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="H44" t="s">
-        <v>250</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2537,7 +2534,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -2547,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2564,7 +2561,7 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -2574,10 +2571,10 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2591,7 +2588,7 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -2601,10 +2598,10 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,7 +2615,7 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -2628,10 +2625,10 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="H48" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2645,7 +2642,7 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -2655,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="H49" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2672,7 +2669,7 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
@@ -2682,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="H50" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2699,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -2709,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="H51" t="s">
-        <v>264</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2726,7 +2723,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -2736,10 +2733,10 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="H52" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2753,7 +2750,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
@@ -2763,10 +2760,10 @@
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="H53" t="s">
-        <v>268</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2780,7 +2777,7 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -2790,10 +2787,10 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="H54" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2807,7 +2804,7 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -2817,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="H55" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2834,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
@@ -2844,10 +2841,10 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
-        <v>274</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,7 +2858,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
@@ -2871,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="H57" t="s">
-        <v>276</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -2898,10 +2895,10 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>277</v>
+        <v>137</v>
       </c>
       <c r="H58" t="s">
-        <v>278</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,7 +2912,7 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
@@ -2925,10 +2922,10 @@
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="H59" t="s">
-        <v>280</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2942,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -2952,7 +2949,7 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="H60" t="s">
         <v>20</v>
@@ -2969,7 +2966,7 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -2996,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
@@ -3006,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="H62" t="s">
-        <v>283</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3023,7 +3020,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
@@ -3036,7 +3033,7 @@
         <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3050,7 +3047,7 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -3060,10 +3057,10 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>285</v>
+        <v>145</v>
       </c>
       <c r="H64" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3077,7 +3074,7 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
@@ -3090,7 +3087,7 @@
         <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,7 +3101,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
@@ -3114,10 +3111,10 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c r="H66" t="s">
-        <v>289</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3131,7 +3128,7 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="1">CONCATENATE(A67, "_", C67, "_", D67)</f>
@@ -3144,7 +3141,7 @@
         <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3158,7 +3155,7 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
@@ -3168,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
@@ -3185,7 +3182,7 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
@@ -3212,7 +3209,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
@@ -3222,10 +3219,10 @@
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="H70" t="s">
-        <v>293</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3239,7 +3236,7 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
@@ -3252,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>294</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3266,7 +3263,7 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
@@ -3276,10 +3273,10 @@
         <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="H72" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3293,7 +3290,7 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
@@ -3306,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>297</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,7 +3317,7 @@
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
@@ -3330,10 +3327,10 @@
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="H74" t="s">
-        <v>299</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,7 +3344,7 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
@@ -3360,15 +3357,15 @@
         <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>300</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3384,15 +3381,15 @@
         <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3408,15 +3405,15 @@
         <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3432,15 +3429,15 @@
         <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3456,15 +3453,15 @@
         <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3480,15 +3477,15 @@
         <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3504,15 +3501,15 @@
         <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -3528,15 +3525,15 @@
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3552,15 +3549,15 @@
         <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -3576,15 +3573,15 @@
         <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -3600,15 +3597,15 @@
         <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -3624,15 +3621,15 @@
         <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -3648,15 +3645,15 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -3672,15 +3669,15 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -3696,15 +3693,15 @@
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -3720,15 +3717,15 @@
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -3744,15 +3741,15 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -3768,15 +3765,15 @@
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -3792,15 +3789,15 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -3816,15 +3813,15 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -3840,15 +3837,15 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -3864,15 +3861,15 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -3888,12 +3885,12 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -3902,7 +3899,7 @@
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
@@ -3912,12 +3909,12 @@
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -3926,7 +3923,7 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
@@ -3936,12 +3933,12 @@
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -3950,7 +3947,7 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
@@ -3960,12 +3957,12 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3974,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
@@ -3984,12 +3981,12 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3998,7 +3995,7 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
@@ -4008,21 +4005,21 @@
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
@@ -4032,21 +4029,21 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
@@ -4056,21 +4053,21 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
@@ -4080,21 +4077,21 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
@@ -4104,12 +4101,12 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -4118,7 +4115,7 @@
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
@@ -4128,12 +4125,12 @@
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -4142,7 +4139,7 @@
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
@@ -4152,12 +4149,12 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -4166,7 +4163,7 @@
         <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
@@ -4176,12 +4173,12 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -4190,7 +4187,7 @@
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
@@ -4200,12 +4197,12 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>58</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -4214,7 +4211,7 @@
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
@@ -4224,12 +4221,12 @@
         <v>2</v>
       </c>
       <c r="G111" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -4238,7 +4235,7 @@
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
@@ -4248,12 +4245,12 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -4262,7 +4259,7 @@
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
@@ -4272,12 +4269,12 @@
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -4286,7 +4283,7 @@
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
@@ -4296,12 +4293,12 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -4310,7 +4307,7 @@
         <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
@@ -4320,12 +4317,12 @@
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -4334,7 +4331,7 @@
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
@@ -4344,12 +4341,12 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4358,7 +4355,7 @@
         <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
@@ -4368,12 +4365,12 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -4382,7 +4379,7 @@
         <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
@@ -4392,21 +4389,21 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
@@ -4416,21 +4413,21 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="1"/>
@@ -4440,21 +4437,21 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
@@ -4464,21 +4461,21 @@
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="1"/>
@@ -4488,12 +4485,12 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -4502,7 +4499,7 @@
         <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="1"/>
@@ -4512,12 +4509,12 @@
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -4526,7 +4523,7 @@
         <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="1"/>
@@ -4536,12 +4533,12 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -4550,7 +4547,7 @@
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="1"/>
@@ -4560,12 +4557,12 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -4574,7 +4571,7 @@
         <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
@@ -4584,12 +4581,12 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4598,7 +4595,7 @@
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="1"/>
@@ -4608,12 +4605,12 @@
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -4622,7 +4619,7 @@
         <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="1"/>
@@ -4632,21 +4629,21 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="1"/>
@@ -4656,21 +4653,21 @@
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="1"/>
@@ -4680,21 +4677,21 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" ref="E131:E194" si="2">CONCATENATE(A131, "_", C131, "_", D131)</f>
@@ -4704,21 +4701,21 @@
         <v>2</v>
       </c>
       <c r="G131" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="2"/>
@@ -4728,12 +4725,12 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -4742,7 +4739,7 @@
         <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
@@ -4752,12 +4749,12 @@
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -4766,7 +4763,7 @@
         <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
@@ -4776,12 +4773,12 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -4790,7 +4787,7 @@
         <v>13</v>
       </c>
       <c r="D135" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="2"/>
@@ -4800,12 +4797,12 @@
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -4814,7 +4811,7 @@
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="2"/>
@@ -4824,12 +4821,12 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -4838,7 +4835,7 @@
         <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="2"/>
@@ -4848,12 +4845,12 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -4862,7 +4859,7 @@
         <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="2"/>
@@ -4872,21 +4869,21 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="2"/>
@@ -4896,21 +4893,21 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C140" t="s">
         <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
@@ -4920,21 +4917,21 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
@@ -4944,21 +4941,21 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="2"/>
@@ -4968,12 +4965,12 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>90</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -4982,7 +4979,7 @@
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="2"/>
@@ -4992,12 +4989,12 @@
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>91</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -5006,7 +5003,7 @@
         <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="2"/>
@@ -5016,12 +5013,12 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -5030,7 +5027,7 @@
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="2"/>
@@ -5040,12 +5037,12 @@
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -5054,7 +5051,7 @@
         <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="2"/>
@@ -5064,12 +5061,12 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>94</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -5078,7 +5075,7 @@
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="2"/>
@@ -5088,12 +5085,12 @@
         <v>2</v>
       </c>
       <c r="G147" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -5102,7 +5099,7 @@
         <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="2"/>
@@ -5112,21 +5109,21 @@
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="2"/>
@@ -5136,21 +5133,21 @@
         <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>97</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="2"/>
@@ -5160,21 +5157,21 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="2"/>
@@ -5184,21 +5181,21 @@
         <v>2</v>
       </c>
       <c r="G151" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="2"/>
@@ -5208,15 +5205,15 @@
         <v>2</v>
       </c>
       <c r="G152" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -5229,15 +5226,15 @@
         <v>2</v>
       </c>
       <c r="G153" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
@@ -5250,15 +5247,15 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
@@ -5271,15 +5268,15 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -5292,12 +5289,12 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -5306,7 +5303,7 @@
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="2"/>
@@ -5316,12 +5313,12 @@
         <v>2</v>
       </c>
       <c r="G157" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -5330,7 +5327,7 @@
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="2"/>
@@ -5340,12 +5337,12 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -5354,7 +5351,7 @@
         <v>13</v>
       </c>
       <c r="D159" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="2"/>
@@ -5364,12 +5361,12 @@
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -5378,7 +5375,7 @@
         <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="2"/>
@@ -5388,12 +5385,12 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5402,7 +5399,7 @@
         <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="2"/>
@@ -5412,12 +5409,12 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5426,7 +5423,7 @@
         <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="2"/>
@@ -5436,21 +5433,21 @@
         <v>2</v>
       </c>
       <c r="G162" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="2"/>
@@ -5460,21 +5457,21 @@
         <v>2</v>
       </c>
       <c r="G163" t="s">
-        <v>111</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
       </c>
       <c r="D164" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="2"/>
@@ -5484,21 +5481,21 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
       </c>
       <c r="D165" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="2"/>
@@ -5508,21 +5505,21 @@
         <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="2"/>
@@ -5532,12 +5529,12 @@
         <v>2</v>
       </c>
       <c r="G166" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -5546,7 +5543,7 @@
         <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="2"/>
@@ -5556,12 +5553,12 @@
         <v>2</v>
       </c>
       <c r="G167" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -5570,7 +5567,7 @@
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="2"/>
@@ -5580,12 +5577,12 @@
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
@@ -5594,7 +5591,7 @@
         <v>13</v>
       </c>
       <c r="D169" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="2"/>
@@ -5604,12 +5601,12 @@
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -5618,7 +5615,7 @@
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="2"/>
@@ -5628,12 +5625,12 @@
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -5642,7 +5639,7 @@
         <v>13</v>
       </c>
       <c r="D171" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="2"/>
@@ -5652,12 +5649,12 @@
         <v>2</v>
       </c>
       <c r="G171" t="s">
-        <v>119</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -5666,7 +5663,7 @@
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="2"/>
@@ -5676,12 +5673,12 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -5690,7 +5687,7 @@
         <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="2"/>
@@ -5700,12 +5697,12 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -5714,7 +5711,7 @@
         <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="2"/>
@@ -5724,12 +5721,12 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
@@ -5738,7 +5735,7 @@
         <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="2"/>
@@ -5748,12 +5745,12 @@
         <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -5762,7 +5759,7 @@
         <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="2"/>
@@ -5772,12 +5769,12 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -5786,7 +5783,7 @@
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="2"/>
@@ -5796,12 +5793,12 @@
         <v>2</v>
       </c>
       <c r="G177" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -5810,7 +5807,7 @@
         <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="2"/>
@@ -5820,21 +5817,21 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
       </c>
       <c r="D179" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="2"/>
@@ -5844,21 +5841,21 @@
         <v>2</v>
       </c>
       <c r="G179" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
       </c>
       <c r="D180" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="2"/>
@@ -5868,21 +5865,21 @@
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C181" t="s">
         <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="2"/>
@@ -5892,21 +5889,21 @@
         <v>2</v>
       </c>
       <c r="G181" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B182" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C182" t="s">
         <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="2"/>
@@ -5916,12 +5913,12 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -5930,7 +5927,7 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="2"/>
@@ -5940,12 +5937,12 @@
         <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -5954,7 +5951,7 @@
         <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="2"/>
@@ -5964,12 +5961,12 @@
         <v>2</v>
       </c>
       <c r="G184" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
@@ -5978,7 +5975,7 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="2"/>
@@ -5988,12 +5985,12 @@
         <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -6002,7 +5999,7 @@
         <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="2"/>
@@ -6012,12 +6009,12 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -6026,7 +6023,7 @@
         <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="2"/>
@@ -6036,12 +6033,12 @@
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>135</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -6050,7 +6047,7 @@
         <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="2"/>
@@ -6060,21 +6057,21 @@
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B189" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
       </c>
       <c r="D189" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="2"/>
@@ -6084,21 +6081,21 @@
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B190" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="2"/>
@@ -6108,21 +6105,21 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B191" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="2"/>
@@ -6132,21 +6129,21 @@
         <v>2</v>
       </c>
       <c r="G191" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B192" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
       </c>
       <c r="D192" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="2"/>
@@ -6156,12 +6153,12 @@
         <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>140</v>
+        <v>287</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -6170,7 +6167,7 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="2"/>
@@ -6180,12 +6177,12 @@
         <v>2</v>
       </c>
       <c r="G193" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -6194,7 +6191,7 @@
         <v>14</v>
       </c>
       <c r="D194" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="2"/>
@@ -6204,12 +6201,12 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>142</v>
+        <v>289</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -6218,7 +6215,7 @@
         <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" ref="E195:E222" si="3">CONCATENATE(A195, "_", C195, "_", D195)</f>
@@ -6228,12 +6225,12 @@
         <v>2</v>
       </c>
       <c r="G195" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
@@ -6242,7 +6239,7 @@
         <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="3"/>
@@ -6252,12 +6249,12 @@
         <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
@@ -6266,7 +6263,7 @@
         <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="3"/>
@@ -6276,12 +6273,12 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
@@ -6290,7 +6287,7 @@
         <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="3"/>
@@ -6300,21 +6297,21 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
       </c>
       <c r="D199" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="3"/>
@@ -6324,21 +6321,21 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>147</v>
+        <v>294</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
       </c>
       <c r="D200" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="3"/>
@@ -6348,21 +6345,21 @@
         <v>2</v>
       </c>
       <c r="G200" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B201" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="3"/>
@@ -6372,21 +6369,21 @@
         <v>2</v>
       </c>
       <c r="G201" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="3"/>
@@ -6396,12 +6393,12 @@
         <v>2</v>
       </c>
       <c r="G202" t="s">
-        <v>150</v>
+        <v>297</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -6410,7 +6407,7 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="3"/>
@@ -6420,12 +6417,12 @@
         <v>2</v>
       </c>
       <c r="G203" t="s">
-        <v>151</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
@@ -6434,7 +6431,7 @@
         <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="3"/>
@@ -6444,12 +6441,12 @@
         <v>2</v>
       </c>
       <c r="G204" t="s">
-        <v>152</v>
+        <v>299</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
@@ -6458,7 +6455,7 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="3"/>
@@ -6468,12 +6465,12 @@
         <v>2</v>
       </c>
       <c r="G205" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
@@ -6482,7 +6479,7 @@
         <v>14</v>
       </c>
       <c r="D206" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="3"/>
@@ -6492,12 +6489,12 @@
         <v>2</v>
       </c>
       <c r="G206" t="s">
-        <v>154</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
@@ -6506,7 +6503,7 @@
         <v>13</v>
       </c>
       <c r="D207" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="3"/>
@@ -6516,12 +6513,12 @@
         <v>2</v>
       </c>
       <c r="G207" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B208" t="s">
         <v>10</v>
@@ -6530,7 +6527,7 @@
         <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="3"/>
@@ -6540,21 +6537,21 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B209" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="3"/>
@@ -6564,21 +6561,21 @@
         <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B210" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
       </c>
       <c r="D210" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="3"/>
@@ -6588,21 +6585,21 @@
         <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B211" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
       </c>
       <c r="D211" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="3"/>
@@ -6612,21 +6609,21 @@
         <v>2</v>
       </c>
       <c r="G211" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
       </c>
       <c r="D212" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="3"/>
@@ -6636,15 +6633,15 @@
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
@@ -6657,15 +6654,15 @@
         <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B214" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
@@ -6678,15 +6675,15 @@
         <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B215" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
@@ -6699,15 +6696,15 @@
         <v>2</v>
       </c>
       <c r="G215" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
@@ -6720,12 +6717,12 @@
         <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>164</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -6734,7 +6731,7 @@
         <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="3"/>
@@ -6744,12 +6741,12 @@
         <v>2</v>
       </c>
       <c r="G217" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -6758,7 +6755,7 @@
         <v>14</v>
       </c>
       <c r="D218" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="3"/>
@@ -6768,12 +6765,12 @@
         <v>2</v>
       </c>
       <c r="G218" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
@@ -6782,7 +6779,7 @@
         <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="3"/>
@@ -6792,12 +6789,12 @@
         <v>2</v>
       </c>
       <c r="G219" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
@@ -6806,7 +6803,7 @@
         <v>14</v>
       </c>
       <c r="D220" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="3"/>
@@ -6816,12 +6813,12 @@
         <v>2</v>
       </c>
       <c r="G220" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
@@ -6830,7 +6827,7 @@
         <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="3"/>
@@ -6840,12 +6837,12 @@
         <v>2</v>
       </c>
       <c r="G221" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
@@ -6854,7 +6851,7 @@
         <v>14</v>
       </c>
       <c r="D222" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="3"/>
@@ -6864,7 +6861,7 @@
         <v>2</v>
       </c>
       <c r="G222" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$H$222</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -952,22 +955,22 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
 </sst>
 </file>
@@ -1320,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1335,7 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="60.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2730,7 +2733,7 @@
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
         <v>125</v>
@@ -2757,7 +2760,7 @@
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
         <v>127</v>
@@ -2784,7 +2787,7 @@
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
         <v>129</v>
@@ -2811,7 +2814,7 @@
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
         <v>131</v>
@@ -2838,7 +2841,7 @@
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
         <v>133</v>
@@ -2865,7 +2868,7 @@
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
         <v>135</v>
@@ -2892,7 +2895,7 @@
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" t="s">
         <v>137</v>
@@ -2919,7 +2922,7 @@
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" t="s">
         <v>139</v>
@@ -6738,7 +6741,7 @@
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G217" t="s">
         <v>312</v>
@@ -6762,7 +6765,7 @@
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G218" t="s">
         <v>313</v>
@@ -6786,7 +6789,7 @@
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="F219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G219" t="s">
         <v>314</v>
@@ -6810,7 +6813,7 @@
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="F220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G220" t="s">
         <v>315</v>
@@ -6834,7 +6837,7 @@
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G221" t="s">
         <v>316</v>
@@ -6858,13 +6861,14 @@
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G222" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H222"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="318">
   <si>
     <t>Cell</t>
   </si>
@@ -598,363 +598,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -971,6 +614,363 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1321,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1446,7 +1448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +1664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1716,7 +1718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +1772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1878,7 +1880,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1959,7 +1961,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2094,7 +2096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2256,7 +2258,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2310,7 +2312,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2337,7 +2339,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2607,7 +2609,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2634,7 +2636,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2688,7 +2690,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2715,7 +2717,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2744,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2796,7 +2798,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2823,7 +2825,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2850,7 +2852,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2877,7 +2879,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2958,7 +2960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3066,7 +3068,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -3174,7 +3176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -3201,7 +3203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -3228,7 +3230,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -3255,7 +3257,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -3282,7 +3284,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -3912,7 +3914,10 @@
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>193</v>
+        <v>199</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3936,7 +3941,10 @@
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>194</v>
+        <v>200</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3960,7 +3968,10 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>195</v>
+        <v>201</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3984,7 +3995,10 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4008,7 +4022,10 @@
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>197</v>
+        <v>203</v>
+      </c>
+      <c r="H102" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4032,7 +4049,10 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>198</v>
+        <v>204</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4056,7 +4076,10 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4080,7 +4103,10 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>200</v>
+        <v>206</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4104,7 +4130,10 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4128,7 +4157,10 @@
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>202</v>
+        <v>208</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4152,7 +4184,10 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>203</v>
+        <v>209</v>
+      </c>
+      <c r="H108" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4176,7 +4211,10 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>204</v>
+        <v>210</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4200,7 +4238,10 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="H110" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4224,7 +4265,10 @@
         <v>2</v>
       </c>
       <c r="G111" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="H111" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4248,10 +4292,13 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="H112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -4272,10 +4319,13 @@
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -4296,10 +4346,13 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="H114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -4320,10 +4373,13 @@
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -4344,10 +4400,13 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -4368,10 +4427,13 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -4392,10 +4454,13 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -4416,10 +4481,13 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -4440,10 +4508,13 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="H120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>21</v>
       </c>
@@ -4464,10 +4535,13 @@
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>21</v>
       </c>
@@ -4488,10 +4562,13 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="H122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -4512,10 +4589,13 @@
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -4536,10 +4616,13 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -4560,10 +4643,13 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -4584,10 +4670,13 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="H126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -4608,10 +4697,13 @@
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="H127" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -4632,10 +4724,13 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -4656,10 +4751,13 @@
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="H129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -4680,10 +4778,13 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="H130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -4704,10 +4805,13 @@
         <v>2</v>
       </c>
       <c r="G131" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="H131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -4728,10 +4832,13 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -4752,10 +4859,13 @@
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="H133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -4776,10 +4886,13 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -4800,10 +4913,13 @@
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="H135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -4824,10 +4940,13 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="H136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -4848,10 +4967,13 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="H137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -4872,10 +4994,13 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="H138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -4896,10 +5021,13 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="H139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -4920,10 +5048,13 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="H140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -4944,10 +5075,13 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -4968,10 +5102,13 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="H142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -4992,10 +5129,13 @@
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="H143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>21</v>
       </c>
@@ -5016,10 +5156,13 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="H144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -5040,10 +5183,13 @@
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="H145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -5064,10 +5210,13 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -5088,10 +5237,13 @@
         <v>2</v>
       </c>
       <c r="G147" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="H147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -5112,10 +5264,13 @@
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="H148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -5136,10 +5291,13 @@
         <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="H149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -5160,10 +5318,13 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -5184,10 +5345,13 @@
         <v>2</v>
       </c>
       <c r="G151" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="H151" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -5208,10 +5372,13 @@
         <v>2</v>
       </c>
       <c r="G152" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="H152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -5229,10 +5396,13 @@
         <v>2</v>
       </c>
       <c r="G153" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="H153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -5250,10 +5420,13 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="H154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -5271,10 +5444,13 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -5292,10 +5468,13 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H156" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>22</v>
       </c>
@@ -5316,10 +5495,13 @@
         <v>2</v>
       </c>
       <c r="G157" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>22</v>
       </c>
@@ -5340,10 +5522,13 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="H158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>22</v>
       </c>
@@ -5364,10 +5549,13 @@
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>22</v>
       </c>
@@ -5388,10 +5576,13 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="H160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -5412,10 +5603,13 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="H161" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -5436,10 +5630,13 @@
         <v>2</v>
       </c>
       <c r="G162" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="H162" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -5460,10 +5657,13 @@
         <v>2</v>
       </c>
       <c r="G163" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>22</v>
       </c>
@@ -5484,10 +5684,13 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="H164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -5508,10 +5711,13 @@
         <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -5532,10 +5738,13 @@
         <v>2</v>
       </c>
       <c r="G166" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -5556,10 +5765,13 @@
         <v>2</v>
       </c>
       <c r="G167" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="H167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -5580,10 +5792,13 @@
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -5604,10 +5819,13 @@
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="H169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -5628,10 +5846,13 @@
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -5652,10 +5873,13 @@
         <v>2</v>
       </c>
       <c r="G171" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -5676,10 +5900,13 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="H172" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>22</v>
       </c>
@@ -5700,10 +5927,13 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="H173" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -5724,10 +5954,13 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="H174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -5748,10 +5981,13 @@
         <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="H175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>22</v>
       </c>
@@ -5772,10 +6008,13 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="H176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -5796,10 +6035,13 @@
         <v>2</v>
       </c>
       <c r="G177" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="H177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>22</v>
       </c>
@@ -5820,10 +6062,13 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="H178" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>22</v>
       </c>
@@ -5844,10 +6089,13 @@
         <v>2</v>
       </c>
       <c r="G179" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -5868,10 +6116,13 @@
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="H180" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -5892,10 +6143,13 @@
         <v>2</v>
       </c>
       <c r="G181" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="H181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -5916,10 +6170,13 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="H182" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>22</v>
       </c>
@@ -5940,10 +6197,13 @@
         <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="H183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>22</v>
       </c>
@@ -5964,10 +6224,13 @@
         <v>2</v>
       </c>
       <c r="G184" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="H184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>22</v>
       </c>
@@ -5988,10 +6251,13 @@
         <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>22</v>
       </c>
@@ -6012,10 +6278,13 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="H186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -6036,10 +6305,13 @@
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -6060,10 +6332,13 @@
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="H188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>22</v>
       </c>
@@ -6084,10 +6359,13 @@
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="H189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>22</v>
       </c>
@@ -6108,10 +6386,13 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="H190" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>22</v>
       </c>
@@ -6132,10 +6413,13 @@
         <v>2</v>
       </c>
       <c r="G191" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="H191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -6156,10 +6440,13 @@
         <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="H192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -6180,10 +6467,13 @@
         <v>2</v>
       </c>
       <c r="G193" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="H193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>22</v>
       </c>
@@ -6204,10 +6494,13 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="H194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -6228,10 +6521,13 @@
         <v>2</v>
       </c>
       <c r="G195" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="H195" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -6252,10 +6548,13 @@
         <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H196" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -6276,10 +6575,13 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="H197" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -6300,10 +6602,13 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -6324,10 +6629,13 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="H199" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -6348,10 +6656,13 @@
         <v>2</v>
       </c>
       <c r="G200" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="H200" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -6372,10 +6683,13 @@
         <v>2</v>
       </c>
       <c r="G201" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="H201" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -6396,10 +6710,13 @@
         <v>2</v>
       </c>
       <c r="G202" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H202" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -6420,10 +6737,13 @@
         <v>2</v>
       </c>
       <c r="G203" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="H203" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -6444,10 +6764,13 @@
         <v>2</v>
       </c>
       <c r="G204" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="H204" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -6468,10 +6791,13 @@
         <v>2</v>
       </c>
       <c r="G205" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="H205" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -6492,10 +6818,13 @@
         <v>2</v>
       </c>
       <c r="G206" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="H206" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -6516,10 +6845,13 @@
         <v>2</v>
       </c>
       <c r="G207" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="H207" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -6540,10 +6872,13 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="H208" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>22</v>
       </c>
@@ -6564,10 +6899,13 @@
         <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="H209" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -6588,10 +6926,13 @@
         <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="H210" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -6612,10 +6953,13 @@
         <v>2</v>
       </c>
       <c r="G211" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="H211" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -6636,10 +6980,13 @@
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="H212" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>22</v>
       </c>
@@ -6657,10 +7004,13 @@
         <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="H213" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>22</v>
       </c>
@@ -6678,10 +7028,13 @@
         <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H214" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>22</v>
       </c>
@@ -6699,10 +7052,13 @@
         <v>2</v>
       </c>
       <c r="G215" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="H215" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>22</v>
       </c>
@@ -6720,10 +7076,13 @@
         <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="H216" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>164</v>
       </c>
@@ -6744,10 +7103,13 @@
         <v>3</v>
       </c>
       <c r="G217" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H217" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>164</v>
       </c>
@@ -6768,10 +7130,13 @@
         <v>3</v>
       </c>
       <c r="G218" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H218" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -6792,10 +7157,13 @@
         <v>3</v>
       </c>
       <c r="G219" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="H219" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>164</v>
       </c>
@@ -6816,10 +7184,13 @@
         <v>3</v>
       </c>
       <c r="G220" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H220" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>164</v>
       </c>
@@ -6840,10 +7211,13 @@
         <v>3</v>
       </c>
       <c r="G221" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H221" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>164</v>
       </c>
@@ -6864,11 +7238,20 @@
         <v>3</v>
       </c>
       <c r="G222" t="s">
-        <v>317</v>
+        <v>198</v>
+      </c>
+      <c r="H222" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H222"/>
+  <autoFilter ref="A1:H222">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="318">
   <si>
     <t>Cell</t>
   </si>
@@ -1325,8 +1325,8 @@
   <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,9 +3916,6 @@
       <c r="G98" t="s">
         <v>199</v>
       </c>
-      <c r="H98" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -3943,9 +3940,6 @@
       <c r="G99" t="s">
         <v>200</v>
       </c>
-      <c r="H99" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -3970,9 +3964,6 @@
       <c r="G100" t="s">
         <v>201</v>
       </c>
-      <c r="H100" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -3997,9 +3988,6 @@
       <c r="G101" t="s">
         <v>202</v>
       </c>
-      <c r="H101" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -4024,9 +4012,6 @@
       <c r="G102" t="s">
         <v>203</v>
       </c>
-      <c r="H102" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -4051,9 +4036,6 @@
       <c r="G103" t="s">
         <v>204</v>
       </c>
-      <c r="H103" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -4078,9 +4060,6 @@
       <c r="G104" t="s">
         <v>205</v>
       </c>
-      <c r="H104" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -4105,9 +4084,6 @@
       <c r="G105" t="s">
         <v>206</v>
       </c>
-      <c r="H105" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -4132,9 +4108,6 @@
       <c r="G106" t="s">
         <v>207</v>
       </c>
-      <c r="H106" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -4159,9 +4132,6 @@
       <c r="G107" t="s">
         <v>208</v>
       </c>
-      <c r="H107" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -4186,9 +4156,6 @@
       <c r="G108" t="s">
         <v>209</v>
       </c>
-      <c r="H108" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -4213,9 +4180,6 @@
       <c r="G109" t="s">
         <v>210</v>
       </c>
-      <c r="H109" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -4240,9 +4204,6 @@
       <c r="G110" t="s">
         <v>211</v>
       </c>
-      <c r="H110" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -4267,9 +4228,6 @@
       <c r="G111" t="s">
         <v>212</v>
       </c>
-      <c r="H111" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -4294,11 +4252,8 @@
       <c r="G112" t="s">
         <v>213</v>
       </c>
-      <c r="H112" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -4321,11 +4276,8 @@
       <c r="G113" t="s">
         <v>214</v>
       </c>
-      <c r="H113" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -4348,11 +4300,8 @@
       <c r="G114" t="s">
         <v>215</v>
       </c>
-      <c r="H114" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -4375,11 +4324,8 @@
       <c r="G115" t="s">
         <v>216</v>
       </c>
-      <c r="H115" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -4402,11 +4348,8 @@
       <c r="G116" t="s">
         <v>217</v>
       </c>
-      <c r="H116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -4429,11 +4372,8 @@
       <c r="G117" t="s">
         <v>218</v>
       </c>
-      <c r="H117" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -4456,11 +4396,8 @@
       <c r="G118" t="s">
         <v>219</v>
       </c>
-      <c r="H118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -4483,11 +4420,8 @@
       <c r="G119" t="s">
         <v>220</v>
       </c>
-      <c r="H119" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -4510,11 +4444,8 @@
       <c r="G120" t="s">
         <v>221</v>
       </c>
-      <c r="H120" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>21</v>
       </c>
@@ -4537,11 +4468,8 @@
       <c r="G121" t="s">
         <v>222</v>
       </c>
-      <c r="H121" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>21</v>
       </c>
@@ -4564,11 +4492,8 @@
       <c r="G122" t="s">
         <v>223</v>
       </c>
-      <c r="H122" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -4591,11 +4516,8 @@
       <c r="G123" t="s">
         <v>224</v>
       </c>
-      <c r="H123" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -4618,11 +4540,8 @@
       <c r="G124" t="s">
         <v>225</v>
       </c>
-      <c r="H124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -4645,11 +4564,8 @@
       <c r="G125" t="s">
         <v>226</v>
       </c>
-      <c r="H125" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -4672,11 +4588,8 @@
       <c r="G126" t="s">
         <v>227</v>
       </c>
-      <c r="H126" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -4699,11 +4612,8 @@
       <c r="G127" t="s">
         <v>228</v>
       </c>
-      <c r="H127" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -4726,11 +4636,8 @@
       <c r="G128" t="s">
         <v>229</v>
       </c>
-      <c r="H128" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -4753,11 +4660,8 @@
       <c r="G129" t="s">
         <v>230</v>
       </c>
-      <c r="H129" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -4780,11 +4684,8 @@
       <c r="G130" t="s">
         <v>231</v>
       </c>
-      <c r="H130" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -4807,11 +4708,8 @@
       <c r="G131" t="s">
         <v>232</v>
       </c>
-      <c r="H131" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -4834,11 +4732,8 @@
       <c r="G132" t="s">
         <v>233</v>
       </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -4861,11 +4756,8 @@
       <c r="G133" t="s">
         <v>234</v>
       </c>
-      <c r="H133" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -4888,11 +4780,8 @@
       <c r="G134" t="s">
         <v>235</v>
       </c>
-      <c r="H134" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -4915,11 +4804,8 @@
       <c r="G135" t="s">
         <v>236</v>
       </c>
-      <c r="H135" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -4942,11 +4828,8 @@
       <c r="G136" t="s">
         <v>237</v>
       </c>
-      <c r="H136" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -4969,11 +4852,8 @@
       <c r="G137" t="s">
         <v>238</v>
       </c>
-      <c r="H137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -4996,11 +4876,8 @@
       <c r="G138" t="s">
         <v>239</v>
       </c>
-      <c r="H138" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -5023,11 +4900,8 @@
       <c r="G139" t="s">
         <v>240</v>
       </c>
-      <c r="H139" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -5050,11 +4924,8 @@
       <c r="G140" t="s">
         <v>241</v>
       </c>
-      <c r="H140" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -5077,11 +4948,8 @@
       <c r="G141" t="s">
         <v>242</v>
       </c>
-      <c r="H141" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -5104,11 +4972,8 @@
       <c r="G142" t="s">
         <v>243</v>
       </c>
-      <c r="H142" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -5131,11 +4996,8 @@
       <c r="G143" t="s">
         <v>244</v>
       </c>
-      <c r="H143" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>21</v>
       </c>
@@ -5158,11 +5020,8 @@
       <c r="G144" t="s">
         <v>245</v>
       </c>
-      <c r="H144" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -5185,11 +5044,8 @@
       <c r="G145" t="s">
         <v>246</v>
       </c>
-      <c r="H145" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -5212,11 +5068,8 @@
       <c r="G146" t="s">
         <v>247</v>
       </c>
-      <c r="H146" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -5239,11 +5092,8 @@
       <c r="G147" t="s">
         <v>248</v>
       </c>
-      <c r="H147" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -5266,11 +5116,8 @@
       <c r="G148" t="s">
         <v>249</v>
       </c>
-      <c r="H148" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -5293,11 +5140,8 @@
       <c r="G149" t="s">
         <v>250</v>
       </c>
-      <c r="H149" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -5320,11 +5164,8 @@
       <c r="G150" t="s">
         <v>251</v>
       </c>
-      <c r="H150" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -5347,11 +5188,8 @@
       <c r="G151" t="s">
         <v>252</v>
       </c>
-      <c r="H151" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -5374,11 +5212,8 @@
       <c r="G152" t="s">
         <v>253</v>
       </c>
-      <c r="H152" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -5398,11 +5233,8 @@
       <c r="G153" t="s">
         <v>254</v>
       </c>
-      <c r="H153" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -5422,11 +5254,8 @@
       <c r="G154" t="s">
         <v>255</v>
       </c>
-      <c r="H154" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -5446,11 +5275,8 @@
       <c r="G155" t="s">
         <v>256</v>
       </c>
-      <c r="H155" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -5470,11 +5296,8 @@
       <c r="G156" t="s">
         <v>257</v>
       </c>
-      <c r="H156" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>22</v>
       </c>
@@ -5497,11 +5320,8 @@
       <c r="G157" t="s">
         <v>258</v>
       </c>
-      <c r="H157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>22</v>
       </c>
@@ -5524,11 +5344,8 @@
       <c r="G158" t="s">
         <v>259</v>
       </c>
-      <c r="H158" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>22</v>
       </c>
@@ -5551,11 +5368,8 @@
       <c r="G159" t="s">
         <v>260</v>
       </c>
-      <c r="H159" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>22</v>
       </c>
@@ -5578,11 +5392,8 @@
       <c r="G160" t="s">
         <v>261</v>
       </c>
-      <c r="H160" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -5605,11 +5416,8 @@
       <c r="G161" t="s">
         <v>262</v>
       </c>
-      <c r="H161" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -5632,11 +5440,8 @@
       <c r="G162" t="s">
         <v>263</v>
       </c>
-      <c r="H162" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -5659,11 +5464,8 @@
       <c r="G163" t="s">
         <v>264</v>
       </c>
-      <c r="H163" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>22</v>
       </c>
@@ -5686,11 +5488,8 @@
       <c r="G164" t="s">
         <v>265</v>
       </c>
-      <c r="H164" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -5713,11 +5512,8 @@
       <c r="G165" t="s">
         <v>266</v>
       </c>
-      <c r="H165" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -5740,11 +5536,8 @@
       <c r="G166" t="s">
         <v>267</v>
       </c>
-      <c r="H166" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -5767,11 +5560,8 @@
       <c r="G167" t="s">
         <v>268</v>
       </c>
-      <c r="H167" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -5794,11 +5584,8 @@
       <c r="G168" t="s">
         <v>269</v>
       </c>
-      <c r="H168" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -5821,11 +5608,8 @@
       <c r="G169" t="s">
         <v>270</v>
       </c>
-      <c r="H169" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -5848,11 +5632,8 @@
       <c r="G170" t="s">
         <v>271</v>
       </c>
-      <c r="H170" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -5875,11 +5656,8 @@
       <c r="G171" t="s">
         <v>272</v>
       </c>
-      <c r="H171" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -5902,11 +5680,8 @@
       <c r="G172" t="s">
         <v>273</v>
       </c>
-      <c r="H172" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>22</v>
       </c>
@@ -5929,11 +5704,8 @@
       <c r="G173" t="s">
         <v>274</v>
       </c>
-      <c r="H173" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -5956,11 +5728,8 @@
       <c r="G174" t="s">
         <v>275</v>
       </c>
-      <c r="H174" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -5983,11 +5752,8 @@
       <c r="G175" t="s">
         <v>276</v>
       </c>
-      <c r="H175" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>22</v>
       </c>
@@ -6010,11 +5776,8 @@
       <c r="G176" t="s">
         <v>277</v>
       </c>
-      <c r="H176" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -6037,11 +5800,8 @@
       <c r="G177" t="s">
         <v>278</v>
       </c>
-      <c r="H177" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>22</v>
       </c>
@@ -6064,11 +5824,8 @@
       <c r="G178" t="s">
         <v>279</v>
       </c>
-      <c r="H178" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>22</v>
       </c>
@@ -6091,11 +5848,8 @@
       <c r="G179" t="s">
         <v>280</v>
       </c>
-      <c r="H179" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -6118,11 +5872,8 @@
       <c r="G180" t="s">
         <v>281</v>
       </c>
-      <c r="H180" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -6145,11 +5896,8 @@
       <c r="G181" t="s">
         <v>282</v>
       </c>
-      <c r="H181" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -6172,11 +5920,8 @@
       <c r="G182" t="s">
         <v>283</v>
       </c>
-      <c r="H182" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>22</v>
       </c>
@@ -6199,11 +5944,8 @@
       <c r="G183" t="s">
         <v>284</v>
       </c>
-      <c r="H183" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>22</v>
       </c>
@@ -6226,11 +5968,8 @@
       <c r="G184" t="s">
         <v>285</v>
       </c>
-      <c r="H184" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>22</v>
       </c>
@@ -6253,11 +5992,8 @@
       <c r="G185" t="s">
         <v>286</v>
       </c>
-      <c r="H185" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>22</v>
       </c>
@@ -6280,11 +6016,8 @@
       <c r="G186" t="s">
         <v>287</v>
       </c>
-      <c r="H186" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -6307,11 +6040,8 @@
       <c r="G187" t="s">
         <v>288</v>
       </c>
-      <c r="H187" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -6334,11 +6064,8 @@
       <c r="G188" t="s">
         <v>289</v>
       </c>
-      <c r="H188" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>22</v>
       </c>
@@ -6361,11 +6088,8 @@
       <c r="G189" t="s">
         <v>290</v>
       </c>
-      <c r="H189" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>22</v>
       </c>
@@ -6388,11 +6112,8 @@
       <c r="G190" t="s">
         <v>291</v>
       </c>
-      <c r="H190" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>22</v>
       </c>
@@ -6415,11 +6136,8 @@
       <c r="G191" t="s">
         <v>292</v>
       </c>
-      <c r="H191" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -6442,11 +6160,8 @@
       <c r="G192" t="s">
         <v>293</v>
       </c>
-      <c r="H192" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -6469,11 +6184,8 @@
       <c r="G193" t="s">
         <v>294</v>
       </c>
-      <c r="H193" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>22</v>
       </c>
@@ -6496,11 +6208,8 @@
       <c r="G194" t="s">
         <v>295</v>
       </c>
-      <c r="H194" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -6523,11 +6232,8 @@
       <c r="G195" t="s">
         <v>296</v>
       </c>
-      <c r="H195" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -6550,11 +6256,8 @@
       <c r="G196" t="s">
         <v>297</v>
       </c>
-      <c r="H196" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -6577,11 +6280,8 @@
       <c r="G197" t="s">
         <v>298</v>
       </c>
-      <c r="H197" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -6604,11 +6304,8 @@
       <c r="G198" t="s">
         <v>299</v>
       </c>
-      <c r="H198" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -6631,11 +6328,8 @@
       <c r="G199" t="s">
         <v>300</v>
       </c>
-      <c r="H199" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -6658,11 +6352,8 @@
       <c r="G200" t="s">
         <v>301</v>
       </c>
-      <c r="H200" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -6685,11 +6376,8 @@
       <c r="G201" t="s">
         <v>302</v>
       </c>
-      <c r="H201" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -6712,11 +6400,8 @@
       <c r="G202" t="s">
         <v>303</v>
       </c>
-      <c r="H202" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -6739,11 +6424,8 @@
       <c r="G203" t="s">
         <v>304</v>
       </c>
-      <c r="H203" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -6766,11 +6448,8 @@
       <c r="G204" t="s">
         <v>305</v>
       </c>
-      <c r="H204" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -6793,11 +6472,8 @@
       <c r="G205" t="s">
         <v>306</v>
       </c>
-      <c r="H205" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -6820,11 +6496,8 @@
       <c r="G206" t="s">
         <v>307</v>
       </c>
-      <c r="H206" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -6847,11 +6520,8 @@
       <c r="G207" t="s">
         <v>308</v>
       </c>
-      <c r="H207" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -6874,9 +6544,6 @@
       <c r="G208" t="s">
         <v>309</v>
       </c>
-      <c r="H208" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -6901,9 +6568,6 @@
       <c r="G209" t="s">
         <v>310</v>
       </c>
-      <c r="H209" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -6928,9 +6592,6 @@
       <c r="G210" t="s">
         <v>311</v>
       </c>
-      <c r="H210" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -6955,9 +6616,6 @@
       <c r="G211" t="s">
         <v>312</v>
       </c>
-      <c r="H211" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -6982,9 +6640,6 @@
       <c r="G212" t="s">
         <v>313</v>
       </c>
-      <c r="H212" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -7006,9 +6661,6 @@
       <c r="G213" t="s">
         <v>314</v>
       </c>
-      <c r="H213" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -7030,9 +6682,6 @@
       <c r="G214" t="s">
         <v>315</v>
       </c>
-      <c r="H214" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -7054,9 +6703,6 @@
       <c r="G215" t="s">
         <v>316</v>
       </c>
-      <c r="H215" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -7077,9 +6723,6 @@
       </c>
       <c r="G216" t="s">
         <v>317</v>
-      </c>
-      <c r="H216" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="317">
   <si>
     <t>Cell</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>THP-1</t>
@@ -1321,12 +1318,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,13 +1348,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1367,7 +1363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1378,7 +1374,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(A2, "_", C2, "_", D2)</f>
@@ -1388,13 +1384,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1405,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="0">CONCATENATE(A3, "_", C3, "_", D3)</f>
@@ -1415,13 +1411,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1432,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -1442,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1459,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -1469,13 +1465,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1486,7 +1482,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -1496,13 +1492,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1513,7 +1509,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -1523,13 +1519,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1540,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -1550,13 +1546,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1563,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -1577,13 +1573,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1590,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -1604,13 +1600,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1621,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -1631,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
         <v>43</v>
       </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1644,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -1658,13 +1654,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -1685,13 +1681,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -1712,13 +1708,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
         <v>49</v>
       </c>
-      <c r="H14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1729,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -1739,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1752,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -1766,13 +1762,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="H16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1783,7 +1779,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -1793,13 +1789,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
         <v>55</v>
       </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1810,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -1820,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
         <v>57</v>
       </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1837,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -1847,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
         <v>59</v>
       </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1864,7 +1860,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -1874,13 +1870,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
         <v>61</v>
       </c>
-      <c r="H20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -1901,13 +1897,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +1914,7 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -1928,13 +1924,13 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
         <v>65</v>
       </c>
-      <c r="H22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1941,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -1955,13 +1951,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
         <v>67</v>
       </c>
-      <c r="H23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -1982,13 +1978,13 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
         <v>69</v>
       </c>
-      <c r="H24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -2009,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
         <v>71</v>
       </c>
-      <c r="H25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2022,7 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -2036,13 +2032,13 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
         <v>73</v>
       </c>
-      <c r="H26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -2063,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
         <v>75</v>
       </c>
-      <c r="H27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2076,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -2090,13 +2086,13 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
         <v>77</v>
       </c>
-      <c r="H28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2107,7 +2103,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -2117,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
         <v>79</v>
       </c>
-      <c r="H29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2134,7 +2130,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -2144,13 +2140,13 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
         <v>81</v>
       </c>
-      <c r="H30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -2171,13 +2167,13 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
         <v>83</v>
       </c>
-      <c r="H31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2184,7 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -2198,13 +2194,13 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
         <v>85</v>
       </c>
-      <c r="H32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2215,7 +2211,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -2225,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
         <v>87</v>
       </c>
-      <c r="H33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2242,7 +2238,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -2252,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
         <v>89</v>
       </c>
-      <c r="H34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -2279,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s">
         <v>91</v>
       </c>
-      <c r="H35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -2306,13 +2302,13 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s">
         <v>93</v>
       </c>
-      <c r="H36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2323,7 +2319,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -2333,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
         <v>95</v>
       </c>
-      <c r="H37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2346,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -2360,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s">
         <v>97</v>
       </c>
-      <c r="H38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2377,7 +2373,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -2387,13 +2383,13 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
         <v>99</v>
       </c>
-      <c r="H39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2400,7 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -2414,13 +2410,13 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
         <v>101</v>
       </c>
-      <c r="H40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2431,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -2441,13 +2437,13 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
         <v>103</v>
       </c>
-      <c r="H41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2458,7 +2454,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -2468,13 +2464,13 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" t="s">
         <v>105</v>
       </c>
-      <c r="H42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2485,7 +2481,7 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -2495,13 +2491,13 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" t="s">
         <v>107</v>
       </c>
-      <c r="H43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -2522,13 +2518,13 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" t="s">
         <v>109</v>
       </c>
-      <c r="H44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2539,7 +2535,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -2549,13 +2545,13 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" t="s">
         <v>111</v>
       </c>
-      <c r="H45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2566,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -2576,13 +2572,13 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" t="s">
         <v>113</v>
       </c>
-      <c r="H46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2593,7 +2589,7 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -2603,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" t="s">
         <v>115</v>
       </c>
-      <c r="H47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2620,7 +2616,7 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -2630,13 +2626,13 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" t="s">
         <v>117</v>
       </c>
-      <c r="H48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -2657,13 +2653,13 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" t="s">
         <v>119</v>
       </c>
-      <c r="H49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2674,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
@@ -2684,13 +2680,13 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" t="s">
         <v>121</v>
       </c>
-      <c r="H50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +2697,7 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -2711,13 +2707,13 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" t="s">
         <v>123</v>
       </c>
-      <c r="H51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2728,7 +2724,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -2738,13 +2734,13 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" t="s">
         <v>125</v>
       </c>
-      <c r="H52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2755,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
@@ -2765,13 +2761,13 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" t="s">
         <v>127</v>
       </c>
-      <c r="H53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -2792,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" t="s">
         <v>129</v>
       </c>
-      <c r="H54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2805,7 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -2819,13 +2815,13 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" t="s">
         <v>131</v>
       </c>
-      <c r="H55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2836,7 +2832,7 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
@@ -2846,13 +2842,13 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" t="s">
         <v>133</v>
       </c>
-      <c r="H56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2863,7 +2859,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
@@ -2873,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" t="s">
         <v>135</v>
       </c>
-      <c r="H57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2886,7 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -2900,13 +2896,13 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" t="s">
         <v>137</v>
       </c>
-      <c r="H58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2917,7 +2913,7 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
@@ -2927,13 +2923,13 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" t="s">
         <v>139</v>
       </c>
-      <c r="H59" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2944,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -2954,13 +2950,10 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>141</v>
-      </c>
-      <c r="H60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2971,7 +2964,7 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -2980,14 +2973,8 @@
       <c r="F61">
         <v>3</v>
       </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2998,7 +2985,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
@@ -3008,13 +2995,13 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" t="s">
         <v>142</v>
       </c>
-      <c r="H62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3025,7 +3012,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
@@ -3034,14 +3021,11 @@
       <c r="F63">
         <v>3</v>
       </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
       <c r="H63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3052,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -3062,13 +3046,13 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" t="s">
         <v>145</v>
       </c>
-      <c r="H64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3079,7 +3063,7 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
@@ -3088,14 +3072,11 @@
       <c r="F65">
         <v>3</v>
       </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
       <c r="H65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -3106,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
@@ -3116,13 +3097,13 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" t="s">
         <v>148</v>
       </c>
-      <c r="H66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -3133,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="1">CONCATENATE(A67, "_", C67, "_", D67)</f>
@@ -3142,14 +3123,11 @@
       <c r="F67">
         <v>3</v>
       </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
       <c r="H67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -3160,7 +3138,7 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
@@ -3170,13 +3148,10 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>151</v>
-      </c>
-      <c r="H68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -3187,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
@@ -3196,14 +3171,8 @@
       <c r="F69">
         <v>3</v>
       </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -3214,7 +3183,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
@@ -3224,13 +3193,13 @@
         <v>3</v>
       </c>
       <c r="G70" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" t="s">
         <v>152</v>
       </c>
-      <c r="H70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -3241,7 +3210,7 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
@@ -3250,14 +3219,11 @@
       <c r="F71">
         <v>3</v>
       </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
       <c r="H71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -3268,7 +3234,7 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
@@ -3278,13 +3244,13 @@
         <v>3</v>
       </c>
       <c r="G72" t="s">
+        <v>154</v>
+      </c>
+      <c r="H72" t="s">
         <v>155</v>
       </c>
-      <c r="H72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -3295,7 +3261,7 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
@@ -3304,14 +3270,11 @@
       <c r="F73">
         <v>3</v>
       </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
       <c r="H73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -3322,7 +3285,7 @@
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
@@ -3332,13 +3295,13 @@
         <v>3</v>
       </c>
       <c r="G74" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" t="s">
         <v>158</v>
       </c>
-      <c r="H74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -3349,7 +3312,7 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
@@ -3358,19 +3321,16 @@
       <c r="F75">
         <v>3</v>
       </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
       <c r="H75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3382,19 +3342,16 @@
       <c r="F76">
         <v>2</v>
       </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
       <c r="H76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3406,19 +3363,16 @@
       <c r="F77">
         <v>2</v>
       </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
       <c r="H77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3430,19 +3384,16 @@
       <c r="F78">
         <v>2</v>
       </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
       <c r="H78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3454,19 +3405,16 @@
       <c r="F79">
         <v>2</v>
       </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
       <c r="H79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3478,19 +3426,16 @@
       <c r="F80">
         <v>2</v>
       </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
       <c r="H80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3502,19 +3447,16 @@
       <c r="F81">
         <v>2</v>
       </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
       <c r="H81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -3526,19 +3468,16 @@
       <c r="F82">
         <v>2</v>
       </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
       <c r="H82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3550,19 +3489,16 @@
       <c r="F83">
         <v>2</v>
       </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
       <c r="H83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -3574,19 +3510,16 @@
       <c r="F84">
         <v>2</v>
       </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
       <c r="H84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -3598,19 +3531,16 @@
       <c r="F85">
         <v>2</v>
       </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
       <c r="H85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
         <v>22</v>
-      </c>
-      <c r="B86" t="s">
-        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -3622,19 +3552,16 @@
       <c r="F86">
         <v>2</v>
       </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
       <c r="H86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
         <v>22</v>
-      </c>
-      <c r="B87" t="s">
-        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -3646,19 +3573,16 @@
       <c r="F87">
         <v>2</v>
       </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
       <c r="H87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
         <v>22</v>
-      </c>
-      <c r="B88" t="s">
-        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -3670,19 +3594,16 @@
       <c r="F88">
         <v>2</v>
       </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
       <c r="H88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
         <v>22</v>
-      </c>
-      <c r="B89" t="s">
-        <v>23</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -3694,19 +3615,16 @@
       <c r="F89">
         <v>2</v>
       </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
       <c r="H89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
         <v>22</v>
-      </c>
-      <c r="B90" t="s">
-        <v>23</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -3718,19 +3636,16 @@
       <c r="F90">
         <v>2</v>
       </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
       <c r="H90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
         <v>22</v>
-      </c>
-      <c r="B91" t="s">
-        <v>23</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -3742,19 +3657,16 @@
       <c r="F91">
         <v>2</v>
       </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
       <c r="H91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
         <v>22</v>
-      </c>
-      <c r="B92" t="s">
-        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -3766,19 +3678,16 @@
       <c r="F92">
         <v>2</v>
       </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
       <c r="H92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
         <v>22</v>
-      </c>
-      <c r="B93" t="s">
-        <v>23</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -3790,19 +3699,16 @@
       <c r="F93">
         <v>2</v>
       </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
       <c r="H93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
         <v>22</v>
-      </c>
-      <c r="B94" t="s">
-        <v>23</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -3814,19 +3720,16 @@
       <c r="F94">
         <v>2</v>
       </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
       <c r="H94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
         <v>22</v>
-      </c>
-      <c r="B95" t="s">
-        <v>23</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -3838,19 +3741,16 @@
       <c r="F95">
         <v>2</v>
       </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
       <c r="H95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
         <v>22</v>
-      </c>
-      <c r="B96" t="s">
-        <v>23</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -3862,19 +3762,16 @@
       <c r="F96">
         <v>2</v>
       </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
       <c r="H96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
         <v>22</v>
-      </c>
-      <c r="B97" t="s">
-        <v>23</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -3886,16 +3783,13 @@
       <c r="F97">
         <v>2</v>
       </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
       <c r="H97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -3904,7 +3798,7 @@
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
@@ -3914,12 +3808,12 @@
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -3928,7 +3822,7 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
@@ -3938,12 +3832,12 @@
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -3952,7 +3846,7 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
@@ -3962,12 +3856,12 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3976,7 +3870,7 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
@@ -3986,12 +3880,12 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -4000,7 +3894,7 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
@@ -4010,21 +3904,21 @@
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
@@ -4034,21 +3928,21 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
@@ -4058,21 +3952,21 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
@@ -4082,21 +3976,21 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
@@ -4106,12 +4000,12 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -4120,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
@@ -4130,12 +4024,12 @@
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -4144,7 +4038,7 @@
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
@@ -4154,12 +4048,12 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -4168,7 +4062,7 @@
         <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
@@ -4178,12 +4072,12 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -4192,7 +4086,7 @@
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
@@ -4202,12 +4096,12 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -4216,7 +4110,7 @@
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
@@ -4226,12 +4120,12 @@
         <v>2</v>
       </c>
       <c r="G111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -4240,7 +4134,7 @@
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
@@ -4250,12 +4144,12 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -4264,7 +4158,7 @@
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
@@ -4274,12 +4168,12 @@
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -4288,7 +4182,7 @@
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
@@ -4298,12 +4192,12 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -4312,7 +4206,7 @@
         <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
@@ -4322,12 +4216,12 @@
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -4336,7 +4230,7 @@
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
@@ -4346,12 +4240,12 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4360,7 +4254,7 @@
         <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
@@ -4370,12 +4264,12 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -4384,7 +4278,7 @@
         <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
@@ -4394,21 +4288,21 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
@@ -4418,21 +4312,21 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="1"/>
@@ -4442,21 +4336,21 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
@@ -4466,21 +4360,21 @@
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="1"/>
@@ -4490,12 +4384,12 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -4504,7 +4398,7 @@
         <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="1"/>
@@ -4514,12 +4408,12 @@
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -4528,7 +4422,7 @@
         <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="1"/>
@@ -4538,12 +4432,12 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -4552,7 +4446,7 @@
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="1"/>
@@ -4562,12 +4456,12 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -4576,7 +4470,7 @@
         <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
@@ -4586,12 +4480,12 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4600,7 +4494,7 @@
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="1"/>
@@ -4610,12 +4504,12 @@
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -4624,7 +4518,7 @@
         <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="1"/>
@@ -4634,21 +4528,21 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="1"/>
@@ -4658,21 +4552,21 @@
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="1"/>
@@ -4682,21 +4576,21 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" ref="E131:E194" si="2">CONCATENATE(A131, "_", C131, "_", D131)</f>
@@ -4706,21 +4600,21 @@
         <v>2</v>
       </c>
       <c r="G131" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="2"/>
@@ -4730,12 +4624,12 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -4744,7 +4638,7 @@
         <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
@@ -4754,12 +4648,12 @@
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -4768,7 +4662,7 @@
         <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
@@ -4778,12 +4672,12 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -4792,7 +4686,7 @@
         <v>13</v>
       </c>
       <c r="D135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="2"/>
@@ -4802,12 +4696,12 @@
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -4816,7 +4710,7 @@
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="2"/>
@@ -4826,12 +4720,12 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -4840,7 +4734,7 @@
         <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="2"/>
@@ -4850,12 +4744,12 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -4864,7 +4758,7 @@
         <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="2"/>
@@ -4874,21 +4768,21 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="2"/>
@@ -4898,21 +4792,21 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C140" t="s">
         <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
@@ -4922,21 +4816,21 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
@@ -4946,21 +4840,21 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="2"/>
@@ -4970,12 +4864,12 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -4984,7 +4878,7 @@
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="2"/>
@@ -4994,12 +4888,12 @@
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -5008,7 +4902,7 @@
         <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="2"/>
@@ -5018,12 +4912,12 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -5032,7 +4926,7 @@
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="2"/>
@@ -5042,12 +4936,12 @@
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -5056,7 +4950,7 @@
         <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="2"/>
@@ -5066,12 +4960,12 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -5080,7 +4974,7 @@
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="2"/>
@@ -5090,12 +4984,12 @@
         <v>2</v>
       </c>
       <c r="G147" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -5104,7 +4998,7 @@
         <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="2"/>
@@ -5114,21 +5008,21 @@
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="2"/>
@@ -5138,21 +5032,21 @@
         <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="2"/>
@@ -5162,21 +5056,21 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="2"/>
@@ -5186,21 +5080,21 @@
         <v>2</v>
       </c>
       <c r="G151" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="2"/>
@@ -5210,15 +5104,15 @@
         <v>2</v>
       </c>
       <c r="G152" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -5231,15 +5125,15 @@
         <v>2</v>
       </c>
       <c r="G153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
@@ -5252,15 +5146,15 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
@@ -5273,15 +5167,15 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -5294,12 +5188,12 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -5308,7 +5202,7 @@
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="2"/>
@@ -5318,12 +5212,12 @@
         <v>2</v>
       </c>
       <c r="G157" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -5332,7 +5226,7 @@
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="2"/>
@@ -5342,12 +5236,12 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -5356,7 +5250,7 @@
         <v>13</v>
       </c>
       <c r="D159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="2"/>
@@ -5366,12 +5260,12 @@
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -5380,7 +5274,7 @@
         <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="2"/>
@@ -5390,12 +5284,12 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5404,7 +5298,7 @@
         <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="2"/>
@@ -5414,12 +5308,12 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5428,7 +5322,7 @@
         <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="2"/>
@@ -5438,21 +5332,21 @@
         <v>2</v>
       </c>
       <c r="G162" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="2"/>
@@ -5462,21 +5356,21 @@
         <v>2</v>
       </c>
       <c r="G163" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
       </c>
       <c r="D164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="2"/>
@@ -5486,21 +5380,21 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
       </c>
       <c r="D165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="2"/>
@@ -5510,21 +5404,21 @@
         <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="2"/>
@@ -5534,12 +5428,12 @@
         <v>2</v>
       </c>
       <c r="G166" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -5548,7 +5442,7 @@
         <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="2"/>
@@ -5558,12 +5452,12 @@
         <v>2</v>
       </c>
       <c r="G167" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -5572,7 +5466,7 @@
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="2"/>
@@ -5582,12 +5476,12 @@
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
@@ -5596,7 +5490,7 @@
         <v>13</v>
       </c>
       <c r="D169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="2"/>
@@ -5606,12 +5500,12 @@
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -5620,7 +5514,7 @@
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="2"/>
@@ -5630,12 +5524,12 @@
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -5644,7 +5538,7 @@
         <v>13</v>
       </c>
       <c r="D171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="2"/>
@@ -5654,12 +5548,12 @@
         <v>2</v>
       </c>
       <c r="G171" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -5668,7 +5562,7 @@
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="2"/>
@@ -5678,12 +5572,12 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -5692,7 +5586,7 @@
         <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="2"/>
@@ -5702,12 +5596,12 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -5716,7 +5610,7 @@
         <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="2"/>
@@ -5726,12 +5620,12 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
@@ -5740,7 +5634,7 @@
         <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="2"/>
@@ -5750,12 +5644,12 @@
         <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -5764,7 +5658,7 @@
         <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="2"/>
@@ -5774,12 +5668,12 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -5788,7 +5682,7 @@
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="2"/>
@@ -5798,12 +5692,12 @@
         <v>2</v>
       </c>
       <c r="G177" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -5812,7 +5706,7 @@
         <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="2"/>
@@ -5822,21 +5716,21 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
       </c>
       <c r="D179" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="2"/>
@@ -5846,21 +5740,21 @@
         <v>2</v>
       </c>
       <c r="G179" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
       </c>
       <c r="D180" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="2"/>
@@ -5870,21 +5764,21 @@
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C181" t="s">
         <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="2"/>
@@ -5894,21 +5788,21 @@
         <v>2</v>
       </c>
       <c r="G181" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C182" t="s">
         <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="2"/>
@@ -5918,12 +5812,12 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -5932,7 +5826,7 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="2"/>
@@ -5942,12 +5836,12 @@
         <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -5956,7 +5850,7 @@
         <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="2"/>
@@ -5966,12 +5860,12 @@
         <v>2</v>
       </c>
       <c r="G184" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
@@ -5980,7 +5874,7 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="2"/>
@@ -5990,12 +5884,12 @@
         <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -6004,7 +5898,7 @@
         <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="2"/>
@@ -6014,12 +5908,12 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -6028,7 +5922,7 @@
         <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="2"/>
@@ -6038,12 +5932,12 @@
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -6052,7 +5946,7 @@
         <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="2"/>
@@ -6062,21 +5956,21 @@
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
       </c>
       <c r="D189" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="2"/>
@@ -6086,21 +5980,21 @@
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="2"/>
@@ -6110,21 +6004,21 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="2"/>
@@ -6134,21 +6028,21 @@
         <v>2</v>
       </c>
       <c r="G191" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
       </c>
       <c r="D192" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="2"/>
@@ -6158,12 +6052,12 @@
         <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -6172,7 +6066,7 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="2"/>
@@ -6182,12 +6076,12 @@
         <v>2</v>
       </c>
       <c r="G193" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -6196,7 +6090,7 @@
         <v>14</v>
       </c>
       <c r="D194" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="2"/>
@@ -6206,12 +6100,12 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -6220,7 +6114,7 @@
         <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" ref="E195:E222" si="3">CONCATENATE(A195, "_", C195, "_", D195)</f>
@@ -6230,12 +6124,12 @@
         <v>2</v>
       </c>
       <c r="G195" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
@@ -6244,7 +6138,7 @@
         <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="3"/>
@@ -6254,12 +6148,12 @@
         <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
@@ -6268,7 +6162,7 @@
         <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="3"/>
@@ -6278,12 +6172,12 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
@@ -6292,7 +6186,7 @@
         <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="3"/>
@@ -6302,21 +6196,21 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
       </c>
       <c r="D199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="3"/>
@@ -6326,21 +6220,21 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B200" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
       </c>
       <c r="D200" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="3"/>
@@ -6350,21 +6244,21 @@
         <v>2</v>
       </c>
       <c r="G200" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="3"/>
@@ -6374,21 +6268,21 @@
         <v>2</v>
       </c>
       <c r="G201" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B202" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="3"/>
@@ -6398,12 +6292,12 @@
         <v>2</v>
       </c>
       <c r="G202" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -6412,7 +6306,7 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="3"/>
@@ -6422,12 +6316,12 @@
         <v>2</v>
       </c>
       <c r="G203" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
@@ -6436,7 +6330,7 @@
         <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="3"/>
@@ -6446,12 +6340,12 @@
         <v>2</v>
       </c>
       <c r="G204" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
@@ -6460,7 +6354,7 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="3"/>
@@ -6470,12 +6364,12 @@
         <v>2</v>
       </c>
       <c r="G205" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
@@ -6484,7 +6378,7 @@
         <v>14</v>
       </c>
       <c r="D206" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="3"/>
@@ -6494,12 +6388,12 @@
         <v>2</v>
       </c>
       <c r="G206" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
@@ -6508,7 +6402,7 @@
         <v>13</v>
       </c>
       <c r="D207" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="3"/>
@@ -6518,12 +6412,12 @@
         <v>2</v>
       </c>
       <c r="G207" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B208" t="s">
         <v>10</v>
@@ -6532,7 +6426,7 @@
         <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="3"/>
@@ -6542,21 +6436,21 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="3"/>
@@ -6566,21 +6460,21 @@
         <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B210" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
       </c>
       <c r="D210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="3"/>
@@ -6590,21 +6484,21 @@
         <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B211" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
       </c>
       <c r="D211" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="3"/>
@@ -6614,21 +6508,21 @@
         <v>2</v>
       </c>
       <c r="G211" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
       </c>
       <c r="D212" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="3"/>
@@ -6638,15 +6532,15 @@
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B213" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
@@ -6659,15 +6553,15 @@
         <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B214" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
@@ -6680,15 +6574,15 @@
         <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
@@ -6701,15 +6595,15 @@
         <v>2</v>
       </c>
       <c r="G215" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B216" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
@@ -6722,12 +6616,12 @@
         <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -6736,7 +6630,7 @@
         <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="3"/>
@@ -6746,15 +6640,12 @@
         <v>3</v>
       </c>
       <c r="G217" t="s">
-        <v>193</v>
-      </c>
-      <c r="H217" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -6763,7 +6654,7 @@
         <v>14</v>
       </c>
       <c r="D218" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="3"/>
@@ -6773,15 +6664,12 @@
         <v>3</v>
       </c>
       <c r="G218" t="s">
-        <v>194</v>
-      </c>
-      <c r="H218" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
@@ -6790,7 +6678,7 @@
         <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="3"/>
@@ -6800,15 +6688,12 @@
         <v>3</v>
       </c>
       <c r="G219" t="s">
-        <v>195</v>
-      </c>
-      <c r="H219" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
@@ -6817,7 +6702,7 @@
         <v>14</v>
       </c>
       <c r="D220" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="3"/>
@@ -6827,15 +6712,12 @@
         <v>3</v>
       </c>
       <c r="G220" t="s">
-        <v>196</v>
-      </c>
-      <c r="H220" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
@@ -6844,7 +6726,7 @@
         <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="3"/>
@@ -6854,15 +6736,12 @@
         <v>3</v>
       </c>
       <c r="G221" t="s">
-        <v>197</v>
-      </c>
-      <c r="H221" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
@@ -6871,7 +6750,7 @@
         <v>14</v>
       </c>
       <c r="D222" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="3"/>
@@ -6881,20 +6760,11 @@
         <v>3</v>
       </c>
       <c r="G222" t="s">
-        <v>198</v>
-      </c>
-      <c r="H222" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H222">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H222"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -10,14 +10,14 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$246</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$252</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="367">
   <si>
     <t>Cell</t>
   </si>
@@ -514,12 +514,6 @@
     <t>LPS</t>
   </si>
   <si>
-    <t>Control?</t>
-  </si>
-  <si>
-    <t>Baseline?</t>
-  </si>
-  <si>
     <t>PMA+LPS</t>
   </si>
   <si>
@@ -628,18 +622,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -676,18 +658,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -706,18 +676,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -736,18 +694,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -766,30 +712,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -808,18 +730,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -856,18 +766,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -886,18 +784,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -916,18 +802,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -946,30 +820,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>Tissue</t>
   </si>
   <si>
@@ -1097,6 +947,177 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_H3K27me3_ChIP-Seq_P2MonocyteMacrophage89_H3K27me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_ControlTF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_ControlTF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_ControlTF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_ControlTF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_ControlTF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_ControlTF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_ControlTF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_ControlTF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_ControlTF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR3TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR3TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K27me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27me3_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K27me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K27me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27me3_P3Lungepitheliacelltypes89_bwa_samse_BR3TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR3TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>BR3</t>
+  </si>
+  <si>
+    <t>Input</t>
   </si>
 </sst>
 </file>
@@ -1447,11 +1468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:K252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E215" sqref="E215"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1509,13 +1530,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1545,13 +1566,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1581,13 +1602,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1617,13 +1638,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1653,13 +1674,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1689,13 +1710,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1725,13 +1746,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1761,13 +1782,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1797,13 +1818,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1833,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1869,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1905,13 +1926,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1941,13 +1962,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1977,13 +1998,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2013,13 +2034,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -2049,13 +2070,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -2085,13 +2106,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D18" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -2121,13 +2142,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D19" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -2157,13 +2178,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D20" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -2193,13 +2214,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C21" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -2229,13 +2250,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C22" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -2265,13 +2286,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -2301,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -2337,13 +2358,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -2373,13 +2394,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -2409,13 +2430,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D27" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2445,13 +2466,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -2481,13 +2502,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D29" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -2517,13 +2538,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D30" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -2553,13 +2574,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -2589,13 +2610,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C32" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -2625,13 +2646,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D33" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -2661,13 +2682,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D34" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -2697,13 +2718,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -2733,13 +2754,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D36" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -2769,13 +2790,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D37" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -2805,13 +2826,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D38" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -2841,13 +2862,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C39" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D39" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -2877,13 +2898,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D40" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -2913,13 +2934,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -2949,13 +2970,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D42" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -2985,13 +3006,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D43" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -3021,13 +3042,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D44" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -3057,13 +3078,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C45" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -3093,13 +3114,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -3129,13 +3150,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -3165,13 +3186,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C48" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D48" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -3201,13 +3222,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C49" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D49" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -3237,13 +3258,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C50" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -3273,13 +3294,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -3309,13 +3330,13 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C52" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="D52" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -3345,13 +3366,13 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -3381,13 +3402,13 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C54" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -3417,13 +3438,13 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C55" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="D55" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -3453,13 +3474,13 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C56" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="D56" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -3489,13 +3510,13 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C57" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="D57" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -3525,13 +3546,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C58" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="D58" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -3561,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C59" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -3597,13 +3618,13 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C60" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D60" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -3630,13 +3651,13 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C61" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -3660,13 +3681,13 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D62" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -3696,13 +3717,13 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C63" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D63" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -3729,13 +3750,13 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C64" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -3765,13 +3786,13 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -3798,13 +3819,13 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D66" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -3834,13 +3855,13 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="C67" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D67" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -3867,13 +3888,13 @@
         <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C68" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D68" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -3900,13 +3921,13 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C69" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D69" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -3930,13 +3951,13 @@
         <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C70" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D70" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -3966,13 +3987,13 @@
         <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D71" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -3999,13 +4020,13 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C72" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -4035,13 +4056,13 @@
         <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C73" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -4068,13 +4089,13 @@
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D74" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -4104,13 +4125,13 @@
         <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D75" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -4137,13 +4158,13 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C76" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D76" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -4167,13 +4188,13 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C77" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s">
         <v>22</v>
@@ -4189,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="K77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4197,13 +4218,13 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C78" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D78" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -4219,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="K78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4227,13 +4248,13 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C79" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D79" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E79" t="s">
         <v>22</v>
@@ -4249,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4257,13 +4278,13 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C80" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D80" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E80" t="s">
         <v>22</v>
@@ -4279,7 +4300,7 @@
         <v>2</v>
       </c>
       <c r="K80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4287,13 +4308,13 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C81" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D81" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
@@ -4309,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="K81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4317,13 +4338,13 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C82" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D82" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E82" t="s">
         <v>22</v>
@@ -4339,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4347,13 +4368,13 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C83" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D83" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
@@ -4369,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="K83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4377,13 +4398,13 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C84" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D84" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
@@ -4399,7 +4420,7 @@
         <v>2</v>
       </c>
       <c r="K84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4407,13 +4428,13 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C85" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D85" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E85" t="s">
         <v>22</v>
@@ -4429,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="K85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4437,10 +4458,10 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C86" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -4456,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="K86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4464,10 +4485,10 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -4483,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="K87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4491,10 +4512,10 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C88" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E88" t="s">
         <v>22</v>
@@ -4510,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="K88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4518,10 +4539,10 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C89" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E89" t="s">
         <v>22</v>
@@ -4537,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="K89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4545,10 +4566,10 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C90" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E90" t="s">
         <v>22</v>
@@ -4564,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="K90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4572,10 +4593,10 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E91" t="s">
         <v>22</v>
@@ -4591,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="K91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4599,10 +4620,10 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E92" t="s">
         <v>22</v>
@@ -4618,7 +4639,7 @@
         <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4626,10 +4647,10 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C93" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E93" t="s">
         <v>22</v>
@@ -4645,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="K93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4653,10 +4674,10 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E94" t="s">
         <v>22</v>
@@ -4672,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="K94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4680,10 +4701,10 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E95" t="s">
         <v>22</v>
@@ -4699,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="K95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4707,10 +4728,10 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C96" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E96" t="s">
         <v>22</v>
@@ -4726,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="K96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4734,10 +4755,10 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E97" t="s">
         <v>22</v>
@@ -4753,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="K97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4761,13 +4782,13 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C98" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D98" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -4786,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4794,13 +4815,13 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C99" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D99" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -4819,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4827,13 +4848,13 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C100" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D100" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -4852,7 +4873,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4860,13 +4881,13 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C101" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D101" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
@@ -4885,7 +4906,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4893,13 +4914,13 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D102" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -4918,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4926,16 +4947,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C103" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E103" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -4951,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>203</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4959,16 +4980,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D104" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E104" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -4984,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4992,16 +5013,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C105" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D105" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E105" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -5017,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -5025,16 +5046,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C106" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D106" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E106" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -5050,7 +5071,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5058,13 +5079,13 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C107" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D107" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -5073,17 +5094,17 @@
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_Baseline?</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5091,13 +5112,13 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C108" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D108" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -5106,17 +5127,17 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_Baseline?</v>
+        <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -5124,13 +5145,13 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C109" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D109" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -5139,17 +5160,17 @@
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_Baseline?</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5157,13 +5178,13 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C110" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D110" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -5172,17 +5193,17 @@
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_Baseline?</v>
+        <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5190,13 +5211,13 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C111" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D111" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
@@ -5205,17 +5226,17 @@
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_Baseline?</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5223,13 +5244,13 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C112" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D112" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
@@ -5238,17 +5259,17 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_Baseline?</v>
+        <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5256,13 +5277,13 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C113" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D113" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -5271,7 +5292,7 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="1"/>
@@ -5281,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5289,13 +5310,13 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D114" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -5304,7 +5325,7 @@
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="1"/>
@@ -5314,7 +5335,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5322,13 +5343,13 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C115" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D115" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -5337,7 +5358,7 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="1"/>
@@ -5347,7 +5368,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5355,13 +5376,13 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C116" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D116" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -5370,7 +5391,7 @@
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="1"/>
@@ -5380,7 +5401,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5388,13 +5409,13 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D117" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
@@ -5403,7 +5424,7 @@
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="1"/>
@@ -5413,7 +5434,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5421,13 +5442,13 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C118" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D118" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
@@ -5436,7 +5457,7 @@
         <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="1"/>
@@ -5446,7 +5467,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5454,22 +5475,22 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C119" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D119" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E119" t="s">
+        <v>310</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
         <v>165</v>
-      </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s">
-        <v>167</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="1"/>
@@ -5479,7 +5500,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -5487,22 +5508,22 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C120" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D120" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E120" t="s">
+        <v>310</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
         <v>165</v>
-      </c>
-      <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s">
-        <v>167</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="1"/>
@@ -5512,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>220</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -5520,22 +5541,22 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C121" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D121" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
         <v>165</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s">
-        <v>167</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="1"/>
@@ -5545,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -5553,22 +5574,22 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C122" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D122" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E122" t="s">
+        <v>310</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
         <v>165</v>
-      </c>
-      <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s">
-        <v>167</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="1"/>
@@ -5578,7 +5599,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -5586,13 +5607,13 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C123" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D123" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -5601,7 +5622,7 @@
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="1"/>
@@ -5611,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -5619,13 +5640,13 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C124" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D124" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -5634,7 +5655,7 @@
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="1"/>
@@ -5644,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5652,13 +5673,13 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C125" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D125" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -5667,7 +5688,7 @@
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="1"/>
@@ -5677,7 +5698,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -5685,13 +5706,13 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C126" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D126" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -5700,7 +5721,7 @@
         <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="1"/>
@@ -5710,7 +5731,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5718,13 +5739,13 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C127" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D127" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
@@ -5733,7 +5754,7 @@
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="1"/>
@@ -5743,7 +5764,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5751,13 +5772,13 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C128" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D128" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
@@ -5766,7 +5787,7 @@
         <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="1"/>
@@ -5776,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5784,22 +5805,22 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D129" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E129" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F129" t="s">
         <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="1"/>
@@ -5809,7 +5830,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5817,22 +5838,22 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C130" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D130" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E130" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="1"/>
@@ -5842,7 +5863,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5850,22 +5871,22 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C131" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D131" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E131" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H194" si="2">CONCATENATE(A131, "_", F131, "_", G131)</f>
@@ -5875,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5883,22 +5904,22 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C132" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D132" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E132" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="2"/>
@@ -5908,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5916,13 +5937,13 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D133" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -5931,7 +5952,7 @@
         <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="2"/>
@@ -5941,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5949,13 +5970,13 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C134" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D134" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -5964,7 +5985,7 @@
         <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="2"/>
@@ -5974,7 +5995,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5982,13 +6003,13 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C135" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D135" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
@@ -5997,7 +6018,7 @@
         <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="2"/>
@@ -6007,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -6015,13 +6036,13 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C136" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D136" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -6030,7 +6051,7 @@
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="2"/>
@@ -6040,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -6048,13 +6069,13 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D137" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
@@ -6063,7 +6084,7 @@
         <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="2"/>
@@ -6073,7 +6094,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -6081,13 +6102,13 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D138" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
@@ -6096,7 +6117,7 @@
         <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="2"/>
@@ -6106,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -6114,22 +6135,22 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C139" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D139" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E139" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F139" t="s">
         <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="2"/>
@@ -6139,7 +6160,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -6147,22 +6168,22 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C140" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D140" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E140" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F140" t="s">
         <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="2"/>
@@ -6172,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -6180,22 +6201,22 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D141" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E141" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="2"/>
@@ -6205,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -6213,22 +6234,22 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D142" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E142" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F142" t="s">
         <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="2"/>
@@ -6238,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -6246,13 +6267,13 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C143" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D143" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -6261,7 +6282,7 @@
         <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="2"/>
@@ -6271,7 +6292,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -6279,13 +6300,13 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D144" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
@@ -6294,7 +6315,7 @@
         <v>14</v>
       </c>
       <c r="G144" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="2"/>
@@ -6304,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -6312,13 +6333,13 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C145" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D145" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -6327,7 +6348,7 @@
         <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="2"/>
@@ -6337,7 +6358,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -6345,13 +6366,13 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C146" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D146" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -6360,7 +6381,7 @@
         <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="2"/>
@@ -6370,7 +6391,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -6378,13 +6399,13 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C147" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D147" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
@@ -6393,7 +6414,7 @@
         <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="2"/>
@@ -6403,7 +6424,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -6411,13 +6432,13 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C148" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D148" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
@@ -6426,7 +6447,7 @@
         <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="2"/>
@@ -6436,7 +6457,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -6444,22 +6465,22 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C149" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D149" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E149" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F149" t="s">
         <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="2"/>
@@ -6469,7 +6490,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -6477,22 +6498,22 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C150" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D150" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E150" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F150" t="s">
         <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="2"/>
@@ -6502,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -6510,22 +6531,22 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C151" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D151" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E151" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F151" t="s">
         <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="2"/>
@@ -6535,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -6543,22 +6564,22 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C152" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D152" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E152" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F152" t="s">
         <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="2"/>
@@ -6568,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -6576,29 +6597,32 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C153" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D153" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E153" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="F153" t="s">
         <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>162</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I153">
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -6606,29 +6630,32 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C154" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D154" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E154" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="F154" t="s">
         <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>162</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I154">
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -6636,29 +6663,32 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C155" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D155" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E155" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="F155" t="s">
         <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>162</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -6666,29 +6696,32 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C156" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D156" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E156" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="F156" t="s">
         <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>162</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -6696,10 +6729,10 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C157" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
@@ -6718,7 +6751,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -6726,10 +6759,10 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C158" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
@@ -6748,7 +6781,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6756,10 +6789,10 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -6778,7 +6811,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -6786,10 +6819,10 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C160" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
@@ -6808,7 +6841,7 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -6816,10 +6849,10 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C161" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
@@ -6838,7 +6871,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -6846,10 +6879,10 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C162" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
@@ -6868,7 +6901,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -6876,13 +6909,13 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C163" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E163" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
@@ -6898,7 +6931,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6906,13 +6939,13 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C164" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E164" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
@@ -6928,7 +6961,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6936,13 +6969,13 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C165" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E165" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
@@ -6958,7 +6991,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -6966,13 +6999,13 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C166" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E166" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F166" t="s">
         <v>13</v>
@@ -6988,7 +7021,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>266</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -6996,10 +7029,10 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C167" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
@@ -7008,17 +7041,17 @@
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_Baseline?</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I167">
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -7026,10 +7059,10 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C168" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
@@ -7038,17 +7071,17 @@
         <v>14</v>
       </c>
       <c r="G168" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR2_Baseline?</v>
+        <v>U937_BR2_Baseline</v>
       </c>
       <c r="I168">
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -7056,10 +7089,10 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C169" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -7068,17 +7101,17 @@
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_Baseline?</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I169">
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -7086,10 +7119,10 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C170" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -7098,17 +7131,17 @@
         <v>14</v>
       </c>
       <c r="G170" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR2_Baseline?</v>
+        <v>U937_BR2_Baseline</v>
       </c>
       <c r="I170">
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -7116,10 +7149,10 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C171" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
@@ -7128,17 +7161,17 @@
         <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_Baseline?</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I171">
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -7146,10 +7179,10 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C172" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E172" t="s">
         <v>10</v>
@@ -7158,17 +7191,17 @@
         <v>14</v>
       </c>
       <c r="G172" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR2_Baseline?</v>
+        <v>U937_BR2_Baseline</v>
       </c>
       <c r="I172">
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -7176,10 +7209,10 @@
         <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C173" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
@@ -7188,7 +7221,7 @@
         <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="2"/>
@@ -7198,7 +7231,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -7206,10 +7239,10 @@
         <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C174" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -7218,7 +7251,7 @@
         <v>14</v>
       </c>
       <c r="G174" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="2"/>
@@ -7228,7 +7261,7 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -7236,10 +7269,10 @@
         <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C175" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -7248,7 +7281,7 @@
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="2"/>
@@ -7258,7 +7291,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -7266,10 +7299,10 @@
         <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C176" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
@@ -7278,7 +7311,7 @@
         <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="2"/>
@@ -7288,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -7296,10 +7329,10 @@
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C177" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -7308,7 +7341,7 @@
         <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="2"/>
@@ -7318,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -7326,10 +7359,10 @@
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C178" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E178" t="s">
         <v>10</v>
@@ -7338,7 +7371,7 @@
         <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="2"/>
@@ -7348,7 +7381,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -7356,19 +7389,19 @@
         <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C179" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E179" t="s">
+        <v>310</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
         <v>165</v>
-      </c>
-      <c r="F179" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" t="s">
-        <v>167</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="2"/>
@@ -7378,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -7386,19 +7419,19 @@
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C180" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E180" t="s">
+        <v>310</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
         <v>165</v>
-      </c>
-      <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s">
-        <v>167</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="2"/>
@@ -7408,7 +7441,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -7416,19 +7449,19 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C181" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E181" t="s">
+        <v>310</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
         <v>165</v>
-      </c>
-      <c r="F181" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" t="s">
-        <v>167</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="2"/>
@@ -7438,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -7446,19 +7479,19 @@
         <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C182" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E182" t="s">
+        <v>310</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
         <v>165</v>
-      </c>
-      <c r="F182" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" t="s">
-        <v>167</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="2"/>
@@ -7468,7 +7501,7 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -7476,10 +7509,10 @@
         <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C183" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7488,7 +7521,7 @@
         <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="2"/>
@@ -7498,7 +7531,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -7506,10 +7539,10 @@
         <v>21</v>
       </c>
       <c r="B184" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C184" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E184" t="s">
         <v>11</v>
@@ -7518,7 +7551,7 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="2"/>
@@ -7528,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -7536,10 +7569,10 @@
         <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C185" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E185" t="s">
         <v>8</v>
@@ -7548,7 +7581,7 @@
         <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="2"/>
@@ -7558,7 +7591,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -7566,10 +7599,10 @@
         <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C186" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -7578,7 +7611,7 @@
         <v>14</v>
       </c>
       <c r="G186" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="2"/>
@@ -7588,7 +7621,7 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -7596,10 +7629,10 @@
         <v>21</v>
       </c>
       <c r="B187" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C187" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
@@ -7608,7 +7641,7 @@
         <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="2"/>
@@ -7618,7 +7651,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -7626,10 +7659,10 @@
         <v>21</v>
       </c>
       <c r="B188" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C188" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
@@ -7638,7 +7671,7 @@
         <v>14</v>
       </c>
       <c r="G188" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="2"/>
@@ -7648,7 +7681,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -7656,19 +7689,19 @@
         <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C189" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E189" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F189" t="s">
         <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="2"/>
@@ -7678,7 +7711,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -7686,19 +7719,19 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C190" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E190" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F190" t="s">
         <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="2"/>
@@ -7708,7 +7741,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -7716,19 +7749,19 @@
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C191" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E191" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F191" t="s">
         <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="2"/>
@@ -7738,7 +7771,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -7746,19 +7779,19 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C192" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E192" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F192" t="s">
         <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="2"/>
@@ -7768,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -7776,10 +7809,10 @@
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C193" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E193" t="s">
         <v>11</v>
@@ -7788,7 +7821,7 @@
         <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="2"/>
@@ -7798,7 +7831,7 @@
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -7806,10 +7839,10 @@
         <v>21</v>
       </c>
       <c r="B194" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C194" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E194" t="s">
         <v>11</v>
@@ -7818,7 +7851,7 @@
         <v>14</v>
       </c>
       <c r="G194" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="2"/>
@@ -7828,7 +7861,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -7836,10 +7869,10 @@
         <v>21</v>
       </c>
       <c r="B195" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C195" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E195" t="s">
         <v>8</v>
@@ -7848,17 +7881,17 @@
         <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H246" si="3">CONCATENATE(A195, "_", F195, "_", G195)</f>
+        <f t="shared" ref="H195:H252" si="3">CONCATENATE(A195, "_", F195, "_", G195)</f>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I195">
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -7866,10 +7899,10 @@
         <v>21</v>
       </c>
       <c r="B196" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C196" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
@@ -7878,7 +7911,7 @@
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="3"/>
@@ -7888,7 +7921,7 @@
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -7896,10 +7929,10 @@
         <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C197" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E197" t="s">
         <v>10</v>
@@ -7908,7 +7941,7 @@
         <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="3"/>
@@ -7918,7 +7951,7 @@
         <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -7926,10 +7959,10 @@
         <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C198" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E198" t="s">
         <v>10</v>
@@ -7938,7 +7971,7 @@
         <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="3"/>
@@ -7948,7 +7981,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -7956,19 +7989,19 @@
         <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C199" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E199" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="3"/>
@@ -7978,7 +8011,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -7986,19 +8019,19 @@
         <v>21</v>
       </c>
       <c r="B200" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C200" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E200" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F200" t="s">
         <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" si="3"/>
@@ -8008,7 +8041,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -8016,19 +8049,19 @@
         <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C201" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E201" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="3"/>
@@ -8038,7 +8071,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -8046,19 +8079,19 @@
         <v>21</v>
       </c>
       <c r="B202" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C202" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E202" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="3"/>
@@ -8068,7 +8101,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -8076,10 +8109,10 @@
         <v>21</v>
       </c>
       <c r="B203" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C203" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E203" t="s">
         <v>11</v>
@@ -8088,7 +8121,7 @@
         <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H203" t="str">
         <f t="shared" si="3"/>
@@ -8098,7 +8131,7 @@
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -8106,10 +8139,10 @@
         <v>21</v>
       </c>
       <c r="B204" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C204" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -8118,7 +8151,7 @@
         <v>14</v>
       </c>
       <c r="G204" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H204" t="str">
         <f t="shared" si="3"/>
@@ -8128,7 +8161,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -8136,10 +8169,10 @@
         <v>21</v>
       </c>
       <c r="B205" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C205" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E205" t="s">
         <v>8</v>
@@ -8148,7 +8181,7 @@
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H205" t="str">
         <f t="shared" si="3"/>
@@ -8158,7 +8191,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -8166,10 +8199,10 @@
         <v>21</v>
       </c>
       <c r="B206" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C206" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E206" t="s">
         <v>8</v>
@@ -8178,7 +8211,7 @@
         <v>14</v>
       </c>
       <c r="G206" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H206" t="str">
         <f t="shared" si="3"/>
@@ -8188,7 +8221,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -8196,10 +8229,10 @@
         <v>21</v>
       </c>
       <c r="B207" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C207" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
@@ -8208,7 +8241,7 @@
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H207" t="str">
         <f t="shared" si="3"/>
@@ -8218,7 +8251,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -8226,10 +8259,10 @@
         <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C208" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
@@ -8238,7 +8271,7 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H208" t="str">
         <f t="shared" si="3"/>
@@ -8248,7 +8281,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -8256,19 +8289,19 @@
         <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C209" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E209" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H209" t="str">
         <f t="shared" si="3"/>
@@ -8278,7 +8311,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -8286,19 +8319,19 @@
         <v>21</v>
       </c>
       <c r="B210" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C210" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E210" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H210" t="str">
         <f t="shared" si="3"/>
@@ -8308,7 +8341,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -8316,19 +8349,19 @@
         <v>21</v>
       </c>
       <c r="B211" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C211" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E211" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F211" t="s">
         <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H211" t="str">
         <f t="shared" si="3"/>
@@ -8338,7 +8371,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -8346,19 +8379,19 @@
         <v>21</v>
       </c>
       <c r="B212" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C212" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E212" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H212" t="str">
         <f t="shared" si="3"/>
@@ -8368,7 +8401,7 @@
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -8376,26 +8409,29 @@
         <v>21</v>
       </c>
       <c r="B213" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C213" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E213" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="F213" t="s">
         <v>13</v>
+      </c>
+      <c r="G213" t="s">
+        <v>162</v>
       </c>
       <c r="H213" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I213">
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -8403,26 +8439,29 @@
         <v>21</v>
       </c>
       <c r="B214" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C214" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E214" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="F214" t="s">
         <v>13</v>
+      </c>
+      <c r="G214" t="s">
+        <v>162</v>
       </c>
       <c r="H214" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -8430,26 +8469,29 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C215" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E215" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="F215" t="s">
         <v>13</v>
+      </c>
+      <c r="G215" t="s">
+        <v>162</v>
       </c>
       <c r="H215" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I215">
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -8457,82 +8499,112 @@
         <v>21</v>
       </c>
       <c r="B216" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C216" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E216" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="F216" t="s">
         <v>13</v>
+      </c>
+      <c r="G216" t="s">
+        <v>162</v>
       </c>
       <c r="H216" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I216">
         <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="B217" t="s">
+        <v>284</v>
+      </c>
+      <c r="C217" t="s">
+        <v>283</v>
+      </c>
+      <c r="D217" t="s">
+        <v>283</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F217" t="s">
         <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H217" t="str">
         <f t="shared" si="3"/>
-        <v>NHBE_BR1_Baseline</v>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="B218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C218" t="s">
+        <v>283</v>
+      </c>
+      <c r="D218" t="s">
+        <v>283</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F218" t="s">
         <v>14</v>
       </c>
       <c r="G218" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H218" t="str">
         <f t="shared" si="3"/>
-        <v>NHBE_BR2_Baseline</v>
+        <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="B219" t="s">
+        <v>284</v>
+      </c>
+      <c r="C219" t="s">
+        <v>283</v>
+      </c>
+      <c r="D219" t="s">
+        <v>283</v>
       </c>
       <c r="E219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F219" t="s">
         <v>13</v>
@@ -8542,21 +8614,30 @@
       </c>
       <c r="H219" t="str">
         <f t="shared" si="3"/>
-        <v>NHBE_BR1_Baseline</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="B220" t="s">
+        <v>284</v>
+      </c>
+      <c r="C220" t="s">
+        <v>283</v>
+      </c>
+      <c r="D220" t="s">
+        <v>283</v>
       </c>
       <c r="E220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F220" t="s">
         <v>14</v>
@@ -8566,61 +8647,79 @@
       </c>
       <c r="H220" t="str">
         <f t="shared" si="3"/>
-        <v>NHBE_BR2_Baseline</v>
+        <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="B221" t="s">
+        <v>284</v>
+      </c>
+      <c r="C221" t="s">
+        <v>283</v>
+      </c>
+      <c r="D221" t="s">
+        <v>283</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F221" t="s">
         <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H221" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR1_Baseline</v>
+        <f>CONCATENATE(A221, "_", F221, "_", G221)</f>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="B222" t="s">
+        <v>284</v>
+      </c>
+      <c r="C222" t="s">
+        <v>283</v>
+      </c>
+      <c r="D222" t="s">
+        <v>283</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
       </c>
       <c r="G222" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H222" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR2_Baseline</v>
+        <f>CONCATENATE(A222, "_", F222, "_", G222)</f>
+        <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -8628,13 +8727,13 @@
         <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C223" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D223" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E223" t="s">
         <v>9</v>
@@ -8643,17 +8742,17 @@
         <v>13</v>
       </c>
       <c r="G223" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H223" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_LPS</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I223">
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -8661,13 +8760,13 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C224" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D224" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E224" t="s">
         <v>9</v>
@@ -8676,17 +8775,17 @@
         <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H224" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_LPS</v>
+        <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -8694,13 +8793,13 @@
         <v>20</v>
       </c>
       <c r="B225" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C225" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D225" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E225" t="s">
         <v>9</v>
@@ -8709,17 +8808,17 @@
         <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H225" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_Baseline?</v>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -8727,13 +8826,13 @@
         <v>20</v>
       </c>
       <c r="B226" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C226" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D226" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
@@ -8742,17 +8841,17 @@
         <v>14</v>
       </c>
       <c r="G226" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H226" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_Baseline?</v>
+        <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I226">
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -8760,13 +8859,13 @@
         <v>20</v>
       </c>
       <c r="B227" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C227" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D227" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
@@ -8775,17 +8874,17 @@
         <v>13</v>
       </c>
       <c r="G227" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H227" t="str">
-        <f>CONCATENATE(A227, "_", F227, "_", G227)</f>
-        <v>THP-1_BR1_PMA</v>
+        <f t="shared" si="3"/>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I227">
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -8793,13 +8892,13 @@
         <v>20</v>
       </c>
       <c r="B228" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C228" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="D228" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
@@ -8808,31 +8907,28 @@
         <v>14</v>
       </c>
       <c r="G228" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H228" t="str">
-        <f>CONCATENATE(A228, "_", F228, "_", G228)</f>
-        <v>THP-1_BR2_PMA</v>
+        <f t="shared" si="3"/>
+        <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I228">
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B229" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C229" t="s">
-        <v>333</v>
-      </c>
-      <c r="D229" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
@@ -8841,31 +8937,28 @@
         <v>13</v>
       </c>
       <c r="G229" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H229" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I229">
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B230" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C230" t="s">
-        <v>333</v>
-      </c>
-      <c r="D230" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
@@ -8874,31 +8967,28 @@
         <v>14</v>
       </c>
       <c r="G230" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H230" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_PMA+LPS</v>
+        <v>U937_BR2_LPS</v>
       </c>
       <c r="I230">
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B231" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C231" t="s">
-        <v>333</v>
-      </c>
-      <c r="D231" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E231" t="s">
         <v>9</v>
@@ -8907,31 +8997,28 @@
         <v>13</v>
       </c>
       <c r="G231" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H231" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_VD3</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I231">
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B232" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C232" t="s">
-        <v>333</v>
-      </c>
-      <c r="D232" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
@@ -8940,31 +9027,28 @@
         <v>14</v>
       </c>
       <c r="G232" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H232" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_VD3</v>
+        <v>U937_BR2_Baseline</v>
       </c>
       <c r="I232">
         <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B233" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C233" t="s">
-        <v>333</v>
-      </c>
-      <c r="D233" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E233" t="s">
         <v>9</v>
@@ -8973,31 +9057,28 @@
         <v>13</v>
       </c>
       <c r="G233" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H233" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <v>U937_BR1_PMA</v>
       </c>
       <c r="I233">
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B234" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C234" t="s">
-        <v>333</v>
-      </c>
-      <c r="D234" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E234" t="s">
         <v>9</v>
@@ -9006,17 +9087,17 @@
         <v>14</v>
       </c>
       <c r="G234" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H234" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_VD3+LPS</v>
+        <v>U937_BR2_PMA</v>
       </c>
       <c r="I234">
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -9024,10 +9105,10 @@
         <v>21</v>
       </c>
       <c r="B235" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C235" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E235" t="s">
         <v>9</v>
@@ -9036,17 +9117,17 @@
         <v>13</v>
       </c>
       <c r="G235" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H235" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_LPS</v>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I235">
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -9054,10 +9135,10 @@
         <v>21</v>
       </c>
       <c r="B236" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C236" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E236" t="s">
         <v>9</v>
@@ -9066,17 +9147,17 @@
         <v>14</v>
       </c>
       <c r="G236" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H236" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_LPS</v>
+        <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -9084,10 +9165,10 @@
         <v>21</v>
       </c>
       <c r="B237" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C237" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
@@ -9096,17 +9177,17 @@
         <v>13</v>
       </c>
       <c r="G237" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H237" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_Baseline?</v>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I237">
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -9114,10 +9195,10 @@
         <v>21</v>
       </c>
       <c r="B238" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C238" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
@@ -9126,17 +9207,17 @@
         <v>14</v>
       </c>
       <c r="G238" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H238" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_Baseline?</v>
+        <v>U937_BR2_VD3</v>
       </c>
       <c r="I238">
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -9144,10 +9225,10 @@
         <v>21</v>
       </c>
       <c r="B239" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C239" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E239" t="s">
         <v>9</v>
@@ -9156,17 +9237,17 @@
         <v>13</v>
       </c>
       <c r="G239" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H239" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_PMA</v>
+        <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I239">
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -9174,10 +9255,10 @@
         <v>21</v>
       </c>
       <c r="B240" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="C240" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
@@ -9186,201 +9267,309 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H240" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_PMA</v>
+        <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I240">
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>21</v>
-      </c>
-      <c r="B241" t="s">
-        <v>335</v>
-      </c>
-      <c r="C241" t="s">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
         <v>13</v>
       </c>
       <c r="G241" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H241" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_PMA+LPS</v>
+        <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>354</v>
+        <v>190</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>21</v>
-      </c>
-      <c r="B242" t="s">
-        <v>335</v>
-      </c>
-      <c r="C242" t="s">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="E242" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F242" t="s">
         <v>14</v>
       </c>
       <c r="G242" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_PMA+LPS</v>
+        <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J242" t="s">
-        <v>355</v>
+        <v>191</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>21</v>
-      </c>
-      <c r="B243" t="s">
-        <v>335</v>
-      </c>
-      <c r="C243" t="s">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="E243" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>365</v>
       </c>
       <c r="G243" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H243" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3</v>
+        <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>21</v>
-      </c>
-      <c r="B244" t="s">
-        <v>335</v>
-      </c>
-      <c r="C244" t="s">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G244" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H244" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_VD3</v>
+        <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J244" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>21</v>
-      </c>
-      <c r="B245" t="s">
-        <v>335</v>
-      </c>
-      <c r="C245" t="s">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="E245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F245" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G245" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H245" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3+LPS</v>
+        <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J245" t="s">
-        <v>358</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>21</v>
-      </c>
-      <c r="B246" t="s">
-        <v>335</v>
-      </c>
-      <c r="C246" t="s">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="E246" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="G246" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H246" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_VD3+LPS</v>
+        <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J246" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>163</v>
+      </c>
+      <c r="E247" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" t="s">
+        <v>13</v>
+      </c>
+      <c r="G247" t="s">
+        <v>162</v>
+      </c>
+      <c r="H247" t="str">
+        <f t="shared" si="3"/>
+        <v>NHBE_BR1_Baseline</v>
+      </c>
+      <c r="I247">
+        <v>3</v>
+      </c>
+      <c r="J247" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>163</v>
+      </c>
+      <c r="E248" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G248" t="s">
+        <v>162</v>
+      </c>
+      <c r="H248" t="str">
+        <f t="shared" si="3"/>
+        <v>NHBE_BR2_Baseline</v>
+      </c>
+      <c r="I248">
+        <v>3</v>
+      </c>
+      <c r="J248" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>163</v>
+      </c>
+      <c r="E249" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" t="s">
+        <v>365</v>
+      </c>
+      <c r="G249" t="s">
+        <v>162</v>
+      </c>
+      <c r="H249" t="str">
+        <f t="shared" si="3"/>
+        <v>NHBE_BR3_Baseline</v>
+      </c>
+      <c r="I249">
+        <v>3</v>
+      </c>
+      <c r="J249" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>163</v>
+      </c>
+      <c r="E250" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" t="s">
+        <v>162</v>
+      </c>
+      <c r="H250" t="str">
+        <f t="shared" si="3"/>
+        <v>NHBE_BR1_Baseline</v>
+      </c>
+      <c r="I250">
+        <v>3</v>
+      </c>
+      <c r="J250" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>163</v>
+      </c>
+      <c r="E251" t="s">
+        <v>10</v>
+      </c>
+      <c r="F251" t="s">
+        <v>14</v>
+      </c>
+      <c r="G251" t="s">
+        <v>162</v>
+      </c>
+      <c r="H251" t="str">
+        <f t="shared" si="3"/>
+        <v>NHBE_BR2_Baseline</v>
+      </c>
+      <c r="I251">
+        <v>3</v>
+      </c>
+      <c r="J251" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>163</v>
+      </c>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" t="s">
+        <v>365</v>
+      </c>
+      <c r="G252" t="s">
+        <v>162</v>
+      </c>
+      <c r="H252" t="str">
+        <f t="shared" si="3"/>
+        <v>NHBE_BR3_Baseline</v>
+      </c>
+      <c r="I252">
+        <v>3</v>
+      </c>
+      <c r="J252" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K246"/>
+  <autoFilter ref="A1:K252"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="other_cell_lines" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$252</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="387">
   <si>
     <t>Cell</t>
   </si>
@@ -1118,6 +1119,66 @@
   </si>
   <si>
     <t>Input</t>
+  </si>
+  <si>
+    <t>BL-2</t>
+  </si>
+  <si>
+    <t>b lymphocyte</t>
+  </si>
+  <si>
+    <t>DG-75</t>
+  </si>
+  <si>
+    <t>lymphoblast; immortalized with Epstein-Barr virus (EBV)</t>
+  </si>
+  <si>
+    <t>JVM-2</t>
+  </si>
+  <si>
+    <t>lymph node</t>
+  </si>
+  <si>
+    <t>SU-DHL-5</t>
+  </si>
+  <si>
+    <t>U-266</t>
+  </si>
+  <si>
+    <t>110CLL</t>
+  </si>
+  <si>
+    <t>chronic lymphocytic leukemia</t>
+  </si>
+  <si>
+    <t>182CLL</t>
+  </si>
+  <si>
+    <t>plasma cell</t>
+  </si>
+  <si>
+    <t>DND-41</t>
+  </si>
+  <si>
+    <t>t lymphocyte</t>
+  </si>
+  <si>
+    <t>t-acute lymphoblastic leukemia </t>
+  </si>
+  <si>
+    <t>GM12878</t>
+  </si>
+  <si>
+    <t>HeLa-S3</t>
+  </si>
+  <si>
+    <t>cervix</t>
+  </si>
+  <si>
+    <t>HepG2</t>
+  </si>
+  <si>
+    <t>liver</t>
   </si>
 </sst>
 </file>
@@ -1468,11 +1529,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1741,7 +1803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1777,7 +1839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +1875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1849,7 +1911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1885,7 +1947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1957,7 +2019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1993,7 +2055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2029,7 +2091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2065,7 +2127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2101,7 +2163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2137,7 +2199,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2173,7 +2235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2281,7 +2343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2353,7 +2415,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2461,7 +2523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2497,7 +2559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2569,7 +2631,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2713,7 +2775,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2785,7 +2847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2821,7 +2883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2919,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2893,7 +2955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2929,7 +2991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2965,7 +3027,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3001,7 +3063,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3073,7 +3135,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3109,7 +3171,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3145,7 +3207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +3243,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3279,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -3253,7 +3315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3289,7 +3351,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3361,7 +3423,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3397,7 +3459,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -3433,7 +3495,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3531,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3567,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3541,7 +3603,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3577,7 +3639,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3613,7 +3675,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3646,7 +3708,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3712,7 +3774,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3745,7 +3807,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3781,7 +3843,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3814,7 +3876,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -3850,7 +3912,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -3883,7 +3945,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -3916,7 +3978,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -3982,7 +4044,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -4015,7 +4077,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -4051,7 +4113,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -4084,7 +4146,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -4120,7 +4182,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -4153,7 +4215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +4245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -4213,7 +4275,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -4243,7 +4305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -4273,7 +4335,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4303,7 +4365,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4333,7 +4395,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4363,7 +4425,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4393,7 +4455,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4423,7 +4485,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -4453,7 +4515,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -4480,7 +4542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -4507,7 +4569,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4534,7 +4596,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -4561,7 +4623,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -4588,7 +4650,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -4615,7 +4677,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -4642,7 +4704,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -4669,7 +4731,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -4696,7 +4758,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -4723,7 +4785,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -4750,7 +4812,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -4777,7 +4839,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4810,7 +4872,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4876,7 +4938,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4909,7 +4971,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -4942,7 +5004,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -4975,7 +5037,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -5008,7 +5070,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -5041,7 +5103,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -5074,7 +5136,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -5107,7 +5169,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -5173,7 +5235,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -5206,7 +5268,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -5239,7 +5301,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -5272,7 +5334,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -5305,7 +5367,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -5371,7 +5433,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -5404,7 +5466,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -5437,7 +5499,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -5470,7 +5532,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -5503,7 +5565,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -5536,7 +5598,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -5569,7 +5631,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -5602,7 +5664,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -5635,7 +5697,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -5701,7 +5763,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -5734,7 +5796,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -5767,7 +5829,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -5800,7 +5862,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -5833,7 +5895,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -5866,7 +5928,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -5899,7 +5961,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -5932,7 +5994,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -5965,7 +6027,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -6031,7 +6093,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -6064,7 +6126,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -6097,7 +6159,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -6130,7 +6192,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -6163,7 +6225,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -6196,7 +6258,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -6229,7 +6291,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -6262,7 +6324,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -6295,7 +6357,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -6361,7 +6423,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -6394,7 +6456,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -6427,7 +6489,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -6460,7 +6522,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -6493,7 +6555,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -6526,7 +6588,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -6559,7 +6621,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -6592,7 +6654,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -6625,7 +6687,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -6658,7 +6720,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -6691,7 +6753,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -6724,7 +6786,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -6754,7 +6816,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -6814,7 +6876,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -6844,7 +6906,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -6874,7 +6936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -6904,7 +6966,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -6934,7 +6996,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -6964,7 +7026,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -6994,7 +7056,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -7024,7 +7086,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -7054,7 +7116,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -7114,7 +7176,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -7144,7 +7206,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -7174,7 +7236,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -7204,7 +7266,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -7234,7 +7296,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -7294,7 +7356,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -7324,7 +7386,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -7354,7 +7416,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -7384,7 +7446,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -7414,7 +7476,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -7444,7 +7506,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -7474,7 +7536,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -7504,7 +7566,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -7534,7 +7596,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -7594,7 +7656,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -7624,7 +7686,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -7654,7 +7716,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -7684,7 +7746,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -7714,7 +7776,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -7744,7 +7806,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -7774,7 +7836,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -7804,7 +7866,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -7834,7 +7896,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -7894,7 +7956,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -7924,7 +7986,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -7954,7 +8016,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -7984,7 +8046,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -8014,7 +8076,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -8044,7 +8106,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -8074,7 +8136,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -8104,7 +8166,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -8134,7 +8196,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8256,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -8224,7 +8286,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -8254,7 +8316,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -8284,7 +8346,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -8314,7 +8376,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -8344,7 +8406,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -8374,7 +8436,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -8404,7 +8466,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -8434,7 +8496,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -8464,7 +8526,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -8494,7 +8556,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -8524,7 +8586,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -8557,7 +8619,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -8590,7 +8652,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -8623,7 +8685,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -8656,7 +8718,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -8689,7 +8751,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -8722,7 +8784,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -8755,7 +8817,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -8788,7 +8850,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -8821,7 +8883,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -8854,7 +8916,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -8887,7 +8949,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -8920,7 +8982,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -8950,7 +9012,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -8980,7 +9042,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -9010,7 +9072,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -9040,7 +9102,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -9070,7 +9132,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -9100,7 +9162,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -9130,7 +9192,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -9160,7 +9222,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -9190,7 +9252,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -9220,7 +9282,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -9250,7 +9312,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -9280,7 +9342,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>163</v>
       </c>
@@ -9304,7 +9366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>163</v>
       </c>
@@ -9328,7 +9390,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>163</v>
       </c>
@@ -9376,7 +9438,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>163</v>
       </c>
@@ -9400,7 +9462,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>163</v>
       </c>
@@ -9424,7 +9486,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>163</v>
       </c>
@@ -9448,7 +9510,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>163</v>
       </c>
@@ -9472,7 +9534,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>163</v>
       </c>
@@ -9496,7 +9558,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>163</v>
       </c>
@@ -9520,7 +9582,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>163</v>
       </c>
@@ -9544,7 +9606,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>163</v>
       </c>
@@ -9569,7 +9631,221 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K252"/>
+  <autoFilter ref="A1:K252">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="H3K27ac"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="BR1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15548</v>
+      </c>
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22965</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="other_cell_lines" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$284</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="419">
   <si>
     <t>Cell</t>
   </si>
@@ -1179,6 +1179,102 @@
   </si>
   <si>
     <t>liver</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/F36P_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/F36P_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/HEL9217_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/HEL9217_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/K562_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/K562_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/Meg01_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/Meg01_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/UT7_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/UT7_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bw</t>
   </si>
 </sst>
 </file>
@@ -1529,12 +1625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K252"/>
+  <dimension ref="A1:K284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1767,7 +1862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1803,7 +1898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1839,7 +1934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1875,7 +1970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1911,7 +2006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1947,7 +2042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2114,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2055,7 +2150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2091,7 +2186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2127,7 +2222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2163,7 +2258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2199,7 +2294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2235,7 +2330,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +2438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +2474,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2415,7 +2510,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2451,7 +2546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2487,7 +2582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2559,7 +2654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2595,7 +2690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2631,7 +2726,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2667,7 +2762,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2775,7 +2870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2811,7 +2906,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2847,7 +2942,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2883,7 +2978,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2919,7 +3014,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +3050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2991,7 +3086,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3027,7 +3122,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3063,7 +3158,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3135,7 +3230,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3171,7 +3266,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3207,7 +3302,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -3243,7 +3338,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -3279,7 +3374,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -3315,7 +3410,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3351,7 +3446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3423,7 +3518,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3459,7 +3554,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -3495,7 +3590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -3531,7 +3626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3567,7 +3662,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3603,7 +3698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3639,7 +3734,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3675,7 +3770,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3708,7 +3803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3774,7 +3869,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3807,7 +3902,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3843,7 +3938,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3876,7 +3971,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -3912,7 +4007,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -3945,7 +4040,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -3978,7 +4073,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -4044,7 +4139,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -4077,7 +4172,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -4113,7 +4208,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -4146,7 +4241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -4182,7 +4277,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -4215,7 +4310,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4245,7 +4340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -4275,7 +4370,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -4305,7 +4400,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -4335,7 +4430,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4365,7 +4460,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4395,7 +4490,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4425,7 +4520,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4455,7 +4550,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4485,7 +4580,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -4515,7 +4610,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -4542,7 +4637,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -4569,7 +4664,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4596,7 +4691,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -4623,7 +4718,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -4650,7 +4745,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -4677,7 +4772,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -4704,7 +4799,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -4731,7 +4826,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -4758,7 +4853,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -4785,7 +4880,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -4812,7 +4907,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -4839,7 +4934,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4872,7 +4967,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4938,7 +5033,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4971,7 +5066,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -5004,7 +5099,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -5037,7 +5132,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -5070,7 +5165,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -5103,7 +5198,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -5136,7 +5231,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -5169,7 +5264,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -5235,7 +5330,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -5268,7 +5363,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -5301,7 +5396,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -5334,7 +5429,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -5367,7 +5462,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -5433,7 +5528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -5466,7 +5561,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -5499,7 +5594,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -5532,7 +5627,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -5565,7 +5660,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -5598,7 +5693,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -5631,7 +5726,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -5664,7 +5759,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -5697,7 +5792,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -5763,7 +5858,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -5796,7 +5891,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -5829,7 +5924,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -5862,7 +5957,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -5895,7 +5990,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -5928,7 +6023,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -5961,7 +6056,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -5994,7 +6089,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -6027,7 +6122,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -6093,7 +6188,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -6126,7 +6221,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -6159,7 +6254,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -6192,7 +6287,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -6225,7 +6320,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -6258,7 +6353,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -6291,7 +6386,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -6324,7 +6419,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -6357,7 +6452,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -6423,7 +6518,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -6456,7 +6551,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -6489,7 +6584,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -6522,7 +6617,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -6555,7 +6650,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -6588,7 +6683,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -6621,7 +6716,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -6654,7 +6749,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -6687,7 +6782,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -6720,7 +6815,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -6753,7 +6848,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -6786,7 +6881,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -6816,7 +6911,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -6876,7 +6971,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -6906,7 +7001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -6936,7 +7031,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -6966,7 +7061,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -6996,7 +7091,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -7026,7 +7121,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -7056,7 +7151,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7181,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -7116,7 +7211,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -7176,7 +7271,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -7206,7 +7301,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -7236,7 +7331,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -7266,7 +7361,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -7296,7 +7391,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -7356,7 +7451,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -7386,7 +7481,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -7416,7 +7511,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -7446,7 +7541,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -7476,7 +7571,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -7506,7 +7601,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -7536,7 +7631,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -7566,7 +7661,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -7596,7 +7691,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -7656,7 +7751,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -7686,7 +7781,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -7716,7 +7811,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -7746,7 +7841,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -7776,7 +7871,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -7806,7 +7901,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -7836,7 +7931,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -7866,7 +7961,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -7896,7 +7991,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -7946,7 +8041,7 @@
         <v>167</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H252" si="3">CONCATENATE(A195, "_", F195, "_", G195)</f>
+        <f t="shared" ref="H195:H263" si="3">CONCATENATE(A195, "_", F195, "_", G195)</f>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I195">
@@ -7956,7 +8051,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -7986,7 +8081,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -8016,7 +8111,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -8046,7 +8141,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -8076,7 +8171,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -8106,7 +8201,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -8136,7 +8231,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -8166,7 +8261,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -8196,7 +8291,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -8256,7 +8351,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -8286,7 +8381,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -8316,7 +8411,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -8346,7 +8441,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -8376,7 +8471,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -8406,7 +8501,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -8436,7 +8531,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -8466,7 +8561,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -8496,7 +8591,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -8526,7 +8621,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -8556,7 +8651,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -8586,7 +8681,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -8619,7 +8714,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -8652,7 +8747,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -8685,7 +8780,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -8718,7 +8813,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -8751,7 +8846,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -8784,7 +8879,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -8817,7 +8912,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -8850,7 +8945,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -8883,7 +8978,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -8916,7 +9011,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -8949,7 +9044,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -8982,7 +9077,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -9012,7 +9107,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -9042,7 +9137,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -9072,7 +9167,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -9102,7 +9197,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -9132,7 +9227,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -9162,7 +9257,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -9192,7 +9287,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -9222,7 +9317,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -9252,7 +9347,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -9282,7 +9377,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -9312,7 +9407,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -9342,7 +9437,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>163</v>
       </c>
@@ -9366,7 +9461,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>163</v>
       </c>
@@ -9390,7 +9485,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>163</v>
       </c>
@@ -9438,7 +9533,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>163</v>
       </c>
@@ -9462,7 +9557,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>163</v>
       </c>
@@ -9486,7 +9581,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>163</v>
       </c>
@@ -9510,7 +9605,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>163</v>
       </c>
@@ -9534,7 +9629,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>163</v>
       </c>
@@ -9558,7 +9653,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>163</v>
       </c>
@@ -9582,7 +9677,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>163</v>
       </c>
@@ -9606,7 +9701,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>163</v>
       </c>
@@ -9630,19 +9725,1028 @@
         <v>364</v>
       </c>
     </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" t="s">
+        <v>284</v>
+      </c>
+      <c r="C253" t="s">
+        <v>283</v>
+      </c>
+      <c r="D253" t="s">
+        <v>283</v>
+      </c>
+      <c r="E253" t="s">
+        <v>22</v>
+      </c>
+      <c r="F253" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" t="s">
+        <v>162</v>
+      </c>
+      <c r="H253" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR1_Baseline</v>
+      </c>
+      <c r="I253">
+        <v>2</v>
+      </c>
+      <c r="J253" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254" t="s">
+        <v>284</v>
+      </c>
+      <c r="C254" t="s">
+        <v>283</v>
+      </c>
+      <c r="D254" t="s">
+        <v>283</v>
+      </c>
+      <c r="E254" t="s">
+        <v>22</v>
+      </c>
+      <c r="F254" t="s">
+        <v>14</v>
+      </c>
+      <c r="G254" t="s">
+        <v>162</v>
+      </c>
+      <c r="H254" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR2_Baseline</v>
+      </c>
+      <c r="I254">
+        <v>2</v>
+      </c>
+      <c r="J254" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>20</v>
+      </c>
+      <c r="B255" t="s">
+        <v>284</v>
+      </c>
+      <c r="C255" t="s">
+        <v>283</v>
+      </c>
+      <c r="D255" t="s">
+        <v>283</v>
+      </c>
+      <c r="E255" t="s">
+        <v>22</v>
+      </c>
+      <c r="F255" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" t="s">
+        <v>164</v>
+      </c>
+      <c r="H255" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR1_LPS</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256" t="s">
+        <v>284</v>
+      </c>
+      <c r="C256" t="s">
+        <v>283</v>
+      </c>
+      <c r="D256" t="s">
+        <v>283</v>
+      </c>
+      <c r="E256" t="s">
+        <v>22</v>
+      </c>
+      <c r="F256" t="s">
+        <v>14</v>
+      </c>
+      <c r="G256" t="s">
+        <v>164</v>
+      </c>
+      <c r="H256" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR2_LPS</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>20</v>
+      </c>
+      <c r="B257" t="s">
+        <v>284</v>
+      </c>
+      <c r="C257" t="s">
+        <v>283</v>
+      </c>
+      <c r="D257" t="s">
+        <v>283</v>
+      </c>
+      <c r="E257" t="s">
+        <v>22</v>
+      </c>
+      <c r="F257" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" t="s">
+        <v>166</v>
+      </c>
+      <c r="H257" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR1_PMA</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258" t="s">
+        <v>284</v>
+      </c>
+      <c r="C258" t="s">
+        <v>283</v>
+      </c>
+      <c r="D258" t="s">
+        <v>283</v>
+      </c>
+      <c r="E258" t="s">
+        <v>22</v>
+      </c>
+      <c r="F258" t="s">
+        <v>14</v>
+      </c>
+      <c r="G258" t="s">
+        <v>166</v>
+      </c>
+      <c r="H258" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR2_PMA</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>20</v>
+      </c>
+      <c r="B259" t="s">
+        <v>284</v>
+      </c>
+      <c r="C259" t="s">
+        <v>283</v>
+      </c>
+      <c r="D259" t="s">
+        <v>283</v>
+      </c>
+      <c r="E259" t="s">
+        <v>22</v>
+      </c>
+      <c r="F259" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" t="s">
+        <v>165</v>
+      </c>
+      <c r="H259" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR1_PMA+LPS</v>
+      </c>
+      <c r="I259">
+        <v>2</v>
+      </c>
+      <c r="J259" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260" t="s">
+        <v>284</v>
+      </c>
+      <c r="C260" t="s">
+        <v>283</v>
+      </c>
+      <c r="D260" t="s">
+        <v>283</v>
+      </c>
+      <c r="E260" t="s">
+        <v>22</v>
+      </c>
+      <c r="F260" t="s">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s">
+        <v>165</v>
+      </c>
+      <c r="H260" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR2_PMA+LPS</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261" t="s">
+        <v>284</v>
+      </c>
+      <c r="C261" t="s">
+        <v>283</v>
+      </c>
+      <c r="D261" t="s">
+        <v>283</v>
+      </c>
+      <c r="E261" t="s">
+        <v>22</v>
+      </c>
+      <c r="F261" t="s">
+        <v>13</v>
+      </c>
+      <c r="G261" t="s">
+        <v>168</v>
+      </c>
+      <c r="H261" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR1_VD3</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>20</v>
+      </c>
+      <c r="B262" t="s">
+        <v>284</v>
+      </c>
+      <c r="C262" t="s">
+        <v>283</v>
+      </c>
+      <c r="D262" t="s">
+        <v>283</v>
+      </c>
+      <c r="E262" t="s">
+        <v>22</v>
+      </c>
+      <c r="F262" t="s">
+        <v>13</v>
+      </c>
+      <c r="G262" t="s">
+        <v>167</v>
+      </c>
+      <c r="H262" t="str">
+        <f t="shared" si="3"/>
+        <v>THP-1_BR1_VD3+LPS</v>
+      </c>
+      <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263" t="s">
+        <v>285</v>
+      </c>
+      <c r="C263" t="s">
+        <v>283</v>
+      </c>
+      <c r="E263" t="s">
+        <v>22</v>
+      </c>
+      <c r="F263" t="s">
+        <v>13</v>
+      </c>
+      <c r="G263" t="s">
+        <v>162</v>
+      </c>
+      <c r="H263" t="str">
+        <f t="shared" si="3"/>
+        <v>U937_BR1_Baseline</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" t="s">
+        <v>285</v>
+      </c>
+      <c r="C264" t="s">
+        <v>283</v>
+      </c>
+      <c r="E264" t="s">
+        <v>22</v>
+      </c>
+      <c r="F264" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" t="s">
+        <v>162</v>
+      </c>
+      <c r="H264" t="str">
+        <f t="shared" ref="H264:H283" si="4">CONCATENATE(A264, "_", F264, "_", G264)</f>
+        <v>U937_BR2_Baseline</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>21</v>
+      </c>
+      <c r="B265" t="s">
+        <v>285</v>
+      </c>
+      <c r="C265" t="s">
+        <v>283</v>
+      </c>
+      <c r="E265" t="s">
+        <v>22</v>
+      </c>
+      <c r="F265" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265" t="s">
+        <v>164</v>
+      </c>
+      <c r="H265" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR1_LPS</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
+      </c>
+      <c r="J265" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>21</v>
+      </c>
+      <c r="B266" t="s">
+        <v>285</v>
+      </c>
+      <c r="C266" t="s">
+        <v>283</v>
+      </c>
+      <c r="E266" t="s">
+        <v>22</v>
+      </c>
+      <c r="F266" t="s">
+        <v>14</v>
+      </c>
+      <c r="G266" t="s">
+        <v>164</v>
+      </c>
+      <c r="H266" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR2_LPS</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267" t="s">
+        <v>285</v>
+      </c>
+      <c r="C267" t="s">
+        <v>283</v>
+      </c>
+      <c r="E267" t="s">
+        <v>22</v>
+      </c>
+      <c r="F267" t="s">
+        <v>13</v>
+      </c>
+      <c r="G267" t="s">
+        <v>166</v>
+      </c>
+      <c r="H267" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR1_PMA</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>21</v>
+      </c>
+      <c r="B268" t="s">
+        <v>285</v>
+      </c>
+      <c r="C268" t="s">
+        <v>283</v>
+      </c>
+      <c r="E268" t="s">
+        <v>22</v>
+      </c>
+      <c r="F268" t="s">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s">
+        <v>166</v>
+      </c>
+      <c r="H268" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR2_PMA</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>21</v>
+      </c>
+      <c r="B269" t="s">
+        <v>285</v>
+      </c>
+      <c r="C269" t="s">
+        <v>283</v>
+      </c>
+      <c r="E269" t="s">
+        <v>22</v>
+      </c>
+      <c r="F269" t="s">
+        <v>13</v>
+      </c>
+      <c r="G269" t="s">
+        <v>165</v>
+      </c>
+      <c r="H269" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR1_PMA+LPS</v>
+      </c>
+      <c r="I269">
+        <v>2</v>
+      </c>
+      <c r="J269" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>21</v>
+      </c>
+      <c r="B270" t="s">
+        <v>285</v>
+      </c>
+      <c r="C270" t="s">
+        <v>283</v>
+      </c>
+      <c r="E270" t="s">
+        <v>22</v>
+      </c>
+      <c r="F270" t="s">
+        <v>14</v>
+      </c>
+      <c r="G270" t="s">
+        <v>165</v>
+      </c>
+      <c r="H270" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR2_PMA+LPS</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>21</v>
+      </c>
+      <c r="B271" t="s">
+        <v>285</v>
+      </c>
+      <c r="C271" t="s">
+        <v>283</v>
+      </c>
+      <c r="E271" t="s">
+        <v>22</v>
+      </c>
+      <c r="F271" t="s">
+        <v>13</v>
+      </c>
+      <c r="G271" t="s">
+        <v>168</v>
+      </c>
+      <c r="H271" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR1_VD3</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>21</v>
+      </c>
+      <c r="B272" t="s">
+        <v>285</v>
+      </c>
+      <c r="C272" t="s">
+        <v>283</v>
+      </c>
+      <c r="E272" t="s">
+        <v>22</v>
+      </c>
+      <c r="F272" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" t="s">
+        <v>168</v>
+      </c>
+      <c r="H272" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR2_VD3</v>
+      </c>
+      <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>21</v>
+      </c>
+      <c r="B273" t="s">
+        <v>285</v>
+      </c>
+      <c r="C273" t="s">
+        <v>283</v>
+      </c>
+      <c r="E273" t="s">
+        <v>22</v>
+      </c>
+      <c r="F273" t="s">
+        <v>13</v>
+      </c>
+      <c r="G273" t="s">
+        <v>167</v>
+      </c>
+      <c r="H273" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR1_VD3+LPS</v>
+      </c>
+      <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>21</v>
+      </c>
+      <c r="B274" t="s">
+        <v>285</v>
+      </c>
+      <c r="C274" t="s">
+        <v>283</v>
+      </c>
+      <c r="E274" t="s">
+        <v>22</v>
+      </c>
+      <c r="F274" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s">
+        <v>167</v>
+      </c>
+      <c r="H274" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR2_VD3+LPS</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275" t="s">
+        <v>270</v>
+      </c>
+      <c r="C275" t="s">
+        <v>277</v>
+      </c>
+      <c r="D275" t="s">
+        <v>274</v>
+      </c>
+      <c r="E275" t="s">
+        <v>22</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" t="s">
+        <v>162</v>
+      </c>
+      <c r="H275" t="str">
+        <f t="shared" si="4"/>
+        <v>F36P_BR1_Baseline</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>270</v>
+      </c>
+      <c r="C276" t="s">
+        <v>277</v>
+      </c>
+      <c r="D276" t="s">
+        <v>274</v>
+      </c>
+      <c r="E276" t="s">
+        <v>22</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s">
+        <v>162</v>
+      </c>
+      <c r="H276" t="str">
+        <f t="shared" si="4"/>
+        <v>F36P_BR2_Baseline</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" t="s">
+        <v>270</v>
+      </c>
+      <c r="C277" t="s">
+        <v>275</v>
+      </c>
+      <c r="D277" t="s">
+        <v>272</v>
+      </c>
+      <c r="E277" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" t="s">
+        <v>162</v>
+      </c>
+      <c r="H277" t="str">
+        <f t="shared" si="4"/>
+        <v>HEL9217_BR1_Baseline</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
+        <v>270</v>
+      </c>
+      <c r="C278" t="s">
+        <v>275</v>
+      </c>
+      <c r="D278" t="s">
+        <v>272</v>
+      </c>
+      <c r="E278" t="s">
+        <v>22</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s">
+        <v>162</v>
+      </c>
+      <c r="H278" t="str">
+        <f t="shared" si="4"/>
+        <v>HEL9217_BR2_Baseline</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" t="s">
+        <v>270</v>
+      </c>
+      <c r="C279" t="s">
+        <v>275</v>
+      </c>
+      <c r="D279" t="s">
+        <v>274</v>
+      </c>
+      <c r="E279" t="s">
+        <v>22</v>
+      </c>
+      <c r="F279" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279" t="s">
+        <v>162</v>
+      </c>
+      <c r="H279" t="str">
+        <f t="shared" si="4"/>
+        <v>K562_BR1_Baseline</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>270</v>
+      </c>
+      <c r="C280" t="s">
+        <v>275</v>
+      </c>
+      <c r="D280" t="s">
+        <v>274</v>
+      </c>
+      <c r="E280" t="s">
+        <v>22</v>
+      </c>
+      <c r="F280" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" t="s">
+        <v>162</v>
+      </c>
+      <c r="H280" t="str">
+        <f t="shared" si="4"/>
+        <v>K562_BR2_Baseline</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" t="s">
+        <v>270</v>
+      </c>
+      <c r="C281" t="s">
+        <v>275</v>
+      </c>
+      <c r="D281" t="s">
+        <v>273</v>
+      </c>
+      <c r="E281" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" t="s">
+        <v>162</v>
+      </c>
+      <c r="H281" t="str">
+        <f t="shared" si="4"/>
+        <v>MEG01_BR1_Baseline</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" t="s">
+        <v>270</v>
+      </c>
+      <c r="C282" t="s">
+        <v>275</v>
+      </c>
+      <c r="D282" t="s">
+        <v>273</v>
+      </c>
+      <c r="E282" t="s">
+        <v>22</v>
+      </c>
+      <c r="F282" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282" t="s">
+        <v>162</v>
+      </c>
+      <c r="H282" t="str">
+        <f t="shared" si="4"/>
+        <v>MEG01_BR2_Baseline</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" t="s">
+        <v>270</v>
+      </c>
+      <c r="C283" t="s">
+        <v>274</v>
+      </c>
+      <c r="D283" t="s">
+        <v>274</v>
+      </c>
+      <c r="E283" t="s">
+        <v>22</v>
+      </c>
+      <c r="F283" t="s">
+        <v>13</v>
+      </c>
+      <c r="G283" t="s">
+        <v>162</v>
+      </c>
+      <c r="H283" t="str">
+        <f t="shared" si="4"/>
+        <v>UT7_BR1_Baseline</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" t="s">
+        <v>270</v>
+      </c>
+      <c r="C284" t="s">
+        <v>274</v>
+      </c>
+      <c r="D284" t="s">
+        <v>274</v>
+      </c>
+      <c r="E284" t="s">
+        <v>22</v>
+      </c>
+      <c r="F284" t="s">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s">
+        <v>162</v>
+      </c>
+      <c r="H284" t="str">
+        <f t="shared" ref="H284" si="5">CONCATENATE(A284, "_", F284, "_", G284)</f>
+        <v>UT7_BR2_Baseline</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284" t="s">
+        <v>418</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K252">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="H3K27ac"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="BR1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K284"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9652,7 +10756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -11,14 +11,14 @@
     <sheet name="other_cell_lines" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$262</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="419">
   <si>
     <t>Cell</t>
   </si>
@@ -1625,11 +1625,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K284"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3194,7 +3195,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -3410,7 +3411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3770,7 +3771,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>162</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="1">CONCATENATE(A67, "_", F67, "_", G67)</f>
+        <f t="shared" ref="H67:H108" si="1">CONCATENATE(A67, "_", F67, "_", G67)</f>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I67">
@@ -4040,7 +4041,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -4324,20 +4325,23 @@
         <v>283</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>164</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
-      <c r="K76" t="s">
-        <v>23</v>
+      <c r="J76" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,20 +4358,23 @@
         <v>283</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
       </c>
+      <c r="G77" t="s">
+        <v>164</v>
+      </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_</v>
+        <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
-      <c r="K77" t="s">
-        <v>169</v>
+      <c r="J77" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4384,20 +4391,23 @@
         <v>283</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>164</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
-      <c r="K78" t="s">
-        <v>170</v>
+      <c r="J78" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4414,20 +4424,23 @@
         <v>283</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>164</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_</v>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
-      <c r="K79" t="s">
-        <v>171</v>
+      <c r="J79" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4444,23 +4457,26 @@
         <v>283</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>164</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
-      <c r="K80" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4474,23 +4490,26 @@
         <v>283</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>164</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_</v>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
-      <c r="K81" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4504,23 +4523,26 @@
         <v>283</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>164</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
-      <c r="K82" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4534,23 +4556,26 @@
         <v>283</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>164</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_</v>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
-      <c r="K83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4564,23 +4589,26 @@
         <v>283</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>164</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
-      <c r="K84" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -4594,347 +4622,422 @@
         <v>283</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>162</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
-      <c r="K85" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" t="s">
         <v>283</v>
       </c>
+      <c r="D86" t="s">
+        <v>283</v>
+      </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>162</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR1_</v>
+        <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
-      <c r="K86" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C87" t="s">
         <v>283</v>
       </c>
+      <c r="D87" t="s">
+        <v>283</v>
+      </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>162</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR2_</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
-      <c r="K87" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C88" t="s">
         <v>283</v>
       </c>
+      <c r="D88" t="s">
+        <v>283</v>
+      </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>162</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR1_</v>
+        <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
-      <c r="K88" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C89" t="s">
         <v>283</v>
       </c>
+      <c r="D89" t="s">
+        <v>283</v>
+      </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>162</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR2_</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
-      <c r="K89" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
         <v>283</v>
       </c>
+      <c r="D90" t="s">
+        <v>283</v>
+      </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>162</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR1_</v>
+        <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
-      <c r="K90" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" t="s">
         <v>283</v>
       </c>
+      <c r="D91" t="s">
+        <v>283</v>
+      </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>165</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR2_</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
-      <c r="K91" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C92" t="s">
         <v>283</v>
       </c>
+      <c r="D92" t="s">
+        <v>283</v>
+      </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>165</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR1_</v>
+        <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
-      <c r="K92" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C93" t="s">
         <v>283</v>
       </c>
+      <c r="D93" t="s">
+        <v>283</v>
+      </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>165</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR2_</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
-      <c r="K93" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C94" t="s">
         <v>283</v>
       </c>
+      <c r="D94" t="s">
+        <v>283</v>
+      </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>165</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR1_</v>
+        <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I94">
         <v>2</v>
       </c>
-      <c r="K94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s">
         <v>283</v>
       </c>
+      <c r="D95" t="s">
+        <v>283</v>
+      </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>165</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR2_</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
-      <c r="K95" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
         <v>283</v>
       </c>
+      <c r="D96" t="s">
+        <v>283</v>
+      </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>165</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR1_</v>
+        <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
-      <c r="K96" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C97" t="s">
         <v>283</v>
       </c>
+      <c r="D97" t="s">
+        <v>283</v>
+      </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>165</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="1"/>
-        <v>U937_BR2_</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
-      <c r="K97" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4948,26 +5051,26 @@
         <v>283</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_LPS</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4981,26 +5084,26 @@
         <v>283</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_LPS</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -5014,26 +5117,26 @@
         <v>283</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_LPS</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -5047,26 +5150,26 @@
         <v>283</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_LPS</v>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I101">
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -5080,26 +5183,26 @@
         <v>283</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_LPS</v>
+        <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -5113,26 +5216,26 @@
         <v>283</v>
       </c>
       <c r="E103" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_LPS</v>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -5146,26 +5249,26 @@
         <v>283</v>
       </c>
       <c r="E104" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_LPS</v>
+        <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -5179,26 +5282,26 @@
         <v>283</v>
       </c>
       <c r="E105" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_LPS</v>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -5212,26 +5315,26 @@
         <v>283</v>
       </c>
       <c r="E106" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_LPS</v>
+        <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -5245,26 +5348,26 @@
         <v>283</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR1_Baseline</v>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -5278,26 +5381,26 @@
         <v>283</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="1"/>
-        <v>THP-1_BR2_Baseline</v>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -5311,26 +5414,26 @@
         <v>283</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_Baseline</v>
+        <f t="shared" ref="H109:H172" si="2">CONCATENATE(A109, "_", F109, "_", G109)</f>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -5344,26 +5447,26 @@
         <v>283</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR2_Baseline</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -5377,26 +5480,26 @@
         <v>283</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_Baseline</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -5410,23 +5513,23 @@
         <v>283</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR2_Baseline</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5443,23 +5546,23 @@
         <v>283</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5476,23 +5579,23 @@
         <v>283</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR2_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5509,23 +5612,23 @@
         <v>283</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5542,23 +5645,23 @@
         <v>283</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR2_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5575,23 +5678,23 @@
         <v>283</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5608,23 +5711,23 @@
         <v>283</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR2_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>212</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5647,17 +5750,17 @@
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -5680,17 +5783,17 @@
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -5707,23 +5810,23 @@
         <v>283</v>
       </c>
       <c r="E121" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -5740,23 +5843,23 @@
         <v>283</v>
       </c>
       <c r="E122" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -5773,23 +5876,23 @@
         <v>283</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -5806,23 +5909,23 @@
         <v>283</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR2_PMA</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5839,23 +5942,23 @@
         <v>283</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -5872,23 +5975,23 @@
         <v>283</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR2_PMA</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5905,23 +6008,23 @@
         <v>283</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I127">
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5938,23 +6041,23 @@
         <v>283</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR2_PMA</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5977,17 +6080,17 @@
         <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -6010,17 +6113,17 @@
         <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" si="1"/>
-        <v>THP-1_BR1_PMA</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -6037,23 +6140,23 @@
         <v>283</v>
       </c>
       <c r="E131" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H194" si="2">CONCATENATE(A131, "_", F131, "_", G131)</f>
-        <v>THP-1_BR1_PMA</v>
+        <f t="shared" si="2"/>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -6070,23 +6173,23 @@
         <v>283</v>
       </c>
       <c r="E132" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_PMA</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -6103,23 +6206,23 @@
         <v>283</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -6136,234 +6239,213 @@
         <v>283</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR2_VD3+LPS</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>220</v>
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C135" t="s">
         <v>283</v>
       </c>
-      <c r="D135" t="s">
-        <v>283</v>
-      </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C136" t="s">
         <v>283</v>
       </c>
-      <c r="D136" t="s">
-        <v>283</v>
-      </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR2_VD3+LPS</v>
+        <v>U937_BR2_LPS</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C137" t="s">
         <v>283</v>
       </c>
-      <c r="D137" t="s">
-        <v>283</v>
-      </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F137" t="s">
         <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C138" t="s">
         <v>283</v>
       </c>
-      <c r="D138" t="s">
-        <v>283</v>
-      </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR2_VD3+LPS</v>
+        <v>U937_BR2_LPS</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C139" t="s">
         <v>283</v>
       </c>
-      <c r="D139" t="s">
-        <v>283</v>
-      </c>
       <c r="E139" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="F139" t="s">
         <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C140" t="s">
         <v>283</v>
       </c>
-      <c r="D140" t="s">
-        <v>283</v>
-      </c>
       <c r="E140" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G140" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <v>U937_BR2_LPS</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C141" t="s">
-        <v>283</v>
-      </c>
-      <c r="D141" t="s">
         <v>283</v>
       </c>
       <c r="E141" t="s">
@@ -6373,30 +6455,27 @@
         <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s">
-        <v>283</v>
-      </c>
-      <c r="D142" t="s">
         <v>283</v>
       </c>
       <c r="E142" t="s">
@@ -6406,479 +6485,437 @@
         <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
         <v>283</v>
       </c>
-      <c r="D143" t="s">
-        <v>283</v>
-      </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F143" t="s">
         <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3</v>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>225</v>
+        <v>337</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C144" t="s">
         <v>283</v>
       </c>
-      <c r="D144" t="s">
-        <v>283</v>
-      </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR2_VD3</v>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C145" t="s">
         <v>283</v>
       </c>
-      <c r="D145" t="s">
-        <v>283</v>
-      </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
         <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C146" t="s">
         <v>283</v>
       </c>
-      <c r="D146" t="s">
-        <v>283</v>
-      </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR2_VD3</v>
+        <v>U937_BR2_Baseline</v>
       </c>
       <c r="I146">
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C147" t="s">
         <v>283</v>
       </c>
-      <c r="D147" t="s">
-        <v>283</v>
-      </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F147" t="s">
         <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C148" t="s">
         <v>283</v>
       </c>
-      <c r="D148" t="s">
-        <v>283</v>
-      </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR2_VD3</v>
+        <v>U937_BR2_Baseline</v>
       </c>
       <c r="I148">
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C149" t="s">
         <v>283</v>
       </c>
-      <c r="D149" t="s">
-        <v>283</v>
-      </c>
       <c r="E149" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="F149" t="s">
         <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>327</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C150" t="s">
         <v>283</v>
       </c>
-      <c r="D150" t="s">
-        <v>283</v>
-      </c>
       <c r="E150" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3</v>
+        <v>U937_BR2_Baseline</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C151" t="s">
         <v>283</v>
       </c>
-      <c r="D151" t="s">
-        <v>283</v>
-      </c>
       <c r="E151" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
         <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3</v>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C152" t="s">
         <v>283</v>
       </c>
-      <c r="D152" t="s">
-        <v>283</v>
-      </c>
       <c r="E152" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_VD3</v>
+        <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I152">
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C153" t="s">
         <v>283</v>
       </c>
-      <c r="D153" t="s">
-        <v>283</v>
-      </c>
       <c r="E153" t="s">
-        <v>366</v>
+        <v>8</v>
       </c>
       <c r="F153" t="s">
         <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_Baseline</v>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I153">
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>331</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C154" t="s">
         <v>283</v>
       </c>
-      <c r="D154" t="s">
-        <v>283</v>
-      </c>
       <c r="E154" t="s">
-        <v>366</v>
+        <v>8</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_Baseline</v>
+        <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I154">
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>332</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C155" t="s">
         <v>283</v>
       </c>
-      <c r="D155" t="s">
-        <v>283</v>
-      </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>10</v>
       </c>
       <c r="F155" t="s">
         <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_Baseline</v>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C156" t="s">
         <v>283</v>
       </c>
-      <c r="D156" t="s">
-        <v>283</v>
-      </c>
       <c r="E156" t="s">
-        <v>366</v>
+        <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="2"/>
-        <v>THP-1_BR1_Baseline</v>
+        <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -6892,23 +6929,23 @@
         <v>283</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F157" t="s">
         <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_LPS</v>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I157">
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>231</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -6922,23 +6959,23 @@
         <v>283</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR2_LPS</v>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I158">
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6952,23 +6989,23 @@
         <v>283</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_LPS</v>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I159">
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -6982,23 +7019,23 @@
         <v>283</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR2_LPS</v>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I160">
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -7012,23 +7049,23 @@
         <v>283</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
         <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_LPS</v>
+        <v>U937_BR1_PMA</v>
       </c>
       <c r="I161">
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -7042,23 +7079,23 @@
         <v>283</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
       </c>
       <c r="G162" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR2_LPS</v>
+        <v>U937_BR2_PMA</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -7072,23 +7109,23 @@
         <v>283</v>
       </c>
       <c r="E163" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_LPS</v>
+        <v>U937_BR1_PMA</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -7102,23 +7139,23 @@
         <v>283</v>
       </c>
       <c r="E164" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_LPS</v>
+        <v>U937_BR2_PMA</v>
       </c>
       <c r="I164">
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>336</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -7132,23 +7169,23 @@
         <v>283</v>
       </c>
       <c r="E165" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_LPS</v>
+        <v>U937_BR1_PMA</v>
       </c>
       <c r="I165">
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -7162,23 +7199,23 @@
         <v>283</v>
       </c>
       <c r="E166" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G166" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_LPS</v>
+        <v>U937_BR2_PMA</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -7192,23 +7229,23 @@
         <v>283</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_Baseline</v>
+        <v>U937_BR1_PMA</v>
       </c>
       <c r="I167">
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -7222,23 +7259,23 @@
         <v>283</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR2_Baseline</v>
+        <v>U937_BR1_PMA</v>
       </c>
       <c r="I168">
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -7252,23 +7289,23 @@
         <v>283</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_Baseline</v>
+        <v>U937_BR1_PMA</v>
       </c>
       <c r="I169">
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>239</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -7282,23 +7319,23 @@
         <v>283</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR2_Baseline</v>
+        <v>U937_BR1_PMA</v>
       </c>
       <c r="I170">
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>240</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -7312,23 +7349,23 @@
         <v>283</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
         <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR1_Baseline</v>
+        <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I171">
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -7342,23 +7379,23 @@
         <v>283</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
       </c>
       <c r="G172" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="2"/>
-        <v>U937_BR2_Baseline</v>
+        <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I172">
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -7372,23 +7409,23 @@
         <v>283</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F173" t="s">
         <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA+LPS</v>
+        <f t="shared" ref="H173:H241" si="3">CONCATENATE(A173, "_", F173, "_", G173)</f>
+        <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I173">
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -7402,23 +7439,23 @@
         <v>283</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
       </c>
       <c r="G174" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR2_PMA+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -7432,23 +7469,23 @@
         <v>283</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F175" t="s">
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -7462,23 +7499,23 @@
         <v>283</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F176" t="s">
         <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR2_PMA+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -7492,23 +7529,23 @@
         <v>283</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -7522,23 +7559,23 @@
         <v>283</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR2_PMA+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>248</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -7558,17 +7595,17 @@
         <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -7588,17 +7625,17 @@
         <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -7612,23 +7649,23 @@
         <v>283</v>
       </c>
       <c r="E181" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
         <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -7642,23 +7679,23 @@
         <v>283</v>
       </c>
       <c r="E182" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR2_VD3</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -7672,23 +7709,23 @@
         <v>283</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F183" t="s">
         <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -7702,23 +7739,23 @@
         <v>283</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR2_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR2_VD3</v>
       </c>
       <c r="I184">
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -7732,23 +7769,23 @@
         <v>283</v>
       </c>
       <c r="E185" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F185" t="s">
         <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I185">
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -7762,23 +7799,23 @@
         <v>283</v>
       </c>
       <c r="E186" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
       </c>
       <c r="G186" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR2_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR2_VD3</v>
       </c>
       <c r="I186">
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -7792,23 +7829,23 @@
         <v>283</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="F187" t="s">
         <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I187">
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>253</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -7822,23 +7859,23 @@
         <v>283</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR2_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I188">
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>254</v>
+        <v>352</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -7858,17 +7895,17 @@
         <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I189">
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -7888,17 +7925,17 @@
         <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I190">
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -7912,23 +7949,23 @@
         <v>283</v>
       </c>
       <c r="E191" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="F191" t="s">
         <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I191">
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -7942,23 +7979,23 @@
         <v>283</v>
       </c>
       <c r="E192" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
         <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_PMA</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I192">
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -7972,23 +8009,23 @@
         <v>283</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
         <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR1_VD3+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I193">
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>255</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -8002,277 +8039,304 @@
         <v>283</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="2"/>
-        <v>U937_BR2_VD3+LPS</v>
+        <f t="shared" si="3"/>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I194">
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>256</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C195" t="s">
         <v>283</v>
       </c>
+      <c r="D195" t="s">
+        <v>283</v>
+      </c>
       <c r="E195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F195" t="s">
         <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H263" si="3">CONCATENATE(A195, "_", F195, "_", G195)</f>
-        <v>U937_BR1_VD3+LPS</v>
+        <f t="shared" si="3"/>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I195">
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C196" t="s">
         <v>283</v>
       </c>
+      <c r="D196" t="s">
+        <v>283</v>
+      </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_VD3+LPS</v>
+        <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I196">
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C197" t="s">
         <v>283</v>
       </c>
+      <c r="D197" t="s">
+        <v>283</v>
+      </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F197" t="s">
         <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3+LPS</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I197">
         <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C198" t="s">
         <v>283</v>
       </c>
+      <c r="D198" t="s">
+        <v>283</v>
+      </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_VD3+LPS</v>
+        <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I198">
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C199" t="s">
         <v>283</v>
       </c>
+      <c r="D199" t="s">
+        <v>283</v>
+      </c>
       <c r="E199" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="3"/>
-        <v>U937_BR1_VD3+LPS</v>
+        <f>CONCATENATE(A199, "_", F199, "_", G199)</f>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I199">
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C200" t="s">
         <v>283</v>
       </c>
+      <c r="D200" t="s">
+        <v>283</v>
+      </c>
       <c r="E200" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="3"/>
-        <v>U937_BR1_VD3+LPS</v>
+        <f>CONCATENATE(A200, "_", F200, "_", G200)</f>
+        <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I200">
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C201" t="s">
         <v>283</v>
       </c>
+      <c r="D201" t="s">
+        <v>283</v>
+      </c>
       <c r="E201" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3+LPS</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I201">
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C202" t="s">
         <v>283</v>
       </c>
+      <c r="D202" t="s">
+        <v>283</v>
+      </c>
       <c r="E202" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G202" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3+LPS</v>
+        <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I202">
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C203" t="s">
         <v>283</v>
       </c>
+      <c r="D203" t="s">
+        <v>283</v>
+      </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
@@ -8282,27 +8346,30 @@
       </c>
       <c r="H203" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3</v>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I203">
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C204" t="s">
         <v>283</v>
       </c>
+      <c r="D204" t="s">
+        <v>283</v>
+      </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -8312,73 +8379,79 @@
       </c>
       <c r="H204" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_VD3</v>
+        <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I204">
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C205" t="s">
         <v>283</v>
       </c>
+      <c r="D205" t="s">
+        <v>283</v>
+      </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F205" t="s">
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H205" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3</v>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I205">
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C206" t="s">
         <v>283</v>
       </c>
+      <c r="D206" t="s">
+        <v>283</v>
+      </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
       </c>
       <c r="G206" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H206" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_VD3</v>
+        <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I206">
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -8392,23 +8465,23 @@
         <v>283</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F207" t="s">
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H207" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3</v>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I207">
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -8422,23 +8495,23 @@
         <v>283</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H208" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_VD3</v>
+        <v>U937_BR2_LPS</v>
       </c>
       <c r="I208">
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -8452,23 +8525,23 @@
         <v>283</v>
       </c>
       <c r="E209" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H209" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I209">
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -8482,23 +8555,23 @@
         <v>283</v>
       </c>
       <c r="E210" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G210" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H210" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3</v>
+        <v>U937_BR2_Baseline</v>
       </c>
       <c r="I210">
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -8512,23 +8585,23 @@
         <v>283</v>
       </c>
       <c r="E211" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F211" t="s">
         <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H211" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3</v>
+        <v>U937_BR1_PMA</v>
       </c>
       <c r="I211">
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -8542,23 +8615,23 @@
         <v>283</v>
       </c>
       <c r="E212" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G212" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H212" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3</v>
+        <v>U937_BR2_PMA</v>
       </c>
       <c r="I212">
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -8572,23 +8645,23 @@
         <v>283</v>
       </c>
       <c r="E213" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="F213" t="s">
         <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H213" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_Baseline</v>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I213">
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -8602,23 +8675,23 @@
         <v>283</v>
       </c>
       <c r="E214" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H214" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_Baseline</v>
+        <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -8632,23 +8705,23 @@
         <v>283</v>
       </c>
       <c r="E215" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="F215" t="s">
         <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H215" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_Baseline</v>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I215">
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -8662,36 +8735,33 @@
         <v>283</v>
       </c>
       <c r="E216" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H216" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_Baseline</v>
+        <v>U937_BR2_VD3</v>
       </c>
       <c r="I216">
         <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B217" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C217" t="s">
-        <v>283</v>
-      </c>
-      <c r="D217" t="s">
         <v>283</v>
       </c>
       <c r="E217" t="s">
@@ -8701,30 +8771,27 @@
         <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H217" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_LPS</v>
+        <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I217">
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B218" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C218" t="s">
-        <v>283</v>
-      </c>
-      <c r="D218" t="s">
         <v>283</v>
       </c>
       <c r="E218" t="s">
@@ -8734,34 +8801,25 @@
         <v>14</v>
       </c>
       <c r="G218" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H218" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_LPS</v>
+        <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I218">
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>20</v>
-      </c>
-      <c r="B219" t="s">
-        <v>284</v>
-      </c>
-      <c r="C219" t="s">
-        <v>283</v>
-      </c>
-      <c r="D219" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E219" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
         <v>13</v>
@@ -8771,30 +8829,21 @@
       </c>
       <c r="H219" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_Baseline</v>
+        <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>20</v>
-      </c>
-      <c r="B220" t="s">
-        <v>284</v>
-      </c>
-      <c r="C220" t="s">
-        <v>283</v>
-      </c>
-      <c r="D220" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E220" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
         <v>14</v>
@@ -8804,159 +8853,114 @@
       </c>
       <c r="H220" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_Baseline</v>
+        <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>20</v>
-      </c>
-      <c r="B221" t="s">
-        <v>284</v>
-      </c>
-      <c r="C221" t="s">
-        <v>283</v>
-      </c>
-      <c r="D221" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E221" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>365</v>
       </c>
       <c r="G221" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H221" t="str">
-        <f>CONCATENATE(A221, "_", F221, "_", G221)</f>
-        <v>THP-1_BR1_PMA</v>
+        <f t="shared" si="3"/>
+        <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>20</v>
-      </c>
-      <c r="B222" t="s">
-        <v>284</v>
-      </c>
-      <c r="C222" t="s">
-        <v>283</v>
-      </c>
-      <c r="D222" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F222" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>162</v>
+      </c>
+      <c r="H222" t="str">
+        <f t="shared" si="3"/>
+        <v>NHBE_BR1_Baseline</v>
+      </c>
+      <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>163</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" t="s">
         <v>14</v>
       </c>
-      <c r="G222" t="s">
-        <v>166</v>
-      </c>
-      <c r="H222" t="str">
-        <f>CONCATENATE(A222, "_", F222, "_", G222)</f>
-        <v>THP-1_BR2_PMA</v>
-      </c>
-      <c r="I222">
-        <v>2</v>
-      </c>
-      <c r="J222" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>20</v>
-      </c>
-      <c r="B223" t="s">
-        <v>284</v>
-      </c>
-      <c r="C223" t="s">
-        <v>283</v>
-      </c>
-      <c r="D223" t="s">
-        <v>283</v>
-      </c>
-      <c r="E223" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223" t="s">
-        <v>13</v>
-      </c>
       <c r="G223" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H223" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>20</v>
-      </c>
-      <c r="B224" t="s">
-        <v>284</v>
-      </c>
-      <c r="C224" t="s">
-        <v>283</v>
-      </c>
-      <c r="D224" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="G224" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H224" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_PMA+LPS</v>
+        <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J224" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>20</v>
-      </c>
-      <c r="B225" t="s">
-        <v>284</v>
-      </c>
-      <c r="C225" t="s">
-        <v>283</v>
-      </c>
-      <c r="D225" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E225" t="s">
         <v>9</v>
@@ -8965,31 +8969,22 @@
         <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H225" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_VD3</v>
+        <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J225" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>20</v>
-      </c>
-      <c r="B226" t="s">
-        <v>284</v>
-      </c>
-      <c r="C226" t="s">
-        <v>283</v>
-      </c>
-      <c r="D226" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
@@ -8998,157 +8993,130 @@
         <v>14</v>
       </c>
       <c r="G226" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H226" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_VD3</v>
+        <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J226" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>20</v>
-      </c>
-      <c r="B227" t="s">
-        <v>284</v>
-      </c>
-      <c r="C227" t="s">
-        <v>283</v>
-      </c>
-      <c r="D227" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>13</v>
+        <v>365</v>
       </c>
       <c r="G227" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H227" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>20</v>
-      </c>
-      <c r="B228" t="s">
-        <v>284</v>
-      </c>
-      <c r="C228" t="s">
-        <v>283</v>
-      </c>
-      <c r="D228" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H228" t="str">
         <f t="shared" si="3"/>
-        <v>THP-1_BR2_VD3+LPS</v>
+        <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>21</v>
-      </c>
-      <c r="B229" t="s">
-        <v>285</v>
-      </c>
-      <c r="C229" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G229" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H229" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_LPS</v>
+        <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>21</v>
-      </c>
-      <c r="B230" t="s">
-        <v>285</v>
-      </c>
-      <c r="C230" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="G230" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H230" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_LPS</v>
+        <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B231" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C231" t="s">
         <v>283</v>
       </c>
+      <c r="D231" t="s">
+        <v>283</v>
+      </c>
       <c r="E231" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F231" t="s">
         <v>13</v>
@@ -9158,27 +9126,33 @@
       </c>
       <c r="H231" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_Baseline</v>
+        <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I231">
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="K231" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B232" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C232" t="s">
         <v>283</v>
       </c>
+      <c r="D232" t="s">
+        <v>283</v>
+      </c>
       <c r="E232" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F232" t="s">
         <v>14</v>
@@ -9188,261 +9162,318 @@
       </c>
       <c r="H232" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_Baseline</v>
+        <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I232">
         <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="K232" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B233" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C233" t="s">
         <v>283</v>
       </c>
+      <c r="D233" t="s">
+        <v>283</v>
+      </c>
       <c r="E233" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F233" t="s">
         <v>13</v>
       </c>
       <c r="G233" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H233" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_PMA</v>
+        <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I233">
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="K233" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B234" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C234" t="s">
         <v>283</v>
       </c>
+      <c r="D234" t="s">
+        <v>283</v>
+      </c>
       <c r="E234" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
       </c>
       <c r="G234" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H234" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_PMA</v>
+        <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I234">
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="K234" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B235" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C235" t="s">
         <v>283</v>
       </c>
+      <c r="D235" t="s">
+        <v>283</v>
+      </c>
       <c r="E235" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F235" t="s">
         <v>13</v>
       </c>
       <c r="G235" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H235" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_PMA+LPS</v>
+        <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I235">
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="K235" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B236" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C236" t="s">
         <v>283</v>
       </c>
+      <c r="D236" t="s">
+        <v>283</v>
+      </c>
       <c r="E236" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F236" t="s">
         <v>14</v>
       </c>
       <c r="G236" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H236" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_PMA+LPS</v>
+        <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K236" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B237" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C237" t="s">
         <v>283</v>
       </c>
+      <c r="D237" t="s">
+        <v>283</v>
+      </c>
       <c r="E237" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F237" t="s">
         <v>13</v>
       </c>
       <c r="G237" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H237" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3</v>
+        <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I237">
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="K237" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B238" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C238" t="s">
         <v>283</v>
       </c>
+      <c r="D238" t="s">
+        <v>283</v>
+      </c>
       <c r="E238" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F238" t="s">
         <v>14</v>
       </c>
       <c r="G238" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H238" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_VD3</v>
+        <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I238">
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="K238" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B239" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C239" t="s">
         <v>283</v>
       </c>
+      <c r="D239" t="s">
+        <v>283</v>
+      </c>
       <c r="E239" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F239" t="s">
         <v>13</v>
       </c>
       <c r="G239" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H239" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR1_VD3+LPS</v>
+        <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I239">
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K239" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B240" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C240" t="s">
         <v>283</v>
       </c>
+      <c r="D240" t="s">
+        <v>283</v>
+      </c>
       <c r="E240" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G240" t="s">
         <v>167</v>
       </c>
       <c r="H240" t="str">
         <f t="shared" si="3"/>
-        <v>U937_BR2_VD3+LPS</v>
+        <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I240">
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="K240" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B241" t="s">
+        <v>285</v>
+      </c>
+      <c r="C241" t="s">
+        <v>283</v>
       </c>
       <c r="E241" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F241" t="s">
         <v>13</v>
@@ -9452,21 +9483,30 @@
       </c>
       <c r="H241" t="str">
         <f t="shared" si="3"/>
-        <v>NHBE_BR1_Baseline</v>
+        <v>U937_BR1_Baseline</v>
       </c>
       <c r="I241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="K241" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B242" t="s">
+        <v>285</v>
+      </c>
+      <c r="C242" t="s">
+        <v>283</v>
       </c>
       <c r="E242" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F242" t="s">
         <v>14</v>
@@ -9475,268 +9515,361 @@
         <v>162</v>
       </c>
       <c r="H242" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR2_Baseline</v>
+        <f t="shared" ref="H242:H261" si="4">CONCATENATE(A242, "_", F242, "_", G242)</f>
+        <v>U937_BR2_Baseline</v>
       </c>
       <c r="I242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="K242" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B243" t="s">
+        <v>285</v>
+      </c>
+      <c r="C243" t="s">
+        <v>283</v>
       </c>
       <c r="E243" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F243" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="G243" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR3_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>U937_BR1_LPS</v>
       </c>
       <c r="I243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K243" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B244" t="s">
+        <v>285</v>
+      </c>
+      <c r="C244" t="s">
+        <v>283</v>
       </c>
       <c r="E244" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G244" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H244" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR1_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>U937_BR2_LPS</v>
       </c>
       <c r="I244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="K244" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B245" t="s">
+        <v>285</v>
+      </c>
+      <c r="C245" t="s">
+        <v>283</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F245" t="s">
+        <v>13</v>
+      </c>
+      <c r="G245" t="s">
+        <v>166</v>
+      </c>
+      <c r="H245" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR1_PMA</v>
+      </c>
+      <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="J245" t="s">
+        <v>401</v>
+      </c>
+      <c r="K245" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" t="s">
+        <v>285</v>
+      </c>
+      <c r="C246" t="s">
+        <v>283</v>
+      </c>
+      <c r="E246" t="s">
+        <v>22</v>
+      </c>
+      <c r="F246" t="s">
         <v>14</v>
       </c>
-      <c r="G245" t="s">
-        <v>162</v>
-      </c>
-      <c r="H245" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR2_Baseline</v>
-      </c>
-      <c r="I245">
-        <v>3</v>
-      </c>
-      <c r="J245" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>163</v>
-      </c>
-      <c r="E246" t="s">
-        <v>8</v>
-      </c>
-      <c r="F246" t="s">
-        <v>365</v>
-      </c>
       <c r="G246" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H246" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR3_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>U937_BR2_PMA</v>
       </c>
       <c r="I246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="K246" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B247" t="s">
+        <v>285</v>
+      </c>
+      <c r="C247" t="s">
+        <v>283</v>
       </c>
       <c r="E247" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F247" t="s">
         <v>13</v>
       </c>
       <c r="G247" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H247" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR1_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="K247" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B248" t="s">
+        <v>285</v>
+      </c>
+      <c r="C248" t="s">
+        <v>283</v>
       </c>
       <c r="E248" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F248" t="s">
         <v>14</v>
       </c>
       <c r="G248" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H248" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR2_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="K248" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B249" t="s">
+        <v>285</v>
+      </c>
+      <c r="C249" t="s">
+        <v>283</v>
       </c>
       <c r="E249" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F249" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="G249" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H249" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR3_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>U937_BR1_VD3</v>
       </c>
       <c r="I249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J249" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="K249" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B250" t="s">
+        <v>285</v>
+      </c>
+      <c r="C250" t="s">
+        <v>283</v>
       </c>
       <c r="E250" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G250" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H250" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR1_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>U937_BR2_VD3</v>
       </c>
       <c r="I250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="K250" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="B251" t="s">
+        <v>285</v>
+      </c>
+      <c r="C251" t="s">
+        <v>283</v>
       </c>
       <c r="E251" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F251" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" t="s">
+        <v>167</v>
+      </c>
+      <c r="H251" t="str">
+        <f t="shared" si="4"/>
+        <v>U937_BR1_VD3+LPS</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251" t="s">
+        <v>407</v>
+      </c>
+      <c r="K251" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" t="s">
+        <v>285</v>
+      </c>
+      <c r="C252" t="s">
+        <v>283</v>
+      </c>
+      <c r="E252" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252" t="s">
         <v>14</v>
       </c>
-      <c r="G251" t="s">
-        <v>162</v>
-      </c>
-      <c r="H251" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR2_Baseline</v>
-      </c>
-      <c r="I251">
-        <v>3</v>
-      </c>
-      <c r="J251" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>163</v>
-      </c>
-      <c r="E252" t="s">
-        <v>10</v>
-      </c>
-      <c r="F252" t="s">
-        <v>365</v>
-      </c>
       <c r="G252" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H252" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR3_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="K252" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C253" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D253" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E253" t="s">
         <v>22</v>
@@ -9748,28 +9881,28 @@
         <v>162</v>
       </c>
       <c r="H253" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR1_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C254" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D254" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E254" t="s">
         <v>22</v>
@@ -9781,28 +9914,28 @@
         <v>162</v>
       </c>
       <c r="H254" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR2_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C255" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D255" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E255" t="s">
         <v>22</v>
@@ -9811,31 +9944,31 @@
         <v>13</v>
       </c>
       <c r="G255" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H255" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR1_LPS</v>
+        <f t="shared" si="4"/>
+        <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C256" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D256" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E256" t="s">
         <v>22</v>
@@ -9844,31 +9977,31 @@
         <v>14</v>
       </c>
       <c r="G256" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H256" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR2_LPS</v>
+        <f t="shared" si="4"/>
+        <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C257" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D257" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E257" t="s">
         <v>22</v>
@@ -9877,31 +10010,31 @@
         <v>13</v>
       </c>
       <c r="G257" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H257" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR1_PMA</v>
+        <f t="shared" si="4"/>
+        <v>K562_BR1_Baseline</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C258" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D258" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E258" t="s">
         <v>22</v>
@@ -9910,31 +10043,31 @@
         <v>14</v>
       </c>
       <c r="G258" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H258" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR2_PMA</v>
+        <f t="shared" si="4"/>
+        <v>K562_BR2_Baseline</v>
       </c>
       <c r="I258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C259" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D259" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E259" t="s">
         <v>22</v>
@@ -9943,31 +10076,31 @@
         <v>13</v>
       </c>
       <c r="G259" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H259" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR1_PMA+LPS</v>
+        <f t="shared" si="4"/>
+        <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C260" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D260" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E260" t="s">
         <v>22</v>
@@ -9976,31 +10109,31 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H260" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR2_PMA+LPS</v>
+        <f t="shared" si="4"/>
+        <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C261" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D261" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E261" t="s">
         <v>22</v>
@@ -10009,744 +10142,70 @@
         <v>13</v>
       </c>
       <c r="G261" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H261" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR1_VD3</v>
+        <f t="shared" si="4"/>
+        <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B262" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C262" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D262" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E262" t="s">
         <v>22</v>
       </c>
       <c r="F262" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G262" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H262" t="str">
-        <f t="shared" si="3"/>
-        <v>THP-1_BR1_VD3+LPS</v>
+        <f t="shared" ref="H262" si="5">CONCATENATE(A262, "_", F262, "_", G262)</f>
+        <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>21</v>
-      </c>
-      <c r="B263" t="s">
-        <v>285</v>
-      </c>
-      <c r="C263" t="s">
-        <v>283</v>
-      </c>
-      <c r="E263" t="s">
-        <v>22</v>
-      </c>
-      <c r="F263" t="s">
-        <v>13</v>
-      </c>
-      <c r="G263" t="s">
-        <v>162</v>
-      </c>
-      <c r="H263" t="str">
-        <f t="shared" si="3"/>
-        <v>U937_BR1_Baseline</v>
-      </c>
-      <c r="I263">
-        <v>2</v>
-      </c>
-      <c r="J263" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>21</v>
-      </c>
-      <c r="B264" t="s">
-        <v>285</v>
-      </c>
-      <c r="C264" t="s">
-        <v>283</v>
-      </c>
-      <c r="E264" t="s">
-        <v>22</v>
-      </c>
-      <c r="F264" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" t="s">
-        <v>162</v>
-      </c>
-      <c r="H264" t="str">
-        <f t="shared" ref="H264:H283" si="4">CONCATENATE(A264, "_", F264, "_", G264)</f>
-        <v>U937_BR2_Baseline</v>
-      </c>
-      <c r="I264">
-        <v>2</v>
-      </c>
-      <c r="J264" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>21</v>
-      </c>
-      <c r="B265" t="s">
-        <v>285</v>
-      </c>
-      <c r="C265" t="s">
-        <v>283</v>
-      </c>
-      <c r="E265" t="s">
-        <v>22</v>
-      </c>
-      <c r="F265" t="s">
-        <v>13</v>
-      </c>
-      <c r="G265" t="s">
-        <v>164</v>
-      </c>
-      <c r="H265" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR1_LPS</v>
-      </c>
-      <c r="I265">
-        <v>2</v>
-      </c>
-      <c r="J265" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>21</v>
-      </c>
-      <c r="B266" t="s">
-        <v>285</v>
-      </c>
-      <c r="C266" t="s">
-        <v>283</v>
-      </c>
-      <c r="E266" t="s">
-        <v>22</v>
-      </c>
-      <c r="F266" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" t="s">
-        <v>164</v>
-      </c>
-      <c r="H266" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR2_LPS</v>
-      </c>
-      <c r="I266">
-        <v>2</v>
-      </c>
-      <c r="J266" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>21</v>
-      </c>
-      <c r="B267" t="s">
-        <v>285</v>
-      </c>
-      <c r="C267" t="s">
-        <v>283</v>
-      </c>
-      <c r="E267" t="s">
-        <v>22</v>
-      </c>
-      <c r="F267" t="s">
-        <v>13</v>
-      </c>
-      <c r="G267" t="s">
-        <v>166</v>
-      </c>
-      <c r="H267" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR1_PMA</v>
-      </c>
-      <c r="I267">
-        <v>2</v>
-      </c>
-      <c r="J267" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>21</v>
-      </c>
-      <c r="B268" t="s">
-        <v>285</v>
-      </c>
-      <c r="C268" t="s">
-        <v>283</v>
-      </c>
-      <c r="E268" t="s">
-        <v>22</v>
-      </c>
-      <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>166</v>
-      </c>
-      <c r="H268" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR2_PMA</v>
-      </c>
-      <c r="I268">
-        <v>2</v>
-      </c>
-      <c r="J268" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>21</v>
-      </c>
-      <c r="B269" t="s">
-        <v>285</v>
-      </c>
-      <c r="C269" t="s">
-        <v>283</v>
-      </c>
-      <c r="E269" t="s">
-        <v>22</v>
-      </c>
-      <c r="F269" t="s">
-        <v>13</v>
-      </c>
-      <c r="G269" t="s">
-        <v>165</v>
-      </c>
-      <c r="H269" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR1_PMA+LPS</v>
-      </c>
-      <c r="I269">
-        <v>2</v>
-      </c>
-      <c r="J269" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>21</v>
-      </c>
-      <c r="B270" t="s">
-        <v>285</v>
-      </c>
-      <c r="C270" t="s">
-        <v>283</v>
-      </c>
-      <c r="E270" t="s">
-        <v>22</v>
-      </c>
-      <c r="F270" t="s">
-        <v>14</v>
-      </c>
-      <c r="G270" t="s">
-        <v>165</v>
-      </c>
-      <c r="H270" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR2_PMA+LPS</v>
-      </c>
-      <c r="I270">
-        <v>2</v>
-      </c>
-      <c r="J270" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>21</v>
-      </c>
-      <c r="B271" t="s">
-        <v>285</v>
-      </c>
-      <c r="C271" t="s">
-        <v>283</v>
-      </c>
-      <c r="E271" t="s">
-        <v>22</v>
-      </c>
-      <c r="F271" t="s">
-        <v>13</v>
-      </c>
-      <c r="G271" t="s">
-        <v>168</v>
-      </c>
-      <c r="H271" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR1_VD3</v>
-      </c>
-      <c r="I271">
-        <v>2</v>
-      </c>
-      <c r="J271" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>21</v>
-      </c>
-      <c r="B272" t="s">
-        <v>285</v>
-      </c>
-      <c r="C272" t="s">
-        <v>283</v>
-      </c>
-      <c r="E272" t="s">
-        <v>22</v>
-      </c>
-      <c r="F272" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" t="s">
-        <v>168</v>
-      </c>
-      <c r="H272" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR2_VD3</v>
-      </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
-      <c r="J272" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>21</v>
-      </c>
-      <c r="B273" t="s">
-        <v>285</v>
-      </c>
-      <c r="C273" t="s">
-        <v>283</v>
-      </c>
-      <c r="E273" t="s">
-        <v>22</v>
-      </c>
-      <c r="F273" t="s">
-        <v>13</v>
-      </c>
-      <c r="G273" t="s">
-        <v>167</v>
-      </c>
-      <c r="H273" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR1_VD3+LPS</v>
-      </c>
-      <c r="I273">
-        <v>2</v>
-      </c>
-      <c r="J273" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>21</v>
-      </c>
-      <c r="B274" t="s">
-        <v>285</v>
-      </c>
-      <c r="C274" t="s">
-        <v>283</v>
-      </c>
-      <c r="E274" t="s">
-        <v>22</v>
-      </c>
-      <c r="F274" t="s">
-        <v>14</v>
-      </c>
-      <c r="G274" t="s">
-        <v>167</v>
-      </c>
-      <c r="H274" t="str">
-        <f t="shared" si="4"/>
-        <v>U937_BR2_VD3+LPS</v>
-      </c>
-      <c r="I274">
-        <v>2</v>
-      </c>
-      <c r="J274" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>2</v>
-      </c>
-      <c r="B275" t="s">
-        <v>270</v>
-      </c>
-      <c r="C275" t="s">
-        <v>277</v>
-      </c>
-      <c r="D275" t="s">
-        <v>274</v>
-      </c>
-      <c r="E275" t="s">
-        <v>22</v>
-      </c>
-      <c r="F275" t="s">
-        <v>13</v>
-      </c>
-      <c r="G275" t="s">
-        <v>162</v>
-      </c>
-      <c r="H275" t="str">
-        <f t="shared" si="4"/>
-        <v>F36P_BR1_Baseline</v>
-      </c>
-      <c r="I275">
-        <v>1</v>
-      </c>
-      <c r="J275" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>2</v>
-      </c>
-      <c r="B276" t="s">
-        <v>270</v>
-      </c>
-      <c r="C276" t="s">
-        <v>277</v>
-      </c>
-      <c r="D276" t="s">
-        <v>274</v>
-      </c>
-      <c r="E276" t="s">
-        <v>22</v>
-      </c>
-      <c r="F276" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" t="s">
-        <v>162</v>
-      </c>
-      <c r="H276" t="str">
-        <f t="shared" si="4"/>
-        <v>F36P_BR2_Baseline</v>
-      </c>
-      <c r="I276">
-        <v>1</v>
-      </c>
-      <c r="J276" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>3</v>
-      </c>
-      <c r="B277" t="s">
-        <v>270</v>
-      </c>
-      <c r="C277" t="s">
-        <v>275</v>
-      </c>
-      <c r="D277" t="s">
-        <v>272</v>
-      </c>
-      <c r="E277" t="s">
-        <v>22</v>
-      </c>
-      <c r="F277" t="s">
-        <v>13</v>
-      </c>
-      <c r="G277" t="s">
-        <v>162</v>
-      </c>
-      <c r="H277" t="str">
-        <f t="shared" si="4"/>
-        <v>HEL9217_BR1_Baseline</v>
-      </c>
-      <c r="I277">
-        <v>1</v>
-      </c>
-      <c r="J277" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>3</v>
-      </c>
-      <c r="B278" t="s">
-        <v>270</v>
-      </c>
-      <c r="C278" t="s">
-        <v>275</v>
-      </c>
-      <c r="D278" t="s">
-        <v>272</v>
-      </c>
-      <c r="E278" t="s">
-        <v>22</v>
-      </c>
-      <c r="F278" t="s">
-        <v>14</v>
-      </c>
-      <c r="G278" t="s">
-        <v>162</v>
-      </c>
-      <c r="H278" t="str">
-        <f t="shared" si="4"/>
-        <v>HEL9217_BR2_Baseline</v>
-      </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
-      <c r="J278" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>4</v>
-      </c>
-      <c r="B279" t="s">
-        <v>270</v>
-      </c>
-      <c r="C279" t="s">
-        <v>275</v>
-      </c>
-      <c r="D279" t="s">
-        <v>274</v>
-      </c>
-      <c r="E279" t="s">
-        <v>22</v>
-      </c>
-      <c r="F279" t="s">
-        <v>13</v>
-      </c>
-      <c r="G279" t="s">
-        <v>162</v>
-      </c>
-      <c r="H279" t="str">
-        <f t="shared" si="4"/>
-        <v>K562_BR1_Baseline</v>
-      </c>
-      <c r="I279">
-        <v>1</v>
-      </c>
-      <c r="J279" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>4</v>
-      </c>
-      <c r="B280" t="s">
-        <v>270</v>
-      </c>
-      <c r="C280" t="s">
-        <v>275</v>
-      </c>
-      <c r="D280" t="s">
-        <v>274</v>
-      </c>
-      <c r="E280" t="s">
-        <v>22</v>
-      </c>
-      <c r="F280" t="s">
-        <v>14</v>
-      </c>
-      <c r="G280" t="s">
-        <v>162</v>
-      </c>
-      <c r="H280" t="str">
-        <f t="shared" si="4"/>
-        <v>K562_BR2_Baseline</v>
-      </c>
-      <c r="I280">
-        <v>1</v>
-      </c>
-      <c r="J280" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>6</v>
-      </c>
-      <c r="B281" t="s">
-        <v>270</v>
-      </c>
-      <c r="C281" t="s">
-        <v>275</v>
-      </c>
-      <c r="D281" t="s">
-        <v>273</v>
-      </c>
-      <c r="E281" t="s">
-        <v>22</v>
-      </c>
-      <c r="F281" t="s">
-        <v>13</v>
-      </c>
-      <c r="G281" t="s">
-        <v>162</v>
-      </c>
-      <c r="H281" t="str">
-        <f t="shared" si="4"/>
-        <v>MEG01_BR1_Baseline</v>
-      </c>
-      <c r="I281">
-        <v>1</v>
-      </c>
-      <c r="J281" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>6</v>
-      </c>
-      <c r="B282" t="s">
-        <v>270</v>
-      </c>
-      <c r="C282" t="s">
-        <v>275</v>
-      </c>
-      <c r="D282" t="s">
-        <v>273</v>
-      </c>
-      <c r="E282" t="s">
-        <v>22</v>
-      </c>
-      <c r="F282" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" t="s">
-        <v>162</v>
-      </c>
-      <c r="H282" t="str">
-        <f t="shared" si="4"/>
-        <v>MEG01_BR2_Baseline</v>
-      </c>
-      <c r="I282">
-        <v>1</v>
-      </c>
-      <c r="J282" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>7</v>
-      </c>
-      <c r="B283" t="s">
-        <v>270</v>
-      </c>
-      <c r="C283" t="s">
-        <v>274</v>
-      </c>
-      <c r="D283" t="s">
-        <v>274</v>
-      </c>
-      <c r="E283" t="s">
-        <v>22</v>
-      </c>
-      <c r="F283" t="s">
-        <v>13</v>
-      </c>
-      <c r="G283" t="s">
-        <v>162</v>
-      </c>
-      <c r="H283" t="str">
-        <f t="shared" si="4"/>
-        <v>UT7_BR1_Baseline</v>
-      </c>
-      <c r="I283">
-        <v>1</v>
-      </c>
-      <c r="J283" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>7</v>
-      </c>
-      <c r="B284" t="s">
-        <v>270</v>
-      </c>
-      <c r="C284" t="s">
-        <v>274</v>
-      </c>
-      <c r="D284" t="s">
-        <v>274</v>
-      </c>
-      <c r="E284" t="s">
-        <v>22</v>
-      </c>
-      <c r="F284" t="s">
-        <v>14</v>
-      </c>
-      <c r="G284" t="s">
-        <v>162</v>
-      </c>
-      <c r="H284" t="str">
-        <f t="shared" ref="H284" si="5">CONCATENATE(A284, "_", F284, "_", G284)</f>
-        <v>UT7_BR2_Baseline</v>
-      </c>
-      <c r="I284">
-        <v>1</v>
-      </c>
-      <c r="J284" t="s">
         <v>418</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K284"/>
+  <autoFilter ref="A1:K262">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Control"/>
+        <filter val="CTCF"/>
+        <filter val="H3K27ac"/>
+        <filter val="H3K27me3"/>
+        <filter val="H3K4me3"/>
+        <filter val="Input"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/data_gsk.xlsx
+++ b/data/data_gsk.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="427">
   <si>
     <t>Cell</t>
   </si>
@@ -440,60 +440,36 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7-TF-BR2_CTCF_TR1.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_CTCF_ChIP-Seq_3974_bwa_samse_1_2_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K27ac_ChIP-Seq_3974_bwa_samse_1_2_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_H3K27ac_ChIP-Seq_3974_bwa_samse_HS32_18418:3_edited_BR1.bam</t>
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_H3K27ac_ChIP-Seq_3974_bwa_samse_HS32_18418:4_edited_BR2.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K27me3_ChIP-Seq_3974_bwa_samse_1_2_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_H3K27me3_ChIP-Seq_3974_bwa_samse_HS32_18418:3_edited_BR1.bam</t>
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_H3K27me3_ChIP-Seq_3974_bwa_samse_HS32_18418:4_edited_BR2.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K4me3_ChIP-Seq_3974_bwa_samse_1_2_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_H3K4me3_ChIP-Seq_3974_bwa_samse_HS32_18418:3_#1_edited_BR1.bam</t>
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_H3K4me3_ChIP-Seq_3974_bwa_samse_HS32_18418:3_#5_edited_BR2.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_CTCF_ChIP-Seq_3974_bwa_samse_1_2_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_H3K27ac_ChIP-Seq_3974_bwa_samse_1_2_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/BEAS2B_H3K27ac_ChIP-Seq_3974_bwa_samse_HS32_18418:4_edited_BR1.bam</t>
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/BEAS2B_H3K27ac_ChIP-Seq_3974_bwa_samse_HS32_18418:5_edited_BR2.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_H3K27me3_ChIP-Seq_3974_bwa_samse_1_2_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/BEAS2B_H3K27me3_ChIP-Seq_3974_bwa_samse_HS32_18418:5_#1_edited_BR1.bam</t>
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/BEAS2B_H3K27me3_ChIP-Seq_3974_bwa_samse_HS32_18418:5_#5_edited_BR2.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_H3K4me3_ChIP-Seq_3974_bwa_samse_1_2_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/BEAS2B_H3K4me3_ChIP-Seq_3974_bwa_samse_HS32_18418:4_edited_BR1.bam</t>
   </si>
   <si>
@@ -1275,6 +1251,54 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/UT7_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K27me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27me3_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K27me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_H3K27me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27me3_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_H3K27me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/BEAS2B_H3K4me3_ChIP-Seq_P3Lungepitheliacelltypes89_H3K4me3_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1668,13 +1692,13 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -1688,13 +1712,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1703,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2, "_", F2, "_", G2)</f>
@@ -1724,13 +1748,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1739,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">CONCATENATE(A3, "_", F3, "_", G3)</f>
@@ -1760,13 +1784,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1775,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -1796,13 +1820,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1811,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -1832,13 +1856,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1847,7 +1871,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -1868,13 +1892,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1883,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -1904,13 +1928,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1919,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1940,13 +1964,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1955,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1976,13 +2000,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1991,7 +2015,7 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -2012,13 +2036,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -2027,7 +2051,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -2048,13 +2072,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -2063,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -2084,13 +2108,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -2099,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -2120,13 +2144,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -2135,7 +2159,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -2156,13 +2180,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2171,7 +2195,7 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -2192,13 +2216,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -2207,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -2228,13 +2252,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -2243,7 +2267,7 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -2264,13 +2288,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D18" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -2279,7 +2303,7 @@
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -2300,13 +2324,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -2315,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -2336,13 +2360,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D20" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -2351,7 +2375,7 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -2372,13 +2396,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -2387,7 +2411,7 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -2408,13 +2432,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -2423,7 +2447,7 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -2444,13 +2468,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -2459,7 +2483,7 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -2480,13 +2504,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -2495,7 +2519,7 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -2516,13 +2540,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -2531,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -2552,13 +2576,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -2567,7 +2591,7 @@
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -2588,13 +2612,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2603,7 +2627,7 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -2624,13 +2648,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -2639,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -2660,13 +2684,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -2675,7 +2699,7 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -2696,13 +2720,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -2711,7 +2735,7 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -2732,13 +2756,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C31" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -2747,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -2768,13 +2792,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -2783,7 +2807,7 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -2804,13 +2828,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D33" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -2819,7 +2843,7 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -2840,13 +2864,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -2855,7 +2879,7 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -2876,13 +2900,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -2891,7 +2915,7 @@
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -2912,13 +2936,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -2927,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -2948,13 +2972,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C37" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -2963,7 +2987,7 @@
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -2984,13 +3008,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -2999,7 +3023,7 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -3020,13 +3044,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -3035,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -3056,13 +3080,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -3071,7 +3095,7 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
@@ -3092,13 +3116,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -3107,7 +3131,7 @@
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
@@ -3128,13 +3152,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -3143,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -3164,13 +3188,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C43" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -3179,7 +3203,7 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
@@ -3200,13 +3224,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -3215,7 +3239,7 @@
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -3236,13 +3260,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C45" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -3251,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -3272,13 +3296,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -3287,7 +3311,7 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -3308,13 +3332,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D47" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -3323,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -3344,13 +3368,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -3359,7 +3383,7 @@
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -3380,13 +3404,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -3395,7 +3419,7 @@
         <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -3416,13 +3440,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C50" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -3431,7 +3455,7 @@
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -3452,13 +3476,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C51" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -3467,7 +3491,7 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -3488,13 +3512,13 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -3503,7 +3527,7 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -3524,13 +3548,13 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -3539,7 +3563,7 @@
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -3560,13 +3584,13 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -3575,7 +3599,7 @@
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -3596,13 +3620,13 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D55" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -3611,7 +3635,7 @@
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -3632,13 +3656,13 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C56" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -3647,7 +3671,7 @@
         <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -3668,13 +3692,13 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -3683,7 +3707,7 @@
         <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
@@ -3704,13 +3728,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -3719,7 +3743,7 @@
         <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
@@ -3740,13 +3764,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -3755,7 +3779,7 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
@@ -3771,18 +3795,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C60" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -3791,7 +3815,7 @@
         <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
@@ -3801,21 +3825,21 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C61" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -3824,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
@@ -3833,19 +3857,22 @@
       <c r="I61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -3854,7 +3881,7 @@
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
@@ -3864,24 +3891,24 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>141</v>
+        <v>413</v>
       </c>
       <c r="K62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D63" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -3890,7 +3917,7 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
@@ -3899,22 +3926,25 @@
       <c r="I63">
         <v>3</v>
       </c>
+      <c r="J63" t="s">
+        <v>414</v>
+      </c>
       <c r="K63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -3923,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
@@ -3933,24 +3963,24 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
       <c r="K64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -3959,7 +3989,7 @@
         <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
@@ -3968,22 +3998,25 @@
       <c r="I65">
         <v>3</v>
       </c>
+      <c r="J65" t="s">
+        <v>416</v>
+      </c>
       <c r="K65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C66" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -3992,7 +4025,7 @@
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
@@ -4002,24 +4035,24 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>147</v>
+        <v>417</v>
       </c>
       <c r="K66" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -4028,7 +4061,7 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H108" si="1">CONCATENATE(A67, "_", F67, "_", G67)</f>
@@ -4037,22 +4070,25 @@
       <c r="I67">
         <v>3</v>
       </c>
+      <c r="J67" t="s">
+        <v>418</v>
+      </c>
       <c r="K67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C68" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D68" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -4061,7 +4097,7 @@
         <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
@@ -4071,21 +4107,21 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C69" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -4094,7 +4130,7 @@
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
@@ -4103,19 +4139,22 @@
       <c r="I69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D70" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -4124,7 +4163,7 @@
         <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
@@ -4134,24 +4173,24 @@
         <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>151</v>
+        <v>421</v>
       </c>
       <c r="K70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -4160,7 +4199,7 @@
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
@@ -4169,22 +4208,25 @@
       <c r="I71">
         <v>3</v>
       </c>
+      <c r="J71" t="s">
+        <v>422</v>
+      </c>
       <c r="K71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -4193,7 +4235,7 @@
         <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
@@ -4203,24 +4245,24 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>154</v>
+        <v>423</v>
       </c>
       <c r="K72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C73" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D73" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -4229,7 +4271,7 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
@@ -4238,22 +4280,25 @@
       <c r="I73">
         <v>3</v>
       </c>
+      <c r="J73" t="s">
+        <v>424</v>
+      </c>
       <c r="K73" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -4262,7 +4307,7 @@
         <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
@@ -4272,24 +4317,24 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>157</v>
+        <v>425</v>
       </c>
       <c r="K74" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -4298,7 +4343,7 @@
         <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
@@ -4307,22 +4352,25 @@
       <c r="I75">
         <v>3</v>
       </c>
+      <c r="J75" t="s">
+        <v>426</v>
+      </c>
       <c r="K75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C76" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D76" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -4331,7 +4379,7 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
@@ -4341,21 +4389,21 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -4364,7 +4412,7 @@
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
@@ -4374,21 +4422,21 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D78" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -4397,7 +4445,7 @@
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
@@ -4407,21 +4455,21 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D79" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -4430,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
@@ -4440,21 +4488,21 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -4463,7 +4511,7 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
@@ -4473,30 +4521,30 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D81" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
@@ -4506,30 +4554,30 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D82" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
@@ -4539,30 +4587,30 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C83" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D83" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
@@ -4572,30 +4620,30 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D84" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
@@ -4605,21 +4653,21 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C85" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D85" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -4628,7 +4676,7 @@
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
@@ -4638,21 +4686,21 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C86" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D86" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -4661,7 +4709,7 @@
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
@@ -4671,21 +4719,21 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D87" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -4694,7 +4742,7 @@
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
@@ -4704,21 +4752,21 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -4727,7 +4775,7 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
@@ -4737,21 +4785,21 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -4760,7 +4808,7 @@
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
@@ -4770,21 +4818,21 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D90" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -4793,7 +4841,7 @@
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
@@ -4803,21 +4851,21 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C91" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D91" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -4826,7 +4874,7 @@
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
@@ -4836,21 +4884,21 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D92" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -4859,7 +4907,7 @@
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
@@ -4869,21 +4917,21 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C93" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D93" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -4892,7 +4940,7 @@
         <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
@@ -4902,21 +4950,21 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D94" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -4925,7 +4973,7 @@
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
@@ -4935,21 +4983,21 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D95" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -4958,7 +5006,7 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
@@ -4968,21 +5016,21 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C96" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D96" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -4991,7 +5039,7 @@
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
@@ -5001,30 +5049,30 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C97" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D97" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="1"/>
@@ -5034,30 +5082,30 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C98" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
@@ -5067,30 +5115,30 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D99" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
@@ -5100,30 +5148,30 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D100" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
@@ -5133,21 +5181,21 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C101" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D101" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -5156,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="1"/>
@@ -5166,21 +5214,21 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C102" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D102" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -5189,7 +5237,7 @@
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="1"/>
@@ -5199,21 +5247,21 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C103" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -5222,7 +5270,7 @@
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="1"/>
@@ -5232,21 +5280,21 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C104" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D104" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -5255,7 +5303,7 @@
         <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="1"/>
@@ -5265,21 +5313,21 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C105" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D105" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
@@ -5288,7 +5336,7 @@
         <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="1"/>
@@ -5298,21 +5346,21 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C106" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D106" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
@@ -5321,7 +5369,7 @@
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="1"/>
@@ -5331,30 +5379,30 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C107" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D107" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E107" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="1"/>
@@ -5364,30 +5412,30 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C108" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D108" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E108" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="1"/>
@@ -5397,30 +5445,30 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C109" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D109" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E109" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" ref="H109:H172" si="2">CONCATENATE(A109, "_", F109, "_", G109)</f>
@@ -5430,30 +5478,30 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C110" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D110" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E110" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="2"/>
@@ -5463,21 +5511,21 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C111" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D111" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -5486,7 +5534,7 @@
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="2"/>
@@ -5496,21 +5544,21 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C112" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D112" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -5519,7 +5567,7 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="2"/>
@@ -5529,21 +5577,21 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C113" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D113" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -5552,7 +5600,7 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="2"/>
@@ -5562,21 +5610,21 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C114" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D114" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -5585,7 +5633,7 @@
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="2"/>
@@ -5595,21 +5643,21 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D115" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
@@ -5618,7 +5666,7 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="2"/>
@@ -5628,21 +5676,21 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D116" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
@@ -5651,7 +5699,7 @@
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="2"/>
@@ -5661,30 +5709,30 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D117" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E117" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="2"/>
@@ -5694,30 +5742,30 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C118" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D118" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="2"/>
@@ -5727,30 +5775,30 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C119" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D119" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E119" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="2"/>
@@ -5760,30 +5808,30 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C120" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D120" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E120" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="2"/>
@@ -5793,21 +5841,21 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C121" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D121" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -5816,7 +5864,7 @@
         <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="2"/>
@@ -5826,21 +5874,21 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C122" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D122" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -5849,7 +5897,7 @@
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="2"/>
@@ -5859,21 +5907,21 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C123" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D123" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -5882,7 +5930,7 @@
         <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="2"/>
@@ -5892,21 +5940,21 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C124" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D124" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -5915,7 +5963,7 @@
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="2"/>
@@ -5925,21 +5973,21 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C125" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D125" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
@@ -5948,7 +5996,7 @@
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="2"/>
@@ -5958,21 +6006,21 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C126" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D126" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
@@ -5981,7 +6029,7 @@
         <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="2"/>
@@ -5991,30 +6039,30 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C127" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D127" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E127" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="2"/>
@@ -6024,30 +6072,30 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C128" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D128" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E128" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F128" t="s">
         <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="2"/>
@@ -6057,30 +6105,30 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C129" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D129" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E129" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F129" t="s">
         <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="2"/>
@@ -6090,30 +6138,30 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C130" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D130" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E130" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="2"/>
@@ -6123,30 +6171,30 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C131" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D131" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E131" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="2"/>
@@ -6156,30 +6204,30 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D132" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E132" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="2"/>
@@ -6189,30 +6237,30 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C133" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D133" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E133" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="2"/>
@@ -6222,30 +6270,30 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D134" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E134" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="2"/>
@@ -6255,18 +6303,18 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C135" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -6275,7 +6323,7 @@
         <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="2"/>
@@ -6285,18 +6333,18 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C136" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -6305,7 +6353,7 @@
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="2"/>
@@ -6315,18 +6363,18 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C137" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -6335,7 +6383,7 @@
         <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="2"/>
@@ -6345,18 +6393,18 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C138" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -6365,7 +6413,7 @@
         <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="2"/>
@@ -6375,18 +6423,18 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C139" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
@@ -6395,7 +6443,7 @@
         <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="2"/>
@@ -6405,18 +6453,18 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C140" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
@@ -6425,7 +6473,7 @@
         <v>14</v>
       </c>
       <c r="G140" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="2"/>
@@ -6435,27 +6483,27 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C141" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E141" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="2"/>
@@ -6465,27 +6513,27 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C142" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E142" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F142" t="s">
         <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="2"/>
@@ -6495,27 +6543,27 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C143" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E143" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F143" t="s">
         <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="2"/>
@@ -6525,27 +6573,27 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C144" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E144" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="2"/>
@@ -6555,18 +6603,18 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C145" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -6575,7 +6623,7 @@
         <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="2"/>
@@ -6585,18 +6633,18 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C146" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -6605,7 +6653,7 @@
         <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="2"/>
@@ -6615,18 +6663,18 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C147" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -6635,7 +6683,7 @@
         <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="2"/>
@@ -6645,18 +6693,18 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C148" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -6665,7 +6713,7 @@
         <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="2"/>
@@ -6675,18 +6723,18 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C149" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
@@ -6695,7 +6743,7 @@
         <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="2"/>
@@ -6705,18 +6753,18 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C150" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -6725,7 +6773,7 @@
         <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="2"/>
@@ -6735,18 +6783,18 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C151" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -6755,7 +6803,7 @@
         <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="2"/>
@@ -6765,18 +6813,18 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C152" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
@@ -6785,7 +6833,7 @@
         <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="2"/>
@@ -6795,18 +6843,18 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C153" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -6815,7 +6863,7 @@
         <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="2"/>
@@ -6825,18 +6873,18 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C154" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -6845,7 +6893,7 @@
         <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="2"/>
@@ -6855,18 +6903,18 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C155" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
@@ -6875,7 +6923,7 @@
         <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="2"/>
@@ -6885,18 +6933,18 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C156" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E156" t="s">
         <v>10</v>
@@ -6905,7 +6953,7 @@
         <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="2"/>
@@ -6915,27 +6963,27 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C157" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E157" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
         <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="2"/>
@@ -6945,27 +6993,27 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C158" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E158" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
         <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="2"/>
@@ -6975,27 +7023,27 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C159" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E159" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="2"/>
@@ -7005,27 +7053,27 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C160" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E160" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
         <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="2"/>
@@ -7035,18 +7083,18 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C161" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -7055,7 +7103,7 @@
         <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="2"/>
@@ -7065,18 +7113,18 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C162" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -7085,7 +7133,7 @@
         <v>14</v>
       </c>
       <c r="G162" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="2"/>
@@ -7095,18 +7143,18 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C163" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -7115,7 +7163,7 @@
         <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="2"/>
@@ -7125,18 +7173,18 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C164" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E164" t="s">
         <v>8</v>
@@ -7145,7 +7193,7 @@
         <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="2"/>
@@ -7155,18 +7203,18 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E165" t="s">
         <v>10</v>
@@ -7175,7 +7223,7 @@
         <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="2"/>
@@ -7185,18 +7233,18 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C166" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
@@ -7205,7 +7253,7 @@
         <v>14</v>
       </c>
       <c r="G166" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="2"/>
@@ -7215,27 +7263,27 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C167" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E167" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="2"/>
@@ -7245,27 +7293,27 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C168" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E168" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="2"/>
@@ -7275,27 +7323,27 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C169" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E169" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="2"/>
@@ -7305,27 +7353,27 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C170" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E170" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F170" t="s">
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="2"/>
@@ -7335,18 +7383,18 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C171" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
@@ -7355,7 +7403,7 @@
         <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="2"/>
@@ -7365,18 +7413,18 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C172" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E172" t="s">
         <v>11</v>
@@ -7385,7 +7433,7 @@
         <v>14</v>
       </c>
       <c r="G172" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="2"/>
@@ -7395,18 +7443,18 @@
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C173" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -7415,7 +7463,7 @@
         <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" ref="H173:H241" si="3">CONCATENATE(A173, "_", F173, "_", G173)</f>
@@ -7425,18 +7473,18 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C174" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E174" t="s">
         <v>8</v>
@@ -7445,7 +7493,7 @@
         <v>14</v>
       </c>
       <c r="G174" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="3"/>
@@ -7455,18 +7503,18 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C175" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E175" t="s">
         <v>10</v>
@@ -7475,7 +7523,7 @@
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="3"/>
@@ -7485,18 +7533,18 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C176" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
@@ -7505,7 +7553,7 @@
         <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="3"/>
@@ -7515,27 +7563,27 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C177" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E177" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="3"/>
@@ -7545,27 +7593,27 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C178" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E178" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="3"/>
@@ -7575,27 +7623,27 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C179" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E179" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="3"/>
@@ -7605,27 +7653,27 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C180" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E180" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="3"/>
@@ -7635,18 +7683,18 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C181" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E181" t="s">
         <v>11</v>
@@ -7655,7 +7703,7 @@
         <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="3"/>
@@ -7665,18 +7713,18 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C182" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
@@ -7685,7 +7733,7 @@
         <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="3"/>
@@ -7695,18 +7743,18 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C183" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -7715,7 +7763,7 @@
         <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="3"/>
@@ -7725,18 +7773,18 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
       <c r="B184" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C184" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -7745,7 +7793,7 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="3"/>
@@ -7755,18 +7803,18 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C185" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -7775,7 +7823,7 @@
         <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="3"/>
@@ -7785,18 +7833,18 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C186" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -7805,7 +7853,7 @@
         <v>14</v>
       </c>
       <c r="G186" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="3"/>
@@ -7815,27 +7863,27 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
       <c r="B187" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C187" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E187" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F187" t="s">
         <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="3"/>
@@ -7845,27 +7893,27 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
       <c r="B188" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C188" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E188" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F188" t="s">
         <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="3"/>
@@ -7875,27 +7923,27 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C189" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E189" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F189" t="s">
         <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="3"/>
@@ -7905,27 +7953,27 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C190" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E190" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F190" t="s">
         <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="3"/>
@@ -7935,27 +7983,27 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C191" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E191" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F191" t="s">
         <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="3"/>
@@ -7965,27 +8013,27 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C192" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E192" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F192" t="s">
         <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="3"/>
@@ -7995,27 +8043,27 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C193" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E193" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F193" t="s">
         <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="3"/>
@@ -8025,27 +8073,27 @@
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
       <c r="B194" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C194" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E194" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F194" t="s">
         <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="3"/>
@@ -8055,21 +8103,21 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C195" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D195" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E195" t="s">
         <v>9</v>
@@ -8078,7 +8126,7 @@
         <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" si="3"/>
@@ -8088,21 +8136,21 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C196" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D196" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E196" t="s">
         <v>9</v>
@@ -8111,7 +8159,7 @@
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="3"/>
@@ -8121,21 +8169,21 @@
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C197" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D197" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
@@ -8144,7 +8192,7 @@
         <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="3"/>
@@ -8154,21 +8202,21 @@
         <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C198" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D198" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
@@ -8177,7 +8225,7 @@
         <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="3"/>
@@ -8187,21 +8235,21 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C199" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D199" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
@@ -8210,7 +8258,7 @@
         <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H199" t="str">
         <f>CONCATENATE(A199, "_", F199, "_", G199)</f>
@@ -8220,21 +8268,21 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D200" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
@@ -8243,7 +8291,7 @@
         <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H200" t="str">
         <f>CONCATENATE(A200, "_", F200, "_", G200)</f>
@@ -8253,21 +8301,21 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C201" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D201" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
@@ -8276,7 +8324,7 @@
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="3"/>
@@ -8286,21 +8334,21 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C202" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D202" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E202" t="s">
         <v>9</v>
@@ -8309,7 +8357,7 @@
         <v>14</v>
       </c>
       <c r="G202" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="3"/>
@@ -8319,21 +8367,21 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C203" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D203" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E203" t="s">
         <v>9</v>
@@ -8342,7 +8390,7 @@
         <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H203" t="str">
         <f t="shared" si="3"/>
@@ -8352,21 +8400,21 @@
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C204" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D204" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E204" t="s">
         <v>9</v>
@@ -8375,7 +8423,7 @@
         <v>14</v>
       </c>
       <c r="G204" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H204" t="str">
         <f t="shared" si="3"/>
@@ -8385,21 +8433,21 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C205" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D205" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E205" t="s">
         <v>9</v>
@@ -8408,7 +8456,7 @@
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H205" t="str">
         <f t="shared" si="3"/>
@@ -8418,21 +8466,21 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C206" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D206" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E206" t="s">
         <v>9</v>
@@ -8441,7 +8489,7 @@
         <v>14</v>
       </c>
       <c r="G206" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H206" t="str">
         <f t="shared" si="3"/>
@@ -8451,18 +8499,18 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
       <c r="B207" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C207" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E207" t="s">
         <v>9</v>
@@ -8471,7 +8519,7 @@
         <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H207" t="str">
         <f t="shared" si="3"/>
@@ -8481,18 +8529,18 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C208" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E208" t="s">
         <v>9</v>
@@ -8501,7 +8549,7 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H208" t="str">
         <f t="shared" si="3"/>
@@ -8511,18 +8559,18 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C209" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E209" t="s">
         <v>9</v>
@@ -8531,7 +8579,7 @@
         <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H209" t="str">
         <f t="shared" si="3"/>
@@ -8541,18 +8589,18 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>21</v>
       </c>
       <c r="B210" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C210" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E210" t="s">
         <v>9</v>
@@ -8561,7 +8609,7 @@
         <v>14</v>
       </c>
       <c r="G210" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H210" t="str">
         <f t="shared" si="3"/>
@@ -8571,18 +8619,18 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
       <c r="B211" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C211" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E211" t="s">
         <v>9</v>
@@ -8591,7 +8639,7 @@
         <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H211" t="str">
         <f t="shared" si="3"/>
@@ -8601,18 +8649,18 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
       <c r="B212" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C212" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E212" t="s">
         <v>9</v>
@@ -8621,7 +8669,7 @@
         <v>14</v>
       </c>
       <c r="G212" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H212" t="str">
         <f t="shared" si="3"/>
@@ -8631,18 +8679,18 @@
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
       <c r="B213" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C213" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E213" t="s">
         <v>9</v>
@@ -8651,7 +8699,7 @@
         <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H213" t="str">
         <f t="shared" si="3"/>
@@ -8661,18 +8709,18 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
       <c r="B214" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C214" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E214" t="s">
         <v>9</v>
@@ -8681,7 +8729,7 @@
         <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H214" t="str">
         <f t="shared" si="3"/>
@@ -8691,18 +8739,18 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C215" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E215" t="s">
         <v>9</v>
@@ -8711,7 +8759,7 @@
         <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H215" t="str">
         <f t="shared" si="3"/>
@@ -8721,18 +8769,18 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
       <c r="B216" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C216" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E216" t="s">
         <v>9</v>
@@ -8741,7 +8789,7 @@
         <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H216" t="str">
         <f t="shared" si="3"/>
@@ -8751,18 +8799,18 @@
         <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>21</v>
       </c>
       <c r="B217" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C217" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E217" t="s">
         <v>9</v>
@@ -8771,7 +8819,7 @@
         <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H217" t="str">
         <f t="shared" si="3"/>
@@ -8781,18 +8829,18 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
       <c r="B218" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C218" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E218" t="s">
         <v>9</v>
@@ -8801,7 +8849,7 @@
         <v>14</v>
       </c>
       <c r="G218" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H218" t="str">
         <f t="shared" si="3"/>
@@ -8811,12 +8859,12 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E219" t="s">
         <v>11</v>
@@ -8825,7 +8873,7 @@
         <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H219" t="str">
         <f t="shared" si="3"/>
@@ -8835,12 +8883,12 @@
         <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
@@ -8849,7 +8897,7 @@
         <v>14</v>
       </c>
       <c r="G220" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H220" t="str">
         <f t="shared" si="3"/>
@@ -8859,21 +8907,21 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E221" t="s">
         <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G221" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H221" t="str">
         <f t="shared" si="3"/>
@@ -8883,12 +8931,12 @@
         <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E222" t="s">
         <v>8</v>
@@ -8897,7 +8945,7 @@
         <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H222" t="str">
         <f t="shared" si="3"/>
@@ -8907,12 +8955,12 @@
         <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
@@ -8921,7 +8969,7 @@
         <v>14</v>
       </c>
       <c r="G223" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H223" t="str">
         <f t="shared" si="3"/>
@@ -8931,21 +8979,21 @@
         <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E224" t="s">
         <v>8</v>
       </c>
       <c r="F224" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G224" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H224" t="str">
         <f t="shared" si="3"/>
@@ -8955,12 +9003,12 @@
         <v>3</v>
       </c>
       <c r="J224" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E225" t="s">
         <v>9</v>
@@ -8969,7 +9017,7 @@
         <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H225" t="str">
         <f t="shared" si="3"/>
@@ -8979,12 +9027,12 @@
         <v>3</v>
       </c>
       <c r="J225" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
@@ -8993,7 +9041,7 @@
         <v>14</v>
       </c>
       <c r="G226" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H226" t="str">
         <f t="shared" si="3"/>
@@ -9003,21 +9051,21 @@
         <v>3</v>
       </c>
       <c r="J226" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G227" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H227" t="str">
         <f t="shared" si="3"/>
@@ -9027,12 +9075,12 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
@@ -9041,7 +9089,7 @@
         <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H228" t="str">
         <f t="shared" si="3"/>
@@ -9051,12 +9099,12 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E229" t="s">
         <v>10</v>
@@ -9065,7 +9113,7 @@
         <v>14</v>
       </c>
       <c r="G229" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H229" t="str">
         <f t="shared" si="3"/>
@@ -9075,21 +9123,21 @@
         <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G230" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H230" t="str">
         <f t="shared" si="3"/>
@@ -9099,7 +9147,7 @@
         <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9107,13 +9155,13 @@
         <v>20</v>
       </c>
       <c r="B231" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C231" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D231" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E231" t="s">
         <v>22</v>
@@ -9122,7 +9170,7 @@
         <v>13</v>
       </c>
       <c r="G231" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H231" t="str">
         <f t="shared" si="3"/>
@@ -9132,7 +9180,7 @@
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K231" t="s">
         <v>23</v>
@@ -9143,13 +9191,13 @@
         <v>20</v>
       </c>
       <c r="B232" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C232" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D232" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E232" t="s">
         <v>22</v>
@@ -9158,7 +9206,7 @@
         <v>14</v>
       </c>
       <c r="G232" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H232" t="str">
         <f t="shared" si="3"/>
@@ -9168,10 +9216,10 @@
         <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K232" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9179,13 +9227,13 @@
         <v>20</v>
       </c>
       <c r="B233" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C233" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D233" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E233" t="s">
         <v>22</v>
@@ -9194,7 +9242,7 @@
         <v>13</v>
       </c>
       <c r="G233" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H233" t="str">
         <f t="shared" si="3"/>
@@ -9204,10 +9252,10 @@
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K233" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9215,13 +9263,13 @@
         <v>20</v>
       </c>
       <c r="B234" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C234" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D234" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E234" t="s">
         <v>22</v>
@@ -9230,7 +9278,7 @@
         <v>14</v>
       </c>
       <c r="G234" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H234" t="str">
         <f t="shared" si="3"/>
@@ -9240,10 +9288,10 @@
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K234" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9251,13 +9299,13 @@
         <v>20</v>
       </c>
       <c r="B235" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C235" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D235" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E235" t="s">
         <v>22</v>
@@ -9266,7 +9314,7 @@
         <v>13</v>
       </c>
       <c r="G235" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H235" t="str">
         <f t="shared" si="3"/>
@@ -9276,10 +9324,10 @@
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K235" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9287,13 +9335,13 @@
         <v>20</v>
       </c>
       <c r="B236" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C236" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D236" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E236" t="s">
         <v>22</v>
@@ -9302,7 +9350,7 @@
         <v>14</v>
       </c>
       <c r="G236" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H236" t="str">
         <f t="shared" si="3"/>
@@ -9312,10 +9360,10 @@
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K236" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9323,13 +9371,13 @@
         <v>20</v>
       </c>
       <c r="B237" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C237" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D237" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E237" t="s">
         <v>22</v>
@@ -9338,7 +9386,7 @@
         <v>13</v>
       </c>
       <c r="G237" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H237" t="str">
         <f t="shared" si="3"/>
@@ -9348,10 +9396,10 @@
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K237" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9359,13 +9407,13 @@
         <v>20</v>
       </c>
       <c r="B238" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C238" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D238" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E238" t="s">
         <v>22</v>
@@ -9374,7 +9422,7 @@
         <v>14</v>
       </c>
       <c r="G238" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H238" t="str">
         <f t="shared" si="3"/>
@@ -9384,10 +9432,10 @@
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K238" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9395,13 +9443,13 @@
         <v>20</v>
       </c>
       <c r="B239" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C239" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D239" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E239" t="s">
         <v>22</v>
@@ -9410,7 +9458,7 @@
         <v>13</v>
       </c>
       <c r="G239" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H239" t="str">
         <f t="shared" si="3"/>
@@ -9420,10 +9468,10 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K239" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9431,13 +9479,13 @@
         <v>20</v>
       </c>
       <c r="B240" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C240" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D240" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E240" t="s">
         <v>22</v>
@@ -9446,7 +9494,7 @@
         <v>13</v>
       </c>
       <c r="G240" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H240" t="str">
         <f t="shared" si="3"/>
@@ -9456,10 +9504,10 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K240" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9467,10 +9515,10 @@
         <v>21</v>
       </c>
       <c r="B241" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C241" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E241" t="s">
         <v>22</v>
@@ -9479,7 +9527,7 @@
         <v>13</v>
       </c>
       <c r="G241" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H241" t="str">
         <f t="shared" si="3"/>
@@ -9489,10 +9537,10 @@
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K241" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9500,10 +9548,10 @@
         <v>21</v>
       </c>
       <c r="B242" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C242" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E242" t="s">
         <v>22</v>
@@ -9512,7 +9560,7 @@
         <v>14</v>
       </c>
       <c r="G242" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" ref="H242:H261" si="4">CONCATENATE(A242, "_", F242, "_", G242)</f>
@@ -9522,10 +9570,10 @@
         <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="K242" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9533,10 +9581,10 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C243" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E243" t="s">
         <v>22</v>
@@ -9545,7 +9593,7 @@
         <v>13</v>
       </c>
       <c r="G243" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H243" t="str">
         <f t="shared" si="4"/>
@@ -9555,10 +9603,10 @@
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K243" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9566,10 +9614,10 @@
         <v>21</v>
       </c>
       <c r="B244" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C244" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E244" t="s">
         <v>22</v>
@@ -9578,7 +9626,7 @@
         <v>14</v>
       </c>
       <c r="G244" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H244" t="str">
         <f t="shared" si="4"/>
@@ -9588,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K244" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9599,10 +9647,10 @@
         <v>21</v>
       </c>
       <c r="B245" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C245" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E245" t="s">
         <v>22</v>
@@ -9611,7 +9659,7 @@
         <v>13</v>
       </c>
       <c r="G245" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H245" t="str">
         <f t="shared" si="4"/>
@@ -9621,10 +9669,10 @@
         <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K245" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9632,10 +9680,10 @@
         <v>21</v>
       </c>
       <c r="B246" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C246" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E246" t="s">
         <v>22</v>
@@ -9644,7 +9692,7 @@
         <v>14</v>
       </c>
       <c r="G246" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H246" t="str">
         <f t="shared" si="4"/>
@@ -9654,10 +9702,10 @@
         <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K246" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9665,10 +9713,10 @@
         <v>21</v>
       </c>
       <c r="B247" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C247" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E247" t="s">
         <v>22</v>
@@ -9677,7 +9725,7 @@
         <v>13</v>
       </c>
       <c r="G247" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H247" t="str">
         <f t="shared" si="4"/>
@@ -9687,10 +9735,10 @@
         <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K247" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9698,10 +9746,10 @@
         <v>21</v>
       </c>
       <c r="B248" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C248" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E248" t="s">
         <v>22</v>
@@ -9710,7 +9758,7 @@
         <v>14</v>
       </c>
       <c r="G248" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H248" t="str">
         <f t="shared" si="4"/>
@@ -9720,10 +9768,10 @@
         <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K248" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9731,10 +9779,10 @@
         <v>21</v>
       </c>
       <c r="B249" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C249" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E249" t="s">
         <v>22</v>
@@ -9743,7 +9791,7 @@
         <v>13</v>
       </c>
       <c r="G249" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H249" t="str">
         <f t="shared" si="4"/>
@@ -9753,10 +9801,10 @@
         <v>2</v>
       </c>
       <c r="J249" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K249" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9764,10 +9812,10 @@
         <v>21</v>
       </c>
       <c r="B250" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C250" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E250" t="s">
         <v>22</v>
@@ -9776,7 +9824,7 @@
         <v>14</v>
       </c>
       <c r="G250" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H250" t="str">
         <f t="shared" si="4"/>
@@ -9786,10 +9834,10 @@
         <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K250" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9797,10 +9845,10 @@
         <v>21</v>
       </c>
       <c r="B251" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C251" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E251" t="s">
         <v>22</v>
@@ -9809,7 +9857,7 @@
         <v>13</v>
       </c>
       <c r="G251" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H251" t="str">
         <f t="shared" si="4"/>
@@ -9819,10 +9867,10 @@
         <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="K251" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9830,10 +9878,10 @@
         <v>21</v>
       </c>
       <c r="B252" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C252" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E252" t="s">
         <v>22</v>
@@ -9842,7 +9890,7 @@
         <v>14</v>
       </c>
       <c r="G252" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H252" t="str">
         <f t="shared" si="4"/>
@@ -9852,10 +9900,10 @@
         <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K252" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9863,13 +9911,13 @@
         <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C253" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D253" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E253" t="s">
         <v>22</v>
@@ -9878,7 +9926,7 @@
         <v>13</v>
       </c>
       <c r="G253" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H253" t="str">
         <f t="shared" si="4"/>
@@ -9888,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9896,13 +9944,13 @@
         <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C254" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D254" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E254" t="s">
         <v>22</v>
@@ -9911,7 +9959,7 @@
         <v>14</v>
       </c>
       <c r="G254" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H254" t="str">
         <f t="shared" si="4"/>
@@ -9921,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9929,13 +9977,13 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C255" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D255" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E255" t="s">
         <v>22</v>
@@ -9944,7 +9992,7 @@
         <v>13</v>
       </c>
       <c r="G255" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H255" t="str">
         <f t="shared" si="4"/>
@@ -9954,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9962,13 +10010,13 @@
         <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C256" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D256" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E256" t="s">
         <v>22</v>
@@ -9977,7 +10025,7 @@
         <v>14</v>
       </c>
       <c r="G256" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H256" t="str">
         <f t="shared" si="4"/>
@@ -9987,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -9995,13 +10043,13 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D257" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E257" t="s">
         <v>22</v>
@@ -10010,7 +10058,7 @@
         <v>13</v>
       </c>
       <c r="G257" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H257" t="str">
         <f t="shared" si="4"/>
@@ -10020,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10028,13 +10076,13 @@
         <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D258" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E258" t="s">
         <v>22</v>
@@ -10043,7 +10091,7 @@
         <v>14</v>
       </c>
       <c r="G258" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H258" t="str">
         <f t="shared" si="4"/>
@@ -10053,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10061,13 +10109,13 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C259" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D259" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E259" t="s">
         <v>22</v>
@@ -10076,7 +10124,7 @@
         <v>13</v>
       </c>
       <c r="G259" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H259" t="str">
         <f t="shared" si="4"/>
@@ -10086,7 +10134,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10094,13 +10142,13 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D260" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E260" t="s">
         <v>22</v>
@@ -10109,7 +10157,7 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H260" t="str">
         <f t="shared" si="4"/>
@@ -10119,7 +10167,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10127,13 +10175,13 @@
         <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D261" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E261" t="s">
         <v>22</v>
@@ -10142,7 +10190,7 @@
         <v>13</v>
       </c>
       <c r="G261" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H261" t="str">
         <f t="shared" si="4"/>
@@ -10152,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10160,13 +10208,13 @@
         <v>7</v>
       </c>
       <c r="B262" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C262" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D262" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E262" t="s">
         <v>22</v>
@@ -10175,7 +10223,7 @@
         <v>14</v>
       </c>
       <c r="G262" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H262" t="str">
         <f t="shared" ref="H262" si="5">CONCATENATE(A262, "_", F262, "_", G262)</f>
@@ -10185,24 +10233,14 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K262">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Control"/>
-        <filter val="CTCF"/>
-        <filter val="H3K27ac"/>
-        <filter val="H3K27me3"/>
-        <filter val="H3K4me3"/>
-        <filter val="Input"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="8">
       <filters>
-        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10232,97 +10270,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -10330,27 +10368,27 @@
         <v>15548</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -10358,54 +10396,54 @@
         <v>22965</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
